--- a/data/sheet/msg_8705.xlsx
+++ b/data/sheet/msg_8705.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2473" uniqueCount="100">
   <si>
     <t/>
   </si>
@@ -163,6 +163,165 @@
   </si>
   <si>
     <t>2022-03-17 12:38:20</t>
+  </si>
+  <si>
+    <t>2022-03-18 09:38:03</t>
+  </si>
+  <si>
+    <t>2022-03-18 12:40:28</t>
+  </si>
+  <si>
+    <t>2022-03-18 12:41:37</t>
+  </si>
+  <si>
+    <t>2022-03-18 12:59:27</t>
+  </si>
+  <si>
+    <t>2022-03-18 12:59:31</t>
+  </si>
+  <si>
+    <t>2022-03-18 13:08:24</t>
+  </si>
+  <si>
+    <t>2022-03-18 13:08:33</t>
+  </si>
+  <si>
+    <t>2022-03-18 13:09:32</t>
+  </si>
+  <si>
+    <t>2022-03-18 13:09:35</t>
+  </si>
+  <si>
+    <t>2022-03-18 13:10:33</t>
+  </si>
+  <si>
+    <t>2022-03-18 13:11:36</t>
+  </si>
+  <si>
+    <t>2022-03-18 13:12:39</t>
+  </si>
+  <si>
+    <t>2022-03-18 13:13:38</t>
+  </si>
+  <si>
+    <t>2022-03-18 13:14:38</t>
+  </si>
+  <si>
+    <t>2022-03-18 13:15:39</t>
+  </si>
+  <si>
+    <t>2022-03-18 13:16:43</t>
+  </si>
+  <si>
+    <t>2022-03-18 13:17:43</t>
+  </si>
+  <si>
+    <t>2022-03-18 13:18:44</t>
+  </si>
+  <si>
+    <t>2022-03-18 13:19:47</t>
+  </si>
+  <si>
+    <t>2022-03-18 15:23:48</t>
+  </si>
+  <si>
+    <t>2022-03-18 15:24:57</t>
+  </si>
+  <si>
+    <t>2022-03-18 15:24:59</t>
+  </si>
+  <si>
+    <t>2022-03-18 15:25:58</t>
+  </si>
+  <si>
+    <t>2022-03-18 15:27:00</t>
+  </si>
+  <si>
+    <t>2022-03-18 15:28:03</t>
+  </si>
+  <si>
+    <t>2022-03-18 15:29:03</t>
+  </si>
+  <si>
+    <t>2022-03-18 15:30:03</t>
+  </si>
+  <si>
+    <t>2022-03-18 15:31:06</t>
+  </si>
+  <si>
+    <t>2022-03-18 15:32:05</t>
+  </si>
+  <si>
+    <t>2022-03-18 15:33:07</t>
+  </si>
+  <si>
+    <t>2022-03-18 15:34:09</t>
+  </si>
+  <si>
+    <t>2022-03-18 15:35:11</t>
+  </si>
+  <si>
+    <t>2022-03-18 15:36:12</t>
+  </si>
+  <si>
+    <t>2022-03-18 15:37:14</t>
+  </si>
+  <si>
+    <t>2022-03-18 15:38:15</t>
+  </si>
+  <si>
+    <t>2022-03-18 15:39:15</t>
+  </si>
+  <si>
+    <t>2022-03-18 15:40:17</t>
+  </si>
+  <si>
+    <t>2022-03-18 15:41:20</t>
+  </si>
+  <si>
+    <t>2022-03-18 15:42:19</t>
+  </si>
+  <si>
+    <t>2022-03-18 15:43:22</t>
+  </si>
+  <si>
+    <t>2022-03-18 15:44:22</t>
+  </si>
+  <si>
+    <t>2022-03-18 15:45:25</t>
+  </si>
+  <si>
+    <t>2022-03-18 15:46:25</t>
+  </si>
+  <si>
+    <t>2022-03-18 15:47:27</t>
+  </si>
+  <si>
+    <t>2022-03-18 15:48:29</t>
+  </si>
+  <si>
+    <t>2022-03-18 15:49:29</t>
+  </si>
+  <si>
+    <t>2022-03-18 15:50:32</t>
+  </si>
+  <si>
+    <t>2022-03-18 15:51:33</t>
+  </si>
+  <si>
+    <t>2022-03-18 15:52:36</t>
+  </si>
+  <si>
+    <t>2022-03-18 15:53:34</t>
+  </si>
+  <si>
+    <t>2022-03-18 15:54:36</t>
+  </si>
+  <si>
+    <t>2022-03-18 15:55:39</t>
+  </si>
+  <si>
+    <t>2022-03-18 15:56:41</t>
   </si>
 </sst>
 </file>
@@ -515,7 +674,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1306,6 +1465,1384 @@
         <v>255.0</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1.647592684E9</v>
+      </c>
+      <c r="E31" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1.647603629E9</v>
+      </c>
+      <c r="E32" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1.647603698E9</v>
+      </c>
+      <c r="E33" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1.647604769E9</v>
+      </c>
+      <c r="E34" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1.647604772E9</v>
+      </c>
+      <c r="E35" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1.647605306E9</v>
+      </c>
+      <c r="E36" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1.647605315E9</v>
+      </c>
+      <c r="E37" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1.647605373E9</v>
+      </c>
+      <c r="E38" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1.647605376E9</v>
+      </c>
+      <c r="E39" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1.647605435E9</v>
+      </c>
+      <c r="E40" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1.647605498E9</v>
+      </c>
+      <c r="E41" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1.64760556E9</v>
+      </c>
+      <c r="E42" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1.64760562E9</v>
+      </c>
+      <c r="E43" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1.64760568E9</v>
+      </c>
+      <c r="E44" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1.647605741E9</v>
+      </c>
+      <c r="E45" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1.647605805E9</v>
+      </c>
+      <c r="E46" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1.647605864E9</v>
+      </c>
+      <c r="E47" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1.647605926E9</v>
+      </c>
+      <c r="E48" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1.647605989E9</v>
+      </c>
+      <c r="E49" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1.64761343E9</v>
+      </c>
+      <c r="E50" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1.647613499E9</v>
+      </c>
+      <c r="E51" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" t="n">
+        <v>1.647613501E9</v>
+      </c>
+      <c r="E52" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" t="n">
+        <v>1.64761356E9</v>
+      </c>
+      <c r="E53" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" t="n">
+        <v>1.647613622E9</v>
+      </c>
+      <c r="E54" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>71</v>
+      </c>
+      <c r="B55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" t="n">
+        <v>1.647613685E9</v>
+      </c>
+      <c r="E55" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" t="n">
+        <v>1.647613745E9</v>
+      </c>
+      <c r="E56" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>73</v>
+      </c>
+      <c r="B57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" t="n">
+        <v>1.647613806E9</v>
+      </c>
+      <c r="E57" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>74</v>
+      </c>
+      <c r="B58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" t="n">
+        <v>1.647613868E9</v>
+      </c>
+      <c r="E58" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>75</v>
+      </c>
+      <c r="B59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" t="n">
+        <v>1.647613928E9</v>
+      </c>
+      <c r="E59" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>76</v>
+      </c>
+      <c r="B60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1.647613989E9</v>
+      </c>
+      <c r="E60" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H60" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>77</v>
+      </c>
+      <c r="B61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" t="n">
+        <v>1.647614052E9</v>
+      </c>
+      <c r="E61" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H61" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>78</v>
+      </c>
+      <c r="B62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" t="n">
+        <v>1.647614114E9</v>
+      </c>
+      <c r="E62" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H62" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>79</v>
+      </c>
+      <c r="B63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1.647614175E9</v>
+      </c>
+      <c r="E63" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H63" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>80</v>
+      </c>
+      <c r="B64" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" t="n">
+        <v>1.647614236E9</v>
+      </c>
+      <c r="E64" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H64" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>81</v>
+      </c>
+      <c r="B65" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" t="n">
+        <v>1.647614297E9</v>
+      </c>
+      <c r="E65" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>82</v>
+      </c>
+      <c r="B66" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" t="n">
+        <v>1.647614358E9</v>
+      </c>
+      <c r="E66" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>83</v>
+      </c>
+      <c r="B67" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" t="n">
+        <v>1.647614419E9</v>
+      </c>
+      <c r="E67" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>84</v>
+      </c>
+      <c r="B68" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" t="n">
+        <v>1.647614482E9</v>
+      </c>
+      <c r="E68" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>85</v>
+      </c>
+      <c r="B69" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" t="n">
+        <v>1.647614541E9</v>
+      </c>
+      <c r="E69" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>86</v>
+      </c>
+      <c r="B70" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" t="n">
+        <v>1.647614604E9</v>
+      </c>
+      <c r="E70" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>87</v>
+      </c>
+      <c r="B71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" t="n">
+        <v>1.647614664E9</v>
+      </c>
+      <c r="E71" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>88</v>
+      </c>
+      <c r="B72" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1.647614728E9</v>
+      </c>
+      <c r="E72" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>89</v>
+      </c>
+      <c r="B73" t="s">
+        <v>0</v>
+      </c>
+      <c r="C73" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" t="n">
+        <v>1.647614787E9</v>
+      </c>
+      <c r="E73" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>90</v>
+      </c>
+      <c r="B74" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" t="n">
+        <v>1.64761485E9</v>
+      </c>
+      <c r="E74" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>91</v>
+      </c>
+      <c r="B75" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" t="n">
+        <v>1.647614911E9</v>
+      </c>
+      <c r="E75" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>92</v>
+      </c>
+      <c r="B76" t="s">
+        <v>0</v>
+      </c>
+      <c r="C76" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76" t="n">
+        <v>1.647614971E9</v>
+      </c>
+      <c r="E76" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H76" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>93</v>
+      </c>
+      <c r="B77" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" t="n">
+        <v>1.647615034E9</v>
+      </c>
+      <c r="E77" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H77" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>94</v>
+      </c>
+      <c r="B78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" t="n">
+        <v>1.647615096E9</v>
+      </c>
+      <c r="E78" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H78" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>95</v>
+      </c>
+      <c r="B79" t="s">
+        <v>0</v>
+      </c>
+      <c r="C79" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1.647615158E9</v>
+      </c>
+      <c r="E79" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G79" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H79" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>96</v>
+      </c>
+      <c r="B80" t="s">
+        <v>0</v>
+      </c>
+      <c r="C80" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1.647615217E9</v>
+      </c>
+      <c r="E80" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H80" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>97</v>
+      </c>
+      <c r="B81" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81" t="n">
+        <v>1.647615279E9</v>
+      </c>
+      <c r="E81" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G81" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H81" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>98</v>
+      </c>
+      <c r="B82" t="s">
+        <v>0</v>
+      </c>
+      <c r="C82" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1.647615341E9</v>
+      </c>
+      <c r="E82" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G82" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H82" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>99</v>
+      </c>
+      <c r="B83" t="s">
+        <v>0</v>
+      </c>
+      <c r="C83" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83" t="n">
+        <v>1.647615403E9</v>
+      </c>
+      <c r="E83" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H83" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1313,7 +2850,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:L83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -2465,6 +4002,2020 @@
         <v>0</v>
       </c>
     </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>47</v>
+      </c>
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H31" t="s">
+        <v>0</v>
+      </c>
+      <c r="I31" t="s">
+        <v>0</v>
+      </c>
+      <c r="J31" t="s">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H32" t="s">
+        <v>0</v>
+      </c>
+      <c r="I32" t="s">
+        <v>0</v>
+      </c>
+      <c r="J32" t="s">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D33" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H33" t="s">
+        <v>0</v>
+      </c>
+      <c r="I33" t="s">
+        <v>0</v>
+      </c>
+      <c r="J33" t="s">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>50</v>
+      </c>
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H34" t="s">
+        <v>0</v>
+      </c>
+      <c r="I34" t="s">
+        <v>0</v>
+      </c>
+      <c r="J34" t="s">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L34" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H35" t="s">
+        <v>0</v>
+      </c>
+      <c r="I35" t="s">
+        <v>0</v>
+      </c>
+      <c r="J35" t="s">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L35" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D36" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H36" t="s">
+        <v>0</v>
+      </c>
+      <c r="I36" t="s">
+        <v>0</v>
+      </c>
+      <c r="J36" t="s">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H37" t="s">
+        <v>0</v>
+      </c>
+      <c r="I37" t="s">
+        <v>0</v>
+      </c>
+      <c r="J37" t="s">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L37" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H38" t="s">
+        <v>0</v>
+      </c>
+      <c r="I38" t="s">
+        <v>0</v>
+      </c>
+      <c r="J38" t="s">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L38" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H39" t="s">
+        <v>0</v>
+      </c>
+      <c r="I39" t="s">
+        <v>0</v>
+      </c>
+      <c r="J39" t="s">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L39" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D40" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G40" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H40" t="s">
+        <v>0</v>
+      </c>
+      <c r="I40" t="s">
+        <v>0</v>
+      </c>
+      <c r="J40" t="s">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L40" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H41" t="s">
+        <v>0</v>
+      </c>
+      <c r="I41" t="s">
+        <v>0</v>
+      </c>
+      <c r="J41" t="s">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L41" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H42" t="s">
+        <v>0</v>
+      </c>
+      <c r="I42" t="s">
+        <v>0</v>
+      </c>
+      <c r="J42" t="s">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L42" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D43" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H43" t="s">
+        <v>0</v>
+      </c>
+      <c r="I43" t="s">
+        <v>0</v>
+      </c>
+      <c r="J43" t="s">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L43" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H44" t="s">
+        <v>0</v>
+      </c>
+      <c r="I44" t="s">
+        <v>0</v>
+      </c>
+      <c r="J44" t="s">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L44" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>61</v>
+      </c>
+      <c r="B45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H45" t="s">
+        <v>0</v>
+      </c>
+      <c r="I45" t="s">
+        <v>0</v>
+      </c>
+      <c r="J45" t="s">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L45" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D46" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H46" t="s">
+        <v>0</v>
+      </c>
+      <c r="I46" t="s">
+        <v>0</v>
+      </c>
+      <c r="J46" t="s">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L46" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H47" t="s">
+        <v>0</v>
+      </c>
+      <c r="I47" t="s">
+        <v>0</v>
+      </c>
+      <c r="J47" t="s">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L47" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H48" t="s">
+        <v>0</v>
+      </c>
+      <c r="I48" t="s">
+        <v>0</v>
+      </c>
+      <c r="J48" t="s">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L48" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H49" t="s">
+        <v>0</v>
+      </c>
+      <c r="I49" t="s">
+        <v>0</v>
+      </c>
+      <c r="J49" t="s">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L49" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G50" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H50" t="s">
+        <v>0</v>
+      </c>
+      <c r="I50" t="s">
+        <v>0</v>
+      </c>
+      <c r="J50" t="s">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L50" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>67</v>
+      </c>
+      <c r="B51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H51" t="s">
+        <v>0</v>
+      </c>
+      <c r="I51" t="s">
+        <v>0</v>
+      </c>
+      <c r="J51" t="s">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L51" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>68</v>
+      </c>
+      <c r="B52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H52" t="s">
+        <v>0</v>
+      </c>
+      <c r="I52" t="s">
+        <v>0</v>
+      </c>
+      <c r="J52" t="s">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L52" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>69</v>
+      </c>
+      <c r="B53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H53" t="s">
+        <v>0</v>
+      </c>
+      <c r="I53" t="s">
+        <v>0</v>
+      </c>
+      <c r="J53" t="s">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L53" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D54" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H54" t="s">
+        <v>0</v>
+      </c>
+      <c r="I54" t="s">
+        <v>0</v>
+      </c>
+      <c r="J54" t="s">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L54" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>71</v>
+      </c>
+      <c r="B55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D55" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G55" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H55" t="s">
+        <v>0</v>
+      </c>
+      <c r="I55" t="s">
+        <v>0</v>
+      </c>
+      <c r="J55" t="s">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L55" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G56" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H56" t="s">
+        <v>0</v>
+      </c>
+      <c r="I56" t="s">
+        <v>0</v>
+      </c>
+      <c r="J56" t="s">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L56" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>73</v>
+      </c>
+      <c r="B57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H57" t="s">
+        <v>0</v>
+      </c>
+      <c r="I57" t="s">
+        <v>0</v>
+      </c>
+      <c r="J57" t="s">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L57" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>74</v>
+      </c>
+      <c r="B58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D58" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G58" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H58" t="s">
+        <v>0</v>
+      </c>
+      <c r="I58" t="s">
+        <v>0</v>
+      </c>
+      <c r="J58" t="s">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L58" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>75</v>
+      </c>
+      <c r="B59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D59" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H59" t="s">
+        <v>0</v>
+      </c>
+      <c r="I59" t="s">
+        <v>0</v>
+      </c>
+      <c r="J59" t="s">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L59" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>76</v>
+      </c>
+      <c r="B60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D60" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H60" t="s">
+        <v>0</v>
+      </c>
+      <c r="I60" t="s">
+        <v>0</v>
+      </c>
+      <c r="J60" t="s">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L60" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>77</v>
+      </c>
+      <c r="B61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H61" t="s">
+        <v>0</v>
+      </c>
+      <c r="I61" t="s">
+        <v>0</v>
+      </c>
+      <c r="J61" t="s">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L61" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>78</v>
+      </c>
+      <c r="B62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G62" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H62" t="s">
+        <v>0</v>
+      </c>
+      <c r="I62" t="s">
+        <v>0</v>
+      </c>
+      <c r="J62" t="s">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L62" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>79</v>
+      </c>
+      <c r="B63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D63" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H63" t="s">
+        <v>0</v>
+      </c>
+      <c r="I63" t="s">
+        <v>0</v>
+      </c>
+      <c r="J63" t="s">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L63" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>80</v>
+      </c>
+      <c r="B64" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G64" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H64" t="s">
+        <v>0</v>
+      </c>
+      <c r="I64" t="s">
+        <v>0</v>
+      </c>
+      <c r="J64" t="s">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L64" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>81</v>
+      </c>
+      <c r="B65" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H65" t="s">
+        <v>0</v>
+      </c>
+      <c r="I65" t="s">
+        <v>0</v>
+      </c>
+      <c r="J65" t="s">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L65" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>82</v>
+      </c>
+      <c r="B66" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D66" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G66" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H66" t="s">
+        <v>0</v>
+      </c>
+      <c r="I66" t="s">
+        <v>0</v>
+      </c>
+      <c r="J66" t="s">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L66" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>83</v>
+      </c>
+      <c r="B67" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D67" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H67" t="s">
+        <v>0</v>
+      </c>
+      <c r="I67" t="s">
+        <v>0</v>
+      </c>
+      <c r="J67" t="s">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L67" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>84</v>
+      </c>
+      <c r="B68" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D68" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H68" t="s">
+        <v>0</v>
+      </c>
+      <c r="I68" t="s">
+        <v>0</v>
+      </c>
+      <c r="J68" t="s">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L68" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>85</v>
+      </c>
+      <c r="B69" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D69" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G69" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H69" t="s">
+        <v>0</v>
+      </c>
+      <c r="I69" t="s">
+        <v>0</v>
+      </c>
+      <c r="J69" t="s">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L69" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>86</v>
+      </c>
+      <c r="B70" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H70" t="s">
+        <v>0</v>
+      </c>
+      <c r="I70" t="s">
+        <v>0</v>
+      </c>
+      <c r="J70" t="s">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L70" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>87</v>
+      </c>
+      <c r="B71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D71" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H71" t="s">
+        <v>0</v>
+      </c>
+      <c r="I71" t="s">
+        <v>0</v>
+      </c>
+      <c r="J71" t="s">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L71" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>88</v>
+      </c>
+      <c r="B72" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E72" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H72" t="s">
+        <v>0</v>
+      </c>
+      <c r="I72" t="s">
+        <v>0</v>
+      </c>
+      <c r="J72" t="s">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L72" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>89</v>
+      </c>
+      <c r="B73" t="s">
+        <v>0</v>
+      </c>
+      <c r="C73" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D73" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G73" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H73" t="s">
+        <v>0</v>
+      </c>
+      <c r="I73" t="s">
+        <v>0</v>
+      </c>
+      <c r="J73" t="s">
+        <v>0</v>
+      </c>
+      <c r="K73" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L73" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>90</v>
+      </c>
+      <c r="B74" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D74" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F74" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H74" t="s">
+        <v>0</v>
+      </c>
+      <c r="I74" t="s">
+        <v>0</v>
+      </c>
+      <c r="J74" t="s">
+        <v>0</v>
+      </c>
+      <c r="K74" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L74" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>91</v>
+      </c>
+      <c r="B75" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G75" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H75" t="s">
+        <v>0</v>
+      </c>
+      <c r="I75" t="s">
+        <v>0</v>
+      </c>
+      <c r="J75" t="s">
+        <v>0</v>
+      </c>
+      <c r="K75" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L75" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>92</v>
+      </c>
+      <c r="B76" t="s">
+        <v>0</v>
+      </c>
+      <c r="C76" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G76" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H76" t="s">
+        <v>0</v>
+      </c>
+      <c r="I76" t="s">
+        <v>0</v>
+      </c>
+      <c r="J76" t="s">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L76" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>93</v>
+      </c>
+      <c r="B77" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D77" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G77" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H77" t="s">
+        <v>0</v>
+      </c>
+      <c r="I77" t="s">
+        <v>0</v>
+      </c>
+      <c r="J77" t="s">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L77" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>94</v>
+      </c>
+      <c r="B78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D78" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G78" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H78" t="s">
+        <v>0</v>
+      </c>
+      <c r="I78" t="s">
+        <v>0</v>
+      </c>
+      <c r="J78" t="s">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L78" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>95</v>
+      </c>
+      <c r="B79" t="s">
+        <v>0</v>
+      </c>
+      <c r="C79" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D79" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G79" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H79" t="s">
+        <v>0</v>
+      </c>
+      <c r="I79" t="s">
+        <v>0</v>
+      </c>
+      <c r="J79" t="s">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L79" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>96</v>
+      </c>
+      <c r="B80" t="s">
+        <v>0</v>
+      </c>
+      <c r="C80" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D80" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E80" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G80" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H80" t="s">
+        <v>0</v>
+      </c>
+      <c r="I80" t="s">
+        <v>0</v>
+      </c>
+      <c r="J80" t="s">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L80" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>97</v>
+      </c>
+      <c r="B81" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D81" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G81" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H81" t="s">
+        <v>0</v>
+      </c>
+      <c r="I81" t="s">
+        <v>0</v>
+      </c>
+      <c r="J81" t="s">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L81" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>98</v>
+      </c>
+      <c r="B82" t="s">
+        <v>0</v>
+      </c>
+      <c r="C82" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E82" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G82" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H82" t="s">
+        <v>0</v>
+      </c>
+      <c r="I82" t="s">
+        <v>0</v>
+      </c>
+      <c r="J82" t="s">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L82" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>99</v>
+      </c>
+      <c r="B83" t="s">
+        <v>0</v>
+      </c>
+      <c r="C83" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D83" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G83" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H83" t="s">
+        <v>0</v>
+      </c>
+      <c r="I83" t="s">
+        <v>0</v>
+      </c>
+      <c r="J83" t="s">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L83" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2472,7 +6023,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H88"/>
+  <dimension ref="A1:H247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4771,6 +8322,4140 @@
         <v>8193.0</v>
       </c>
     </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>47</v>
+      </c>
+      <c r="B89" t="s">
+        <v>0</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D89" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F89" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H89" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>47</v>
+      </c>
+      <c r="B90" t="s">
+        <v>0</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D90" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F90" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G90" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H90" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>47</v>
+      </c>
+      <c r="B91" t="s">
+        <v>0</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D91" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F91" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G91" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>48</v>
+      </c>
+      <c r="B92" t="s">
+        <v>0</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D92" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F92" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G92" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>48</v>
+      </c>
+      <c r="B93" t="s">
+        <v>0</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D93" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F93" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>48</v>
+      </c>
+      <c r="B94" t="s">
+        <v>0</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D94" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E94" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F94" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G94" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H94" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>49</v>
+      </c>
+      <c r="B95" t="s">
+        <v>0</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D95" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E95" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F95" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G95" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>49</v>
+      </c>
+      <c r="B96" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D96" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E96" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F96" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H96" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>49</v>
+      </c>
+      <c r="B97" t="s">
+        <v>0</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D97" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F97" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G97" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>50</v>
+      </c>
+      <c r="B98" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D98" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E98" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F98" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G98" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>50</v>
+      </c>
+      <c r="B99" t="s">
+        <v>0</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D99" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F99" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>50</v>
+      </c>
+      <c r="B100" t="s">
+        <v>0</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D100" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E100" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F100" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>51</v>
+      </c>
+      <c r="B101" t="s">
+        <v>0</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D101" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F101" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G101" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H101" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>51</v>
+      </c>
+      <c r="B102" t="s">
+        <v>0</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D102" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F102" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G102" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H102" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>51</v>
+      </c>
+      <c r="B103" t="s">
+        <v>0</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D103" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F103" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G103" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H103" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>52</v>
+      </c>
+      <c r="B104" t="s">
+        <v>0</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D104" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E104" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F104" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G104" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H104" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>52</v>
+      </c>
+      <c r="B105" t="s">
+        <v>0</v>
+      </c>
+      <c r="C105" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D105" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E105" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F105" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G105" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H105" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>52</v>
+      </c>
+      <c r="B106" t="s">
+        <v>0</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D106" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E106" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F106" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G106" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H106" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>53</v>
+      </c>
+      <c r="B107" t="s">
+        <v>0</v>
+      </c>
+      <c r="C107" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D107" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E107" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F107" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G107" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H107" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>53</v>
+      </c>
+      <c r="B108" t="s">
+        <v>0</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D108" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E108" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F108" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G108" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H108" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>53</v>
+      </c>
+      <c r="B109" t="s">
+        <v>0</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D109" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E109" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F109" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G109" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H109" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>54</v>
+      </c>
+      <c r="B110" t="s">
+        <v>0</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D110" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E110" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F110" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G110" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H110" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>54</v>
+      </c>
+      <c r="B111" t="s">
+        <v>0</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D111" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E111" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F111" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G111" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H111" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>54</v>
+      </c>
+      <c r="B112" t="s">
+        <v>0</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D112" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E112" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F112" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G112" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H112" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>55</v>
+      </c>
+      <c r="B113" t="s">
+        <v>0</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D113" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E113" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F113" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G113" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H113" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>55</v>
+      </c>
+      <c r="B114" t="s">
+        <v>0</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D114" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E114" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F114" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G114" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H114" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>55</v>
+      </c>
+      <c r="B115" t="s">
+        <v>0</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D115" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E115" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F115" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G115" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H115" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>56</v>
+      </c>
+      <c r="B116" t="s">
+        <v>0</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D116" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E116" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F116" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G116" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H116" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>56</v>
+      </c>
+      <c r="B117" t="s">
+        <v>0</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D117" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E117" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F117" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G117" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H117" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>56</v>
+      </c>
+      <c r="B118" t="s">
+        <v>0</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D118" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E118" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F118" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G118" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H118" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>57</v>
+      </c>
+      <c r="B119" t="s">
+        <v>0</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D119" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E119" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F119" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G119" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H119" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>57</v>
+      </c>
+      <c r="B120" t="s">
+        <v>0</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D120" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E120" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F120" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G120" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H120" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>57</v>
+      </c>
+      <c r="B121" t="s">
+        <v>0</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D121" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E121" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F121" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G121" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H121" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>58</v>
+      </c>
+      <c r="B122" t="s">
+        <v>0</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D122" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E122" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F122" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G122" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H122" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>58</v>
+      </c>
+      <c r="B123" t="s">
+        <v>0</v>
+      </c>
+      <c r="C123" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D123" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E123" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F123" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G123" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H123" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>58</v>
+      </c>
+      <c r="B124" t="s">
+        <v>0</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D124" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E124" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F124" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G124" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H124" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>59</v>
+      </c>
+      <c r="B125" t="s">
+        <v>0</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D125" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E125" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F125" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G125" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H125" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>59</v>
+      </c>
+      <c r="B126" t="s">
+        <v>0</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D126" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E126" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F126" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G126" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H126" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>59</v>
+      </c>
+      <c r="B127" t="s">
+        <v>0</v>
+      </c>
+      <c r="C127" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D127" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E127" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F127" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G127" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H127" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>60</v>
+      </c>
+      <c r="B128" t="s">
+        <v>0</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D128" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E128" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F128" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G128" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H128" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>60</v>
+      </c>
+      <c r="B129" t="s">
+        <v>0</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D129" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E129" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F129" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G129" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H129" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>60</v>
+      </c>
+      <c r="B130" t="s">
+        <v>0</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D130" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E130" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F130" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G130" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H130" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>61</v>
+      </c>
+      <c r="B131" t="s">
+        <v>0</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D131" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E131" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F131" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G131" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H131" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>61</v>
+      </c>
+      <c r="B132" t="s">
+        <v>0</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D132" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E132" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F132" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G132" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H132" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>61</v>
+      </c>
+      <c r="B133" t="s">
+        <v>0</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D133" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E133" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F133" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G133" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H133" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>62</v>
+      </c>
+      <c r="B134" t="s">
+        <v>0</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D134" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E134" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F134" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G134" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H134" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>62</v>
+      </c>
+      <c r="B135" t="s">
+        <v>0</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D135" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E135" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F135" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G135" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H135" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>62</v>
+      </c>
+      <c r="B136" t="s">
+        <v>0</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D136" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E136" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F136" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G136" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H136" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>63</v>
+      </c>
+      <c r="B137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D137" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E137" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F137" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G137" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H137" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>63</v>
+      </c>
+      <c r="B138" t="s">
+        <v>0</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D138" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E138" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F138" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G138" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H138" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>63</v>
+      </c>
+      <c r="B139" t="s">
+        <v>0</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D139" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E139" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F139" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G139" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H139" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>64</v>
+      </c>
+      <c r="B140" t="s">
+        <v>0</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D140" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E140" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F140" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G140" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H140" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>64</v>
+      </c>
+      <c r="B141" t="s">
+        <v>0</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D141" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E141" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F141" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G141" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H141" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>64</v>
+      </c>
+      <c r="B142" t="s">
+        <v>0</v>
+      </c>
+      <c r="C142" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D142" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E142" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F142" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G142" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H142" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>65</v>
+      </c>
+      <c r="B143" t="s">
+        <v>0</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D143" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E143" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F143" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G143" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H143" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>65</v>
+      </c>
+      <c r="B144" t="s">
+        <v>0</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D144" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E144" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F144" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G144" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H144" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>65</v>
+      </c>
+      <c r="B145" t="s">
+        <v>0</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D145" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E145" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F145" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G145" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H145" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>66</v>
+      </c>
+      <c r="B146" t="s">
+        <v>0</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D146" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E146" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F146" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G146" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H146" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>66</v>
+      </c>
+      <c r="B147" t="s">
+        <v>0</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D147" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E147" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F147" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G147" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H147" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>66</v>
+      </c>
+      <c r="B148" t="s">
+        <v>0</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D148" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E148" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F148" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G148" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H148" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>67</v>
+      </c>
+      <c r="B149" t="s">
+        <v>0</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D149" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E149" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F149" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G149" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H149" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>67</v>
+      </c>
+      <c r="B150" t="s">
+        <v>0</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D150" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E150" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F150" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G150" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H150" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>67</v>
+      </c>
+      <c r="B151" t="s">
+        <v>0</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D151" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E151" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F151" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G151" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H151" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>68</v>
+      </c>
+      <c r="B152" t="s">
+        <v>0</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D152" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E152" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F152" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G152" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H152" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>68</v>
+      </c>
+      <c r="B153" t="s">
+        <v>0</v>
+      </c>
+      <c r="C153" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D153" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E153" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F153" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G153" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H153" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>68</v>
+      </c>
+      <c r="B154" t="s">
+        <v>0</v>
+      </c>
+      <c r="C154" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D154" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E154" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F154" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G154" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H154" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>69</v>
+      </c>
+      <c r="B155" t="s">
+        <v>0</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D155" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E155" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F155" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G155" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H155" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>69</v>
+      </c>
+      <c r="B156" t="s">
+        <v>0</v>
+      </c>
+      <c r="C156" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D156" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E156" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F156" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G156" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H156" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>69</v>
+      </c>
+      <c r="B157" t="s">
+        <v>0</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D157" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E157" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F157" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G157" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H157" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>70</v>
+      </c>
+      <c r="B158" t="s">
+        <v>0</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D158" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E158" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F158" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G158" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H158" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>70</v>
+      </c>
+      <c r="B159" t="s">
+        <v>0</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D159" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E159" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F159" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G159" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H159" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>70</v>
+      </c>
+      <c r="B160" t="s">
+        <v>0</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D160" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E160" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F160" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G160" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H160" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>71</v>
+      </c>
+      <c r="B161" t="s">
+        <v>0</v>
+      </c>
+      <c r="C161" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D161" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E161" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F161" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G161" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H161" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>71</v>
+      </c>
+      <c r="B162" t="s">
+        <v>0</v>
+      </c>
+      <c r="C162" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D162" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E162" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F162" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G162" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H162" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>71</v>
+      </c>
+      <c r="B163" t="s">
+        <v>0</v>
+      </c>
+      <c r="C163" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D163" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E163" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F163" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G163" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H163" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>72</v>
+      </c>
+      <c r="B164" t="s">
+        <v>0</v>
+      </c>
+      <c r="C164" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D164" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E164" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F164" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G164" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H164" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>72</v>
+      </c>
+      <c r="B165" t="s">
+        <v>0</v>
+      </c>
+      <c r="C165" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D165" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E165" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F165" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G165" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H165" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>72</v>
+      </c>
+      <c r="B166" t="s">
+        <v>0</v>
+      </c>
+      <c r="C166" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D166" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E166" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F166" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G166" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H166" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>73</v>
+      </c>
+      <c r="B167" t="s">
+        <v>0</v>
+      </c>
+      <c r="C167" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D167" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E167" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F167" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G167" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H167" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>73</v>
+      </c>
+      <c r="B168" t="s">
+        <v>0</v>
+      </c>
+      <c r="C168" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D168" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E168" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F168" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G168" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H168" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>73</v>
+      </c>
+      <c r="B169" t="s">
+        <v>0</v>
+      </c>
+      <c r="C169" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D169" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E169" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F169" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G169" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H169" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>74</v>
+      </c>
+      <c r="B170" t="s">
+        <v>0</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D170" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E170" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F170" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G170" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H170" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>74</v>
+      </c>
+      <c r="B171" t="s">
+        <v>0</v>
+      </c>
+      <c r="C171" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D171" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E171" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F171" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G171" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H171" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>74</v>
+      </c>
+      <c r="B172" t="s">
+        <v>0</v>
+      </c>
+      <c r="C172" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D172" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E172" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F172" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G172" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H172" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>75</v>
+      </c>
+      <c r="B173" t="s">
+        <v>0</v>
+      </c>
+      <c r="C173" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D173" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E173" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F173" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G173" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H173" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>75</v>
+      </c>
+      <c r="B174" t="s">
+        <v>0</v>
+      </c>
+      <c r="C174" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D174" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E174" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F174" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G174" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H174" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>75</v>
+      </c>
+      <c r="B175" t="s">
+        <v>0</v>
+      </c>
+      <c r="C175" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D175" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E175" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F175" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G175" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H175" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>76</v>
+      </c>
+      <c r="B176" t="s">
+        <v>0</v>
+      </c>
+      <c r="C176" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D176" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E176" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F176" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G176" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H176" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>76</v>
+      </c>
+      <c r="B177" t="s">
+        <v>0</v>
+      </c>
+      <c r="C177" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D177" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E177" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F177" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G177" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H177" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>76</v>
+      </c>
+      <c r="B178" t="s">
+        <v>0</v>
+      </c>
+      <c r="C178" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D178" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E178" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F178" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G178" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H178" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>77</v>
+      </c>
+      <c r="B179" t="s">
+        <v>0</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D179" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E179" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F179" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G179" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H179" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>77</v>
+      </c>
+      <c r="B180" t="s">
+        <v>0</v>
+      </c>
+      <c r="C180" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D180" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E180" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F180" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G180" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H180" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>77</v>
+      </c>
+      <c r="B181" t="s">
+        <v>0</v>
+      </c>
+      <c r="C181" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D181" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E181" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F181" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G181" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H181" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>78</v>
+      </c>
+      <c r="B182" t="s">
+        <v>0</v>
+      </c>
+      <c r="C182" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D182" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E182" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F182" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G182" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H182" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>78</v>
+      </c>
+      <c r="B183" t="s">
+        <v>0</v>
+      </c>
+      <c r="C183" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D183" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E183" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F183" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G183" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H183" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>78</v>
+      </c>
+      <c r="B184" t="s">
+        <v>0</v>
+      </c>
+      <c r="C184" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D184" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E184" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F184" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G184" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H184" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>79</v>
+      </c>
+      <c r="B185" t="s">
+        <v>0</v>
+      </c>
+      <c r="C185" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D185" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E185" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F185" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G185" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H185" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>79</v>
+      </c>
+      <c r="B186" t="s">
+        <v>0</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D186" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E186" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F186" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G186" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H186" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>79</v>
+      </c>
+      <c r="B187" t="s">
+        <v>0</v>
+      </c>
+      <c r="C187" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D187" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E187" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F187" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G187" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H187" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>80</v>
+      </c>
+      <c r="B188" t="s">
+        <v>0</v>
+      </c>
+      <c r="C188" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D188" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E188" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F188" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G188" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H188" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>80</v>
+      </c>
+      <c r="B189" t="s">
+        <v>0</v>
+      </c>
+      <c r="C189" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D189" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E189" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F189" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G189" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H189" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>80</v>
+      </c>
+      <c r="B190" t="s">
+        <v>0</v>
+      </c>
+      <c r="C190" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D190" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E190" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F190" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G190" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H190" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>81</v>
+      </c>
+      <c r="B191" t="s">
+        <v>0</v>
+      </c>
+      <c r="C191" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D191" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E191" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F191" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G191" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H191" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>81</v>
+      </c>
+      <c r="B192" t="s">
+        <v>0</v>
+      </c>
+      <c r="C192" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D192" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E192" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F192" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G192" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H192" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>81</v>
+      </c>
+      <c r="B193" t="s">
+        <v>0</v>
+      </c>
+      <c r="C193" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D193" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E193" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F193" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G193" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H193" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>82</v>
+      </c>
+      <c r="B194" t="s">
+        <v>0</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D194" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E194" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F194" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G194" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H194" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>82</v>
+      </c>
+      <c r="B195" t="s">
+        <v>0</v>
+      </c>
+      <c r="C195" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D195" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E195" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F195" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G195" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H195" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>82</v>
+      </c>
+      <c r="B196" t="s">
+        <v>0</v>
+      </c>
+      <c r="C196" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D196" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E196" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F196" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G196" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H196" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>83</v>
+      </c>
+      <c r="B197" t="s">
+        <v>0</v>
+      </c>
+      <c r="C197" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D197" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E197" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F197" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G197" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H197" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>83</v>
+      </c>
+      <c r="B198" t="s">
+        <v>0</v>
+      </c>
+      <c r="C198" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D198" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E198" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F198" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G198" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H198" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>83</v>
+      </c>
+      <c r="B199" t="s">
+        <v>0</v>
+      </c>
+      <c r="C199" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D199" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E199" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F199" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G199" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H199" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>84</v>
+      </c>
+      <c r="B200" t="s">
+        <v>0</v>
+      </c>
+      <c r="C200" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D200" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E200" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F200" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G200" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H200" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>84</v>
+      </c>
+      <c r="B201" t="s">
+        <v>0</v>
+      </c>
+      <c r="C201" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D201" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E201" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F201" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G201" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H201" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>84</v>
+      </c>
+      <c r="B202" t="s">
+        <v>0</v>
+      </c>
+      <c r="C202" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D202" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E202" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F202" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G202" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H202" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>85</v>
+      </c>
+      <c r="B203" t="s">
+        <v>0</v>
+      </c>
+      <c r="C203" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D203" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E203" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F203" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G203" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H203" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>85</v>
+      </c>
+      <c r="B204" t="s">
+        <v>0</v>
+      </c>
+      <c r="C204" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D204" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E204" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F204" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G204" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H204" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>85</v>
+      </c>
+      <c r="B205" t="s">
+        <v>0</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D205" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E205" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F205" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G205" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H205" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>86</v>
+      </c>
+      <c r="B206" t="s">
+        <v>0</v>
+      </c>
+      <c r="C206" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D206" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E206" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F206" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G206" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H206" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>86</v>
+      </c>
+      <c r="B207" t="s">
+        <v>0</v>
+      </c>
+      <c r="C207" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D207" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E207" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F207" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G207" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H207" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>86</v>
+      </c>
+      <c r="B208" t="s">
+        <v>0</v>
+      </c>
+      <c r="C208" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D208" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E208" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F208" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G208" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H208" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>87</v>
+      </c>
+      <c r="B209" t="s">
+        <v>0</v>
+      </c>
+      <c r="C209" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D209" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E209" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F209" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G209" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H209" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>87</v>
+      </c>
+      <c r="B210" t="s">
+        <v>0</v>
+      </c>
+      <c r="C210" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D210" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E210" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F210" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G210" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H210" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>87</v>
+      </c>
+      <c r="B211" t="s">
+        <v>0</v>
+      </c>
+      <c r="C211" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D211" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E211" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F211" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G211" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H211" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>88</v>
+      </c>
+      <c r="B212" t="s">
+        <v>0</v>
+      </c>
+      <c r="C212" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D212" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E212" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F212" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G212" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H212" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>88</v>
+      </c>
+      <c r="B213" t="s">
+        <v>0</v>
+      </c>
+      <c r="C213" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D213" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E213" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F213" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G213" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H213" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>88</v>
+      </c>
+      <c r="B214" t="s">
+        <v>0</v>
+      </c>
+      <c r="C214" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D214" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E214" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F214" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G214" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H214" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>89</v>
+      </c>
+      <c r="B215" t="s">
+        <v>0</v>
+      </c>
+      <c r="C215" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D215" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E215" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F215" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G215" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H215" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>89</v>
+      </c>
+      <c r="B216" t="s">
+        <v>0</v>
+      </c>
+      <c r="C216" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D216" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E216" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F216" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G216" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H216" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>89</v>
+      </c>
+      <c r="B217" t="s">
+        <v>0</v>
+      </c>
+      <c r="C217" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D217" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E217" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F217" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G217" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H217" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>90</v>
+      </c>
+      <c r="B218" t="s">
+        <v>0</v>
+      </c>
+      <c r="C218" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D218" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E218" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F218" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G218" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H218" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>90</v>
+      </c>
+      <c r="B219" t="s">
+        <v>0</v>
+      </c>
+      <c r="C219" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D219" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E219" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F219" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G219" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H219" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>90</v>
+      </c>
+      <c r="B220" t="s">
+        <v>0</v>
+      </c>
+      <c r="C220" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D220" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E220" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F220" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G220" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H220" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>91</v>
+      </c>
+      <c r="B221" t="s">
+        <v>0</v>
+      </c>
+      <c r="C221" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D221" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E221" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F221" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G221" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H221" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>91</v>
+      </c>
+      <c r="B222" t="s">
+        <v>0</v>
+      </c>
+      <c r="C222" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D222" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E222" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F222" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G222" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H222" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>91</v>
+      </c>
+      <c r="B223" t="s">
+        <v>0</v>
+      </c>
+      <c r="C223" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D223" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E223" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F223" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G223" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H223" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>92</v>
+      </c>
+      <c r="B224" t="s">
+        <v>0</v>
+      </c>
+      <c r="C224" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D224" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E224" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F224" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G224" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H224" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>92</v>
+      </c>
+      <c r="B225" t="s">
+        <v>0</v>
+      </c>
+      <c r="C225" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D225" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E225" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F225" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G225" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H225" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>92</v>
+      </c>
+      <c r="B226" t="s">
+        <v>0</v>
+      </c>
+      <c r="C226" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D226" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E226" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F226" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G226" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H226" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>93</v>
+      </c>
+      <c r="B227" t="s">
+        <v>0</v>
+      </c>
+      <c r="C227" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D227" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E227" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F227" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G227" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H227" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>93</v>
+      </c>
+      <c r="B228" t="s">
+        <v>0</v>
+      </c>
+      <c r="C228" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D228" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E228" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F228" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G228" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H228" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>93</v>
+      </c>
+      <c r="B229" t="s">
+        <v>0</v>
+      </c>
+      <c r="C229" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D229" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E229" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F229" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G229" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H229" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>94</v>
+      </c>
+      <c r="B230" t="s">
+        <v>0</v>
+      </c>
+      <c r="C230" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D230" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E230" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F230" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G230" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H230" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>94</v>
+      </c>
+      <c r="B231" t="s">
+        <v>0</v>
+      </c>
+      <c r="C231" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D231" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E231" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F231" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G231" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H231" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>94</v>
+      </c>
+      <c r="B232" t="s">
+        <v>0</v>
+      </c>
+      <c r="C232" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D232" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E232" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F232" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G232" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H232" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>95</v>
+      </c>
+      <c r="B233" t="s">
+        <v>0</v>
+      </c>
+      <c r="C233" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D233" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E233" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F233" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G233" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H233" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>95</v>
+      </c>
+      <c r="B234" t="s">
+        <v>0</v>
+      </c>
+      <c r="C234" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D234" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E234" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F234" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G234" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H234" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>95</v>
+      </c>
+      <c r="B235" t="s">
+        <v>0</v>
+      </c>
+      <c r="C235" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D235" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E235" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F235" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G235" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H235" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>96</v>
+      </c>
+      <c r="B236" t="s">
+        <v>0</v>
+      </c>
+      <c r="C236" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D236" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E236" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F236" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G236" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H236" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>96</v>
+      </c>
+      <c r="B237" t="s">
+        <v>0</v>
+      </c>
+      <c r="C237" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D237" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E237" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F237" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G237" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H237" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>96</v>
+      </c>
+      <c r="B238" t="s">
+        <v>0</v>
+      </c>
+      <c r="C238" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D238" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E238" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F238" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G238" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H238" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>97</v>
+      </c>
+      <c r="B239" t="s">
+        <v>0</v>
+      </c>
+      <c r="C239" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D239" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E239" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F239" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G239" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H239" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>97</v>
+      </c>
+      <c r="B240" t="s">
+        <v>0</v>
+      </c>
+      <c r="C240" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D240" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E240" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F240" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G240" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H240" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>97</v>
+      </c>
+      <c r="B241" t="s">
+        <v>0</v>
+      </c>
+      <c r="C241" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D241" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E241" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F241" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G241" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H241" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>98</v>
+      </c>
+      <c r="B242" t="s">
+        <v>0</v>
+      </c>
+      <c r="C242" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D242" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E242" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F242" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G242" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H242" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>98</v>
+      </c>
+      <c r="B243" t="s">
+        <v>0</v>
+      </c>
+      <c r="C243" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D243" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E243" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F243" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G243" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H243" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>98</v>
+      </c>
+      <c r="B244" t="s">
+        <v>0</v>
+      </c>
+      <c r="C244" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D244" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E244" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F244" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G244" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H244" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>99</v>
+      </c>
+      <c r="B245" t="s">
+        <v>0</v>
+      </c>
+      <c r="C245" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D245" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E245" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F245" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G245" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H245" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>99</v>
+      </c>
+      <c r="B246" t="s">
+        <v>0</v>
+      </c>
+      <c r="C246" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D246" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E246" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F246" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G246" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H246" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>99</v>
+      </c>
+      <c r="B247" t="s">
+        <v>0</v>
+      </c>
+      <c r="C247" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D247" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E247" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F247" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G247" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H247" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/sheet/msg_8705.xlsx
+++ b/data/sheet/msg_8705.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2473" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4213" uniqueCount="158">
   <si>
     <t/>
   </si>
@@ -322,6 +322,180 @@
   </si>
   <si>
     <t>2022-03-18 15:56:41</t>
+  </si>
+  <si>
+    <t>2022-03-20 07:40:32</t>
+  </si>
+  <si>
+    <t>2022-03-20 07:41:40</t>
+  </si>
+  <si>
+    <t>2022-03-20 07:42:42</t>
+  </si>
+  <si>
+    <t>2022-03-20 07:53:52</t>
+  </si>
+  <si>
+    <t>2022-03-20 08:24:17</t>
+  </si>
+  <si>
+    <t>2022-03-20 08:25:24</t>
+  </si>
+  <si>
+    <t>2022-03-20 08:26:26</t>
+  </si>
+  <si>
+    <t>2022-03-20 08:27:27</t>
+  </si>
+  <si>
+    <t>2022-03-20 08:28:29</t>
+  </si>
+  <si>
+    <t>2022-03-20 08:29:32</t>
+  </si>
+  <si>
+    <t>2022-03-20 08:30:34</t>
+  </si>
+  <si>
+    <t>2022-03-20 08:31:33</t>
+  </si>
+  <si>
+    <t>2022-03-20 08:32:37</t>
+  </si>
+  <si>
+    <t>2022-03-20 08:33:37</t>
+  </si>
+  <si>
+    <t>2022-03-20 08:34:38</t>
+  </si>
+  <si>
+    <t>2022-03-20 08:35:41</t>
+  </si>
+  <si>
+    <t>2022-03-20 08:36:41</t>
+  </si>
+  <si>
+    <t>2022-03-20 08:37:44</t>
+  </si>
+  <si>
+    <t>2022-03-20 08:38:45</t>
+  </si>
+  <si>
+    <t>2022-03-20 08:39:46</t>
+  </si>
+  <si>
+    <t>2022-03-20 08:40:49</t>
+  </si>
+  <si>
+    <t>2022-03-20 08:41:50</t>
+  </si>
+  <si>
+    <t>2022-03-20 08:42:51</t>
+  </si>
+  <si>
+    <t>2022-03-20 08:43:53</t>
+  </si>
+  <si>
+    <t>2022-03-20 08:44:56</t>
+  </si>
+  <si>
+    <t>2022-03-20 08:45:57</t>
+  </si>
+  <si>
+    <t>2022-03-20 08:46:59</t>
+  </si>
+  <si>
+    <t>2022-03-20 08:48:02</t>
+  </si>
+  <si>
+    <t>2022-03-20 08:49:04</t>
+  </si>
+  <si>
+    <t>2022-03-20 08:50:05</t>
+  </si>
+  <si>
+    <t>2022-03-20 09:20:34</t>
+  </si>
+  <si>
+    <t>2022-03-20 09:21:40</t>
+  </si>
+  <si>
+    <t>2022-03-20 09:22:42</t>
+  </si>
+  <si>
+    <t>2022-03-20 09:23:46</t>
+  </si>
+  <si>
+    <t>2022-03-20 09:24:45</t>
+  </si>
+  <si>
+    <t>2022-03-20 09:25:47</t>
+  </si>
+  <si>
+    <t>2022-03-20 09:26:48</t>
+  </si>
+  <si>
+    <t>2022-03-20 09:27:49</t>
+  </si>
+  <si>
+    <t>2022-03-20 09:28:51</t>
+  </si>
+  <si>
+    <t>2022-03-20 09:29:53</t>
+  </si>
+  <si>
+    <t>2022-03-20 09:30:56</t>
+  </si>
+  <si>
+    <t>2022-03-20 09:31:56</t>
+  </si>
+  <si>
+    <t>2022-03-20 09:32:57</t>
+  </si>
+  <si>
+    <t>2022-03-20 09:34:01</t>
+  </si>
+  <si>
+    <t>2022-03-20 09:35:01</t>
+  </si>
+  <si>
+    <t>2022-03-20 09:36:03</t>
+  </si>
+  <si>
+    <t>2022-03-20 09:37:04</t>
+  </si>
+  <si>
+    <t>2022-03-20 09:38:07</t>
+  </si>
+  <si>
+    <t>2022-03-20 09:39:08</t>
+  </si>
+  <si>
+    <t>2022-03-20 09:40:09</t>
+  </si>
+  <si>
+    <t>2022-03-20 09:41:12</t>
+  </si>
+  <si>
+    <t>2022-03-20 09:42:13</t>
+  </si>
+  <si>
+    <t>2022-03-20 09:43:18</t>
+  </si>
+  <si>
+    <t>2022-03-21 09:35:28</t>
+  </si>
+  <si>
+    <t>2022-03-21 09:39:48</t>
+  </si>
+  <si>
+    <t>2022-03-21 10:04:06</t>
+  </si>
+  <si>
+    <t>2022-03-21 10:56:35</t>
+  </si>
+  <si>
+    <t>2022-03-21 10:56:59</t>
   </si>
 </sst>
 </file>
@@ -674,7 +848,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H83"/>
+  <dimension ref="A1:H141"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2843,6 +3017,1514 @@
         <v>255.0</v>
       </c>
     </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>100</v>
+      </c>
+      <c r="B84" t="s">
+        <v>0</v>
+      </c>
+      <c r="C84" t="s">
+        <v>10</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1.647758433E9</v>
+      </c>
+      <c r="E84" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H84" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>101</v>
+      </c>
+      <c r="B85" t="s">
+        <v>0</v>
+      </c>
+      <c r="C85" t="s">
+        <v>10</v>
+      </c>
+      <c r="D85" t="n">
+        <v>1.6477585E9</v>
+      </c>
+      <c r="E85" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H85" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>102</v>
+      </c>
+      <c r="B86" t="s">
+        <v>0</v>
+      </c>
+      <c r="C86" t="s">
+        <v>10</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1.647758562E9</v>
+      </c>
+      <c r="E86" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H86" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>103</v>
+      </c>
+      <c r="B87" t="s">
+        <v>0</v>
+      </c>
+      <c r="C87" t="s">
+        <v>10</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1.647759232E9</v>
+      </c>
+      <c r="E87" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G87" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H87" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>104</v>
+      </c>
+      <c r="B88" t="s">
+        <v>0</v>
+      </c>
+      <c r="C88" t="s">
+        <v>10</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1.647761057E9</v>
+      </c>
+      <c r="E88" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H88" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>105</v>
+      </c>
+      <c r="B89" t="s">
+        <v>0</v>
+      </c>
+      <c r="C89" t="s">
+        <v>10</v>
+      </c>
+      <c r="D89" t="n">
+        <v>1.647761124E9</v>
+      </c>
+      <c r="E89" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F89" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G89" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H89" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>106</v>
+      </c>
+      <c r="B90" t="s">
+        <v>0</v>
+      </c>
+      <c r="C90" t="s">
+        <v>10</v>
+      </c>
+      <c r="D90" t="n">
+        <v>1.647761186E9</v>
+      </c>
+      <c r="E90" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F90" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G90" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H90" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>107</v>
+      </c>
+      <c r="B91" t="s">
+        <v>0</v>
+      </c>
+      <c r="C91" t="s">
+        <v>10</v>
+      </c>
+      <c r="D91" t="n">
+        <v>1.647761247E9</v>
+      </c>
+      <c r="E91" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G91" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>108</v>
+      </c>
+      <c r="B92" t="s">
+        <v>0</v>
+      </c>
+      <c r="C92" t="s">
+        <v>10</v>
+      </c>
+      <c r="D92" t="n">
+        <v>1.647761309E9</v>
+      </c>
+      <c r="E92" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G92" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>109</v>
+      </c>
+      <c r="B93" t="s">
+        <v>0</v>
+      </c>
+      <c r="C93" t="s">
+        <v>10</v>
+      </c>
+      <c r="D93" t="n">
+        <v>1.647761373E9</v>
+      </c>
+      <c r="E93" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G93" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H93" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>110</v>
+      </c>
+      <c r="B94" t="s">
+        <v>0</v>
+      </c>
+      <c r="C94" t="s">
+        <v>10</v>
+      </c>
+      <c r="D94" t="n">
+        <v>1.647761434E9</v>
+      </c>
+      <c r="E94" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F94" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G94" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H94" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>111</v>
+      </c>
+      <c r="B95" t="s">
+        <v>0</v>
+      </c>
+      <c r="C95" t="s">
+        <v>10</v>
+      </c>
+      <c r="D95" t="n">
+        <v>1.647761494E9</v>
+      </c>
+      <c r="E95" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F95" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G95" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H95" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>112</v>
+      </c>
+      <c r="B96" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96" t="s">
+        <v>10</v>
+      </c>
+      <c r="D96" t="n">
+        <v>1.647761558E9</v>
+      </c>
+      <c r="E96" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F96" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H96" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>113</v>
+      </c>
+      <c r="B97" t="s">
+        <v>0</v>
+      </c>
+      <c r="C97" t="s">
+        <v>10</v>
+      </c>
+      <c r="D97" t="n">
+        <v>1.647761617E9</v>
+      </c>
+      <c r="E97" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G97" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H97" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>114</v>
+      </c>
+      <c r="B98" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" t="s">
+        <v>10</v>
+      </c>
+      <c r="D98" t="n">
+        <v>1.647761678E9</v>
+      </c>
+      <c r="E98" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F98" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G98" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H98" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>115</v>
+      </c>
+      <c r="B99" t="s">
+        <v>0</v>
+      </c>
+      <c r="C99" t="s">
+        <v>10</v>
+      </c>
+      <c r="D99" t="n">
+        <v>1.647761741E9</v>
+      </c>
+      <c r="E99" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H99" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>116</v>
+      </c>
+      <c r="B100" t="s">
+        <v>0</v>
+      </c>
+      <c r="C100" t="s">
+        <v>10</v>
+      </c>
+      <c r="D100" t="n">
+        <v>1.647761801E9</v>
+      </c>
+      <c r="E100" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F100" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G100" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H100" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>117</v>
+      </c>
+      <c r="B101" t="s">
+        <v>0</v>
+      </c>
+      <c r="C101" t="s">
+        <v>10</v>
+      </c>
+      <c r="D101" t="n">
+        <v>1.647761864E9</v>
+      </c>
+      <c r="E101" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G101" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H101" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>118</v>
+      </c>
+      <c r="B102" t="s">
+        <v>0</v>
+      </c>
+      <c r="C102" t="s">
+        <v>10</v>
+      </c>
+      <c r="D102" t="n">
+        <v>1.647761926E9</v>
+      </c>
+      <c r="E102" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G102" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H102" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>119</v>
+      </c>
+      <c r="B103" t="s">
+        <v>0</v>
+      </c>
+      <c r="C103" t="s">
+        <v>10</v>
+      </c>
+      <c r="D103" t="n">
+        <v>1.647761986E9</v>
+      </c>
+      <c r="E103" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G103" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H103" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>120</v>
+      </c>
+      <c r="B104" t="s">
+        <v>0</v>
+      </c>
+      <c r="C104" t="s">
+        <v>10</v>
+      </c>
+      <c r="D104" t="n">
+        <v>1.647762049E9</v>
+      </c>
+      <c r="E104" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G104" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H104" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>121</v>
+      </c>
+      <c r="B105" t="s">
+        <v>0</v>
+      </c>
+      <c r="C105" t="s">
+        <v>10</v>
+      </c>
+      <c r="D105" t="n">
+        <v>1.64776211E9</v>
+      </c>
+      <c r="E105" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G105" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H105" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>122</v>
+      </c>
+      <c r="B106" t="s">
+        <v>0</v>
+      </c>
+      <c r="C106" t="s">
+        <v>10</v>
+      </c>
+      <c r="D106" t="n">
+        <v>1.647762171E9</v>
+      </c>
+      <c r="E106" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F106" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G106" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H106" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>123</v>
+      </c>
+      <c r="B107" t="s">
+        <v>0</v>
+      </c>
+      <c r="C107" t="s">
+        <v>10</v>
+      </c>
+      <c r="D107" t="n">
+        <v>1.647762233E9</v>
+      </c>
+      <c r="E107" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F107" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G107" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H107" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>124</v>
+      </c>
+      <c r="B108" t="s">
+        <v>0</v>
+      </c>
+      <c r="C108" t="s">
+        <v>10</v>
+      </c>
+      <c r="D108" t="n">
+        <v>1.647762296E9</v>
+      </c>
+      <c r="E108" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F108" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G108" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H108" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>125</v>
+      </c>
+      <c r="B109" t="s">
+        <v>0</v>
+      </c>
+      <c r="C109" t="s">
+        <v>10</v>
+      </c>
+      <c r="D109" t="n">
+        <v>1.647762358E9</v>
+      </c>
+      <c r="E109" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F109" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G109" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H109" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>126</v>
+      </c>
+      <c r="B110" t="s">
+        <v>0</v>
+      </c>
+      <c r="C110" t="s">
+        <v>10</v>
+      </c>
+      <c r="D110" t="n">
+        <v>1.64776242E9</v>
+      </c>
+      <c r="E110" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F110" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G110" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H110" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>127</v>
+      </c>
+      <c r="B111" t="s">
+        <v>0</v>
+      </c>
+      <c r="C111" t="s">
+        <v>10</v>
+      </c>
+      <c r="D111" t="n">
+        <v>1.647762483E9</v>
+      </c>
+      <c r="E111" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F111" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G111" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H111" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>128</v>
+      </c>
+      <c r="B112" t="s">
+        <v>0</v>
+      </c>
+      <c r="C112" t="s">
+        <v>10</v>
+      </c>
+      <c r="D112" t="n">
+        <v>1.647762544E9</v>
+      </c>
+      <c r="E112" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G112" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H112" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>129</v>
+      </c>
+      <c r="B113" t="s">
+        <v>0</v>
+      </c>
+      <c r="C113" t="s">
+        <v>10</v>
+      </c>
+      <c r="D113" t="n">
+        <v>1.647762606E9</v>
+      </c>
+      <c r="E113" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F113" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G113" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H113" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>130</v>
+      </c>
+      <c r="B114" t="s">
+        <v>0</v>
+      </c>
+      <c r="C114" t="s">
+        <v>10</v>
+      </c>
+      <c r="D114" t="n">
+        <v>1.647764434E9</v>
+      </c>
+      <c r="E114" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G114" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H114" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>131</v>
+      </c>
+      <c r="B115" t="s">
+        <v>0</v>
+      </c>
+      <c r="C115" t="s">
+        <v>10</v>
+      </c>
+      <c r="D115" t="n">
+        <v>1.647764501E9</v>
+      </c>
+      <c r="E115" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F115" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G115" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H115" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>132</v>
+      </c>
+      <c r="B116" t="s">
+        <v>0</v>
+      </c>
+      <c r="C116" t="s">
+        <v>10</v>
+      </c>
+      <c r="D116" t="n">
+        <v>1.647764562E9</v>
+      </c>
+      <c r="E116" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H116" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>133</v>
+      </c>
+      <c r="B117" t="s">
+        <v>0</v>
+      </c>
+      <c r="C117" t="s">
+        <v>10</v>
+      </c>
+      <c r="D117" t="n">
+        <v>1.647764626E9</v>
+      </c>
+      <c r="E117" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F117" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G117" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H117" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>134</v>
+      </c>
+      <c r="B118" t="s">
+        <v>0</v>
+      </c>
+      <c r="C118" t="s">
+        <v>10</v>
+      </c>
+      <c r="D118" t="n">
+        <v>1.647764685E9</v>
+      </c>
+      <c r="E118" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F118" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G118" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H118" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>135</v>
+      </c>
+      <c r="B119" t="s">
+        <v>0</v>
+      </c>
+      <c r="C119" t="s">
+        <v>10</v>
+      </c>
+      <c r="D119" t="n">
+        <v>1.647764748E9</v>
+      </c>
+      <c r="E119" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F119" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G119" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H119" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>136</v>
+      </c>
+      <c r="B120" t="s">
+        <v>0</v>
+      </c>
+      <c r="C120" t="s">
+        <v>10</v>
+      </c>
+      <c r="D120" t="n">
+        <v>1.647764809E9</v>
+      </c>
+      <c r="E120" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F120" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G120" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H120" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>137</v>
+      </c>
+      <c r="B121" t="s">
+        <v>0</v>
+      </c>
+      <c r="C121" t="s">
+        <v>10</v>
+      </c>
+      <c r="D121" t="n">
+        <v>1.647764869E9</v>
+      </c>
+      <c r="E121" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F121" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G121" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H121" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>138</v>
+      </c>
+      <c r="B122" t="s">
+        <v>0</v>
+      </c>
+      <c r="C122" t="s">
+        <v>10</v>
+      </c>
+      <c r="D122" t="n">
+        <v>1.647764932E9</v>
+      </c>
+      <c r="E122" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F122" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G122" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H122" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>139</v>
+      </c>
+      <c r="B123" t="s">
+        <v>0</v>
+      </c>
+      <c r="C123" t="s">
+        <v>10</v>
+      </c>
+      <c r="D123" t="n">
+        <v>1.647764993E9</v>
+      </c>
+      <c r="E123" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F123" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G123" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H123" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>140</v>
+      </c>
+      <c r="B124" t="s">
+        <v>0</v>
+      </c>
+      <c r="C124" t="s">
+        <v>10</v>
+      </c>
+      <c r="D124" t="n">
+        <v>1.647765057E9</v>
+      </c>
+      <c r="E124" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F124" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G124" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H124" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>141</v>
+      </c>
+      <c r="B125" t="s">
+        <v>0</v>
+      </c>
+      <c r="C125" t="s">
+        <v>10</v>
+      </c>
+      <c r="D125" t="n">
+        <v>1.647765117E9</v>
+      </c>
+      <c r="E125" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F125" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G125" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H125" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>142</v>
+      </c>
+      <c r="B126" t="s">
+        <v>0</v>
+      </c>
+      <c r="C126" t="s">
+        <v>10</v>
+      </c>
+      <c r="D126" t="n">
+        <v>1.647765177E9</v>
+      </c>
+      <c r="E126" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F126" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G126" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H126" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>143</v>
+      </c>
+      <c r="B127" t="s">
+        <v>0</v>
+      </c>
+      <c r="C127" t="s">
+        <v>10</v>
+      </c>
+      <c r="D127" t="n">
+        <v>1.647765241E9</v>
+      </c>
+      <c r="E127" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F127" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G127" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H127" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>144</v>
+      </c>
+      <c r="B128" t="s">
+        <v>0</v>
+      </c>
+      <c r="C128" t="s">
+        <v>10</v>
+      </c>
+      <c r="D128" t="n">
+        <v>1.647765301E9</v>
+      </c>
+      <c r="E128" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F128" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G128" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H128" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>145</v>
+      </c>
+      <c r="B129" t="s">
+        <v>0</v>
+      </c>
+      <c r="C129" t="s">
+        <v>10</v>
+      </c>
+      <c r="D129" t="n">
+        <v>1.647765364E9</v>
+      </c>
+      <c r="E129" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F129" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G129" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H129" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>146</v>
+      </c>
+      <c r="B130" t="s">
+        <v>0</v>
+      </c>
+      <c r="C130" t="s">
+        <v>10</v>
+      </c>
+      <c r="D130" t="n">
+        <v>1.647765425E9</v>
+      </c>
+      <c r="E130" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F130" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G130" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H130" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>147</v>
+      </c>
+      <c r="B131" t="s">
+        <v>0</v>
+      </c>
+      <c r="C131" t="s">
+        <v>10</v>
+      </c>
+      <c r="D131" t="n">
+        <v>1.647765487E9</v>
+      </c>
+      <c r="E131" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F131" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G131" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H131" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>148</v>
+      </c>
+      <c r="B132" t="s">
+        <v>0</v>
+      </c>
+      <c r="C132" t="s">
+        <v>10</v>
+      </c>
+      <c r="D132" t="n">
+        <v>1.647765548E9</v>
+      </c>
+      <c r="E132" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F132" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G132" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H132" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>149</v>
+      </c>
+      <c r="B133" t="s">
+        <v>0</v>
+      </c>
+      <c r="C133" t="s">
+        <v>10</v>
+      </c>
+      <c r="D133" t="n">
+        <v>1.647765609E9</v>
+      </c>
+      <c r="E133" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F133" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G133" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H133" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>150</v>
+      </c>
+      <c r="B134" t="s">
+        <v>0</v>
+      </c>
+      <c r="C134" t="s">
+        <v>10</v>
+      </c>
+      <c r="D134" t="n">
+        <v>1.647765672E9</v>
+      </c>
+      <c r="E134" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F134" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G134" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H134" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>151</v>
+      </c>
+      <c r="B135" t="s">
+        <v>0</v>
+      </c>
+      <c r="C135" t="s">
+        <v>10</v>
+      </c>
+      <c r="D135" t="n">
+        <v>1.647765733E9</v>
+      </c>
+      <c r="E135" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F135" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G135" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H135" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>152</v>
+      </c>
+      <c r="B136" t="s">
+        <v>0</v>
+      </c>
+      <c r="C136" t="s">
+        <v>10</v>
+      </c>
+      <c r="D136" t="n">
+        <v>1.647765796E9</v>
+      </c>
+      <c r="E136" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F136" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G136" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H136" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>153</v>
+      </c>
+      <c r="B137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C137" t="s">
+        <v>10</v>
+      </c>
+      <c r="D137" t="n">
+        <v>1.647851729E9</v>
+      </c>
+      <c r="E137" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F137" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G137" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H137" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>154</v>
+      </c>
+      <c r="B138" t="s">
+        <v>0</v>
+      </c>
+      <c r="C138" t="s">
+        <v>10</v>
+      </c>
+      <c r="D138" t="n">
+        <v>1.647851989E9</v>
+      </c>
+      <c r="E138" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F138" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G138" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H138" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>155</v>
+      </c>
+      <c r="B139" t="s">
+        <v>0</v>
+      </c>
+      <c r="C139" t="s">
+        <v>10</v>
+      </c>
+      <c r="D139" t="n">
+        <v>1.647853447E9</v>
+      </c>
+      <c r="E139" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F139" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G139" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H139" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>156</v>
+      </c>
+      <c r="B140" t="s">
+        <v>0</v>
+      </c>
+      <c r="C140" t="s">
+        <v>10</v>
+      </c>
+      <c r="D140" t="n">
+        <v>1.647856597E9</v>
+      </c>
+      <c r="E140" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F140" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G140" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H140" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>157</v>
+      </c>
+      <c r="B141" t="s">
+        <v>0</v>
+      </c>
+      <c r="C141" t="s">
+        <v>10</v>
+      </c>
+      <c r="D141" t="n">
+        <v>1.647856618E9</v>
+      </c>
+      <c r="E141" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F141" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G141" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H141" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2850,7 +4532,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L83"/>
+  <dimension ref="A1:L141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -6016,6 +7698,2210 @@
         <v>0</v>
       </c>
     </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>100</v>
+      </c>
+      <c r="B84" t="s">
+        <v>0</v>
+      </c>
+      <c r="C84" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G84" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H84" t="s">
+        <v>0</v>
+      </c>
+      <c r="I84" t="s">
+        <v>0</v>
+      </c>
+      <c r="J84" t="s">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L84" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>101</v>
+      </c>
+      <c r="B85" t="s">
+        <v>0</v>
+      </c>
+      <c r="C85" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H85" t="s">
+        <v>0</v>
+      </c>
+      <c r="I85" t="s">
+        <v>0</v>
+      </c>
+      <c r="J85" t="s">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L85" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>102</v>
+      </c>
+      <c r="B86" t="s">
+        <v>0</v>
+      </c>
+      <c r="C86" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D86" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G86" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H86" t="s">
+        <v>0</v>
+      </c>
+      <c r="I86" t="s">
+        <v>0</v>
+      </c>
+      <c r="J86" t="s">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L86" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>103</v>
+      </c>
+      <c r="B87" t="s">
+        <v>0</v>
+      </c>
+      <c r="C87" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D87" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G87" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H87" t="s">
+        <v>0</v>
+      </c>
+      <c r="I87" t="s">
+        <v>0</v>
+      </c>
+      <c r="J87" t="s">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L87" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>104</v>
+      </c>
+      <c r="B88" t="s">
+        <v>0</v>
+      </c>
+      <c r="C88" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D88" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G88" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H88" t="s">
+        <v>0</v>
+      </c>
+      <c r="I88" t="s">
+        <v>0</v>
+      </c>
+      <c r="J88" t="s">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L88" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>105</v>
+      </c>
+      <c r="B89" t="s">
+        <v>0</v>
+      </c>
+      <c r="C89" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D89" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E89" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G89" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H89" t="s">
+        <v>0</v>
+      </c>
+      <c r="I89" t="s">
+        <v>0</v>
+      </c>
+      <c r="J89" t="s">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L89" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>106</v>
+      </c>
+      <c r="B90" t="s">
+        <v>0</v>
+      </c>
+      <c r="C90" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D90" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G90" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H90" t="s">
+        <v>0</v>
+      </c>
+      <c r="I90" t="s">
+        <v>0</v>
+      </c>
+      <c r="J90" t="s">
+        <v>0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L90" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>107</v>
+      </c>
+      <c r="B91" t="s">
+        <v>0</v>
+      </c>
+      <c r="C91" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D91" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G91" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H91" t="s">
+        <v>0</v>
+      </c>
+      <c r="I91" t="s">
+        <v>0</v>
+      </c>
+      <c r="J91" t="s">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L91" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>108</v>
+      </c>
+      <c r="B92" t="s">
+        <v>0</v>
+      </c>
+      <c r="C92" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D92" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E92" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G92" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H92" t="s">
+        <v>0</v>
+      </c>
+      <c r="I92" t="s">
+        <v>0</v>
+      </c>
+      <c r="J92" t="s">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L92" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>109</v>
+      </c>
+      <c r="B93" t="s">
+        <v>0</v>
+      </c>
+      <c r="C93" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E93" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G93" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H93" t="s">
+        <v>0</v>
+      </c>
+      <c r="I93" t="s">
+        <v>0</v>
+      </c>
+      <c r="J93" t="s">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L93" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>110</v>
+      </c>
+      <c r="B94" t="s">
+        <v>0</v>
+      </c>
+      <c r="C94" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D94" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G94" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H94" t="s">
+        <v>0</v>
+      </c>
+      <c r="I94" t="s">
+        <v>0</v>
+      </c>
+      <c r="J94" t="s">
+        <v>0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L94" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>111</v>
+      </c>
+      <c r="B95" t="s">
+        <v>0</v>
+      </c>
+      <c r="C95" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D95" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E95" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G95" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H95" t="s">
+        <v>0</v>
+      </c>
+      <c r="I95" t="s">
+        <v>0</v>
+      </c>
+      <c r="J95" t="s">
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L95" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>112</v>
+      </c>
+      <c r="B96" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D96" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E96" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G96" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H96" t="s">
+        <v>0</v>
+      </c>
+      <c r="I96" t="s">
+        <v>0</v>
+      </c>
+      <c r="J96" t="s">
+        <v>0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L96" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>113</v>
+      </c>
+      <c r="B97" t="s">
+        <v>0</v>
+      </c>
+      <c r="C97" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D97" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G97" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H97" t="s">
+        <v>0</v>
+      </c>
+      <c r="I97" t="s">
+        <v>0</v>
+      </c>
+      <c r="J97" t="s">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L97" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>114</v>
+      </c>
+      <c r="B98" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D98" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E98" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G98" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H98" t="s">
+        <v>0</v>
+      </c>
+      <c r="I98" t="s">
+        <v>0</v>
+      </c>
+      <c r="J98" t="s">
+        <v>0</v>
+      </c>
+      <c r="K98" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L98" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>115</v>
+      </c>
+      <c r="B99" t="s">
+        <v>0</v>
+      </c>
+      <c r="C99" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D99" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G99" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H99" t="s">
+        <v>0</v>
+      </c>
+      <c r="I99" t="s">
+        <v>0</v>
+      </c>
+      <c r="J99" t="s">
+        <v>0</v>
+      </c>
+      <c r="K99" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L99" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>116</v>
+      </c>
+      <c r="B100" t="s">
+        <v>0</v>
+      </c>
+      <c r="C100" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D100" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E100" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F100" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G100" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H100" t="s">
+        <v>0</v>
+      </c>
+      <c r="I100" t="s">
+        <v>0</v>
+      </c>
+      <c r="J100" t="s">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L100" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>117</v>
+      </c>
+      <c r="B101" t="s">
+        <v>0</v>
+      </c>
+      <c r="C101" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D101" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G101" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H101" t="s">
+        <v>0</v>
+      </c>
+      <c r="I101" t="s">
+        <v>0</v>
+      </c>
+      <c r="J101" t="s">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L101" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>118</v>
+      </c>
+      <c r="B102" t="s">
+        <v>0</v>
+      </c>
+      <c r="C102" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E102" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G102" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H102" t="s">
+        <v>0</v>
+      </c>
+      <c r="I102" t="s">
+        <v>0</v>
+      </c>
+      <c r="J102" t="s">
+        <v>0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L102" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>119</v>
+      </c>
+      <c r="B103" t="s">
+        <v>0</v>
+      </c>
+      <c r="C103" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D103" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G103" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H103" t="s">
+        <v>0</v>
+      </c>
+      <c r="I103" t="s">
+        <v>0</v>
+      </c>
+      <c r="J103" t="s">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L103" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>120</v>
+      </c>
+      <c r="B104" t="s">
+        <v>0</v>
+      </c>
+      <c r="C104" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D104" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E104" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G104" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H104" t="s">
+        <v>0</v>
+      </c>
+      <c r="I104" t="s">
+        <v>0</v>
+      </c>
+      <c r="J104" t="s">
+        <v>0</v>
+      </c>
+      <c r="K104" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L104" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>121</v>
+      </c>
+      <c r="B105" t="s">
+        <v>0</v>
+      </c>
+      <c r="C105" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D105" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E105" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G105" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H105" t="s">
+        <v>0</v>
+      </c>
+      <c r="I105" t="s">
+        <v>0</v>
+      </c>
+      <c r="J105" t="s">
+        <v>0</v>
+      </c>
+      <c r="K105" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L105" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>122</v>
+      </c>
+      <c r="B106" t="s">
+        <v>0</v>
+      </c>
+      <c r="C106" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D106" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E106" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G106" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H106" t="s">
+        <v>0</v>
+      </c>
+      <c r="I106" t="s">
+        <v>0</v>
+      </c>
+      <c r="J106" t="s">
+        <v>0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L106" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>123</v>
+      </c>
+      <c r="B107" t="s">
+        <v>0</v>
+      </c>
+      <c r="C107" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D107" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E107" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G107" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H107" t="s">
+        <v>0</v>
+      </c>
+      <c r="I107" t="s">
+        <v>0</v>
+      </c>
+      <c r="J107" t="s">
+        <v>0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L107" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>124</v>
+      </c>
+      <c r="B108" t="s">
+        <v>0</v>
+      </c>
+      <c r="C108" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D108" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E108" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F108" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G108" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H108" t="s">
+        <v>0</v>
+      </c>
+      <c r="I108" t="s">
+        <v>0</v>
+      </c>
+      <c r="J108" t="s">
+        <v>0</v>
+      </c>
+      <c r="K108" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L108" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>125</v>
+      </c>
+      <c r="B109" t="s">
+        <v>0</v>
+      </c>
+      <c r="C109" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D109" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G109" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H109" t="s">
+        <v>0</v>
+      </c>
+      <c r="I109" t="s">
+        <v>0</v>
+      </c>
+      <c r="J109" t="s">
+        <v>0</v>
+      </c>
+      <c r="K109" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L109" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>126</v>
+      </c>
+      <c r="B110" t="s">
+        <v>0</v>
+      </c>
+      <c r="C110" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D110" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E110" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G110" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H110" t="s">
+        <v>0</v>
+      </c>
+      <c r="I110" t="s">
+        <v>0</v>
+      </c>
+      <c r="J110" t="s">
+        <v>0</v>
+      </c>
+      <c r="K110" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L110" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>127</v>
+      </c>
+      <c r="B111" t="s">
+        <v>0</v>
+      </c>
+      <c r="C111" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D111" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G111" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H111" t="s">
+        <v>0</v>
+      </c>
+      <c r="I111" t="s">
+        <v>0</v>
+      </c>
+      <c r="J111" t="s">
+        <v>0</v>
+      </c>
+      <c r="K111" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L111" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>128</v>
+      </c>
+      <c r="B112" t="s">
+        <v>0</v>
+      </c>
+      <c r="C112" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D112" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E112" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G112" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H112" t="s">
+        <v>0</v>
+      </c>
+      <c r="I112" t="s">
+        <v>0</v>
+      </c>
+      <c r="J112" t="s">
+        <v>0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L112" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>129</v>
+      </c>
+      <c r="B113" t="s">
+        <v>0</v>
+      </c>
+      <c r="C113" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D113" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G113" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H113" t="s">
+        <v>0</v>
+      </c>
+      <c r="I113" t="s">
+        <v>0</v>
+      </c>
+      <c r="J113" t="s">
+        <v>0</v>
+      </c>
+      <c r="K113" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L113" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>130</v>
+      </c>
+      <c r="B114" t="s">
+        <v>0</v>
+      </c>
+      <c r="C114" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D114" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E114" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G114" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H114" t="s">
+        <v>0</v>
+      </c>
+      <c r="I114" t="s">
+        <v>0</v>
+      </c>
+      <c r="J114" t="s">
+        <v>0</v>
+      </c>
+      <c r="K114" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L114" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>131</v>
+      </c>
+      <c r="B115" t="s">
+        <v>0</v>
+      </c>
+      <c r="C115" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D115" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E115" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G115" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H115" t="s">
+        <v>0</v>
+      </c>
+      <c r="I115" t="s">
+        <v>0</v>
+      </c>
+      <c r="J115" t="s">
+        <v>0</v>
+      </c>
+      <c r="K115" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L115" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>132</v>
+      </c>
+      <c r="B116" t="s">
+        <v>0</v>
+      </c>
+      <c r="C116" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D116" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E116" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H116" t="s">
+        <v>0</v>
+      </c>
+      <c r="I116" t="s">
+        <v>0</v>
+      </c>
+      <c r="J116" t="s">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L116" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>133</v>
+      </c>
+      <c r="B117" t="s">
+        <v>0</v>
+      </c>
+      <c r="C117" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D117" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E117" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G117" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H117" t="s">
+        <v>0</v>
+      </c>
+      <c r="I117" t="s">
+        <v>0</v>
+      </c>
+      <c r="J117" t="s">
+        <v>0</v>
+      </c>
+      <c r="K117" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L117" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>134</v>
+      </c>
+      <c r="B118" t="s">
+        <v>0</v>
+      </c>
+      <c r="C118" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D118" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G118" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H118" t="s">
+        <v>0</v>
+      </c>
+      <c r="I118" t="s">
+        <v>0</v>
+      </c>
+      <c r="J118" t="s">
+        <v>0</v>
+      </c>
+      <c r="K118" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L118" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>135</v>
+      </c>
+      <c r="B119" t="s">
+        <v>0</v>
+      </c>
+      <c r="C119" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D119" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G119" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H119" t="s">
+        <v>0</v>
+      </c>
+      <c r="I119" t="s">
+        <v>0</v>
+      </c>
+      <c r="J119" t="s">
+        <v>0</v>
+      </c>
+      <c r="K119" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L119" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>136</v>
+      </c>
+      <c r="B120" t="s">
+        <v>0</v>
+      </c>
+      <c r="C120" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D120" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E120" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G120" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H120" t="s">
+        <v>0</v>
+      </c>
+      <c r="I120" t="s">
+        <v>0</v>
+      </c>
+      <c r="J120" t="s">
+        <v>0</v>
+      </c>
+      <c r="K120" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L120" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>137</v>
+      </c>
+      <c r="B121" t="s">
+        <v>0</v>
+      </c>
+      <c r="C121" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D121" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E121" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G121" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H121" t="s">
+        <v>0</v>
+      </c>
+      <c r="I121" t="s">
+        <v>0</v>
+      </c>
+      <c r="J121" t="s">
+        <v>0</v>
+      </c>
+      <c r="K121" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L121" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>138</v>
+      </c>
+      <c r="B122" t="s">
+        <v>0</v>
+      </c>
+      <c r="C122" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D122" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G122" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H122" t="s">
+        <v>0</v>
+      </c>
+      <c r="I122" t="s">
+        <v>0</v>
+      </c>
+      <c r="J122" t="s">
+        <v>0</v>
+      </c>
+      <c r="K122" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L122" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>139</v>
+      </c>
+      <c r="B123" t="s">
+        <v>0</v>
+      </c>
+      <c r="C123" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D123" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G123" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H123" t="s">
+        <v>0</v>
+      </c>
+      <c r="I123" t="s">
+        <v>0</v>
+      </c>
+      <c r="J123" t="s">
+        <v>0</v>
+      </c>
+      <c r="K123" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L123" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>140</v>
+      </c>
+      <c r="B124" t="s">
+        <v>0</v>
+      </c>
+      <c r="C124" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D124" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G124" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H124" t="s">
+        <v>0</v>
+      </c>
+      <c r="I124" t="s">
+        <v>0</v>
+      </c>
+      <c r="J124" t="s">
+        <v>0</v>
+      </c>
+      <c r="K124" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L124" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>141</v>
+      </c>
+      <c r="B125" t="s">
+        <v>0</v>
+      </c>
+      <c r="C125" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D125" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E125" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G125" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H125" t="s">
+        <v>0</v>
+      </c>
+      <c r="I125" t="s">
+        <v>0</v>
+      </c>
+      <c r="J125" t="s">
+        <v>0</v>
+      </c>
+      <c r="K125" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L125" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>142</v>
+      </c>
+      <c r="B126" t="s">
+        <v>0</v>
+      </c>
+      <c r="C126" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D126" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E126" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G126" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H126" t="s">
+        <v>0</v>
+      </c>
+      <c r="I126" t="s">
+        <v>0</v>
+      </c>
+      <c r="J126" t="s">
+        <v>0</v>
+      </c>
+      <c r="K126" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L126" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>143</v>
+      </c>
+      <c r="B127" t="s">
+        <v>0</v>
+      </c>
+      <c r="C127" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D127" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G127" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H127" t="s">
+        <v>0</v>
+      </c>
+      <c r="I127" t="s">
+        <v>0</v>
+      </c>
+      <c r="J127" t="s">
+        <v>0</v>
+      </c>
+      <c r="K127" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L127" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>144</v>
+      </c>
+      <c r="B128" t="s">
+        <v>0</v>
+      </c>
+      <c r="C128" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D128" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E128" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G128" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H128" t="s">
+        <v>0</v>
+      </c>
+      <c r="I128" t="s">
+        <v>0</v>
+      </c>
+      <c r="J128" t="s">
+        <v>0</v>
+      </c>
+      <c r="K128" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L128" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>145</v>
+      </c>
+      <c r="B129" t="s">
+        <v>0</v>
+      </c>
+      <c r="C129" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D129" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E129" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G129" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H129" t="s">
+        <v>0</v>
+      </c>
+      <c r="I129" t="s">
+        <v>0</v>
+      </c>
+      <c r="J129" t="s">
+        <v>0</v>
+      </c>
+      <c r="K129" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L129" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>146</v>
+      </c>
+      <c r="B130" t="s">
+        <v>0</v>
+      </c>
+      <c r="C130" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D130" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E130" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G130" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H130" t="s">
+        <v>0</v>
+      </c>
+      <c r="I130" t="s">
+        <v>0</v>
+      </c>
+      <c r="J130" t="s">
+        <v>0</v>
+      </c>
+      <c r="K130" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L130" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>147</v>
+      </c>
+      <c r="B131" t="s">
+        <v>0</v>
+      </c>
+      <c r="C131" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D131" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E131" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G131" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H131" t="s">
+        <v>0</v>
+      </c>
+      <c r="I131" t="s">
+        <v>0</v>
+      </c>
+      <c r="J131" t="s">
+        <v>0</v>
+      </c>
+      <c r="K131" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L131" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>148</v>
+      </c>
+      <c r="B132" t="s">
+        <v>0</v>
+      </c>
+      <c r="C132" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D132" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G132" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H132" t="s">
+        <v>0</v>
+      </c>
+      <c r="I132" t="s">
+        <v>0</v>
+      </c>
+      <c r="J132" t="s">
+        <v>0</v>
+      </c>
+      <c r="K132" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L132" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>149</v>
+      </c>
+      <c r="B133" t="s">
+        <v>0</v>
+      </c>
+      <c r="C133" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D133" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E133" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G133" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H133" t="s">
+        <v>0</v>
+      </c>
+      <c r="I133" t="s">
+        <v>0</v>
+      </c>
+      <c r="J133" t="s">
+        <v>0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L133" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>150</v>
+      </c>
+      <c r="B134" t="s">
+        <v>0</v>
+      </c>
+      <c r="C134" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D134" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E134" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G134" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H134" t="s">
+        <v>0</v>
+      </c>
+      <c r="I134" t="s">
+        <v>0</v>
+      </c>
+      <c r="J134" t="s">
+        <v>0</v>
+      </c>
+      <c r="K134" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L134" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>151</v>
+      </c>
+      <c r="B135" t="s">
+        <v>0</v>
+      </c>
+      <c r="C135" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D135" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E135" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G135" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H135" t="s">
+        <v>0</v>
+      </c>
+      <c r="I135" t="s">
+        <v>0</v>
+      </c>
+      <c r="J135" t="s">
+        <v>0</v>
+      </c>
+      <c r="K135" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L135" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>152</v>
+      </c>
+      <c r="B136" t="s">
+        <v>0</v>
+      </c>
+      <c r="C136" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D136" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G136" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H136" t="s">
+        <v>0</v>
+      </c>
+      <c r="I136" t="s">
+        <v>0</v>
+      </c>
+      <c r="J136" t="s">
+        <v>0</v>
+      </c>
+      <c r="K136" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L136" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>153</v>
+      </c>
+      <c r="B137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C137" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D137" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E137" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G137" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H137" t="s">
+        <v>0</v>
+      </c>
+      <c r="I137" t="s">
+        <v>0</v>
+      </c>
+      <c r="J137" t="s">
+        <v>0</v>
+      </c>
+      <c r="K137" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L137" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>154</v>
+      </c>
+      <c r="B138" t="s">
+        <v>0</v>
+      </c>
+      <c r="C138" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D138" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G138" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H138" t="s">
+        <v>0</v>
+      </c>
+      <c r="I138" t="s">
+        <v>0</v>
+      </c>
+      <c r="J138" t="s">
+        <v>0</v>
+      </c>
+      <c r="K138" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L138" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>155</v>
+      </c>
+      <c r="B139" t="s">
+        <v>0</v>
+      </c>
+      <c r="C139" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D139" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E139" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G139" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H139" t="s">
+        <v>0</v>
+      </c>
+      <c r="I139" t="s">
+        <v>0</v>
+      </c>
+      <c r="J139" t="s">
+        <v>0</v>
+      </c>
+      <c r="K139" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L139" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>156</v>
+      </c>
+      <c r="B140" t="s">
+        <v>0</v>
+      </c>
+      <c r="C140" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D140" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G140" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H140" t="s">
+        <v>0</v>
+      </c>
+      <c r="I140" t="s">
+        <v>0</v>
+      </c>
+      <c r="J140" t="s">
+        <v>0</v>
+      </c>
+      <c r="K140" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L140" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>157</v>
+      </c>
+      <c r="B141" t="s">
+        <v>0</v>
+      </c>
+      <c r="C141" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D141" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G141" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H141" t="s">
+        <v>0</v>
+      </c>
+      <c r="I141" t="s">
+        <v>0</v>
+      </c>
+      <c r="J141" t="s">
+        <v>0</v>
+      </c>
+      <c r="K141" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L141" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6023,7 +9909,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H247"/>
+  <dimension ref="A1:H421"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12456,6 +16342,4530 @@
         <v>8193.0</v>
       </c>
     </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>100</v>
+      </c>
+      <c r="B248" t="s">
+        <v>0</v>
+      </c>
+      <c r="C248" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D248" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E248" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F248" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G248" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H248" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>100</v>
+      </c>
+      <c r="B249" t="s">
+        <v>0</v>
+      </c>
+      <c r="C249" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D249" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E249" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F249" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G249" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H249" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>100</v>
+      </c>
+      <c r="B250" t="s">
+        <v>0</v>
+      </c>
+      <c r="C250" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D250" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E250" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F250" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G250" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H250" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>101</v>
+      </c>
+      <c r="B251" t="s">
+        <v>0</v>
+      </c>
+      <c r="C251" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D251" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E251" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F251" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G251" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H251" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>101</v>
+      </c>
+      <c r="B252" t="s">
+        <v>0</v>
+      </c>
+      <c r="C252" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D252" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E252" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F252" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G252" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H252" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>101</v>
+      </c>
+      <c r="B253" t="s">
+        <v>0</v>
+      </c>
+      <c r="C253" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D253" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E253" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F253" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G253" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H253" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>102</v>
+      </c>
+      <c r="B254" t="s">
+        <v>0</v>
+      </c>
+      <c r="C254" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D254" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E254" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F254" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G254" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H254" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>102</v>
+      </c>
+      <c r="B255" t="s">
+        <v>0</v>
+      </c>
+      <c r="C255" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D255" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E255" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F255" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G255" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H255" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>102</v>
+      </c>
+      <c r="B256" t="s">
+        <v>0</v>
+      </c>
+      <c r="C256" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D256" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E256" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F256" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G256" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H256" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>103</v>
+      </c>
+      <c r="B257" t="s">
+        <v>0</v>
+      </c>
+      <c r="C257" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D257" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E257" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F257" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G257" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H257" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>103</v>
+      </c>
+      <c r="B258" t="s">
+        <v>0</v>
+      </c>
+      <c r="C258" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D258" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E258" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F258" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G258" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H258" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>103</v>
+      </c>
+      <c r="B259" t="s">
+        <v>0</v>
+      </c>
+      <c r="C259" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D259" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E259" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F259" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G259" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H259" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>104</v>
+      </c>
+      <c r="B260" t="s">
+        <v>0</v>
+      </c>
+      <c r="C260" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D260" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E260" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F260" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G260" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H260" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>104</v>
+      </c>
+      <c r="B261" t="s">
+        <v>0</v>
+      </c>
+      <c r="C261" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D261" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E261" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F261" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G261" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H261" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>104</v>
+      </c>
+      <c r="B262" t="s">
+        <v>0</v>
+      </c>
+      <c r="C262" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D262" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E262" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F262" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G262" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H262" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>105</v>
+      </c>
+      <c r="B263" t="s">
+        <v>0</v>
+      </c>
+      <c r="C263" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D263" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E263" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F263" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G263" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H263" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>105</v>
+      </c>
+      <c r="B264" t="s">
+        <v>0</v>
+      </c>
+      <c r="C264" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D264" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E264" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F264" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G264" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H264" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>105</v>
+      </c>
+      <c r="B265" t="s">
+        <v>0</v>
+      </c>
+      <c r="C265" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D265" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E265" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F265" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G265" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H265" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>106</v>
+      </c>
+      <c r="B266" t="s">
+        <v>0</v>
+      </c>
+      <c r="C266" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D266" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E266" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F266" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G266" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H266" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>106</v>
+      </c>
+      <c r="B267" t="s">
+        <v>0</v>
+      </c>
+      <c r="C267" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D267" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E267" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F267" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G267" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H267" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>106</v>
+      </c>
+      <c r="B268" t="s">
+        <v>0</v>
+      </c>
+      <c r="C268" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D268" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E268" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F268" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G268" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H268" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>107</v>
+      </c>
+      <c r="B269" t="s">
+        <v>0</v>
+      </c>
+      <c r="C269" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D269" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E269" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F269" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G269" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H269" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>107</v>
+      </c>
+      <c r="B270" t="s">
+        <v>0</v>
+      </c>
+      <c r="C270" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D270" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E270" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F270" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G270" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H270" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>107</v>
+      </c>
+      <c r="B271" t="s">
+        <v>0</v>
+      </c>
+      <c r="C271" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D271" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E271" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F271" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G271" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H271" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>108</v>
+      </c>
+      <c r="B272" t="s">
+        <v>0</v>
+      </c>
+      <c r="C272" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D272" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E272" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F272" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G272" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H272" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>108</v>
+      </c>
+      <c r="B273" t="s">
+        <v>0</v>
+      </c>
+      <c r="C273" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D273" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E273" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F273" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G273" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H273" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>108</v>
+      </c>
+      <c r="B274" t="s">
+        <v>0</v>
+      </c>
+      <c r="C274" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D274" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E274" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F274" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G274" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H274" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
+        <v>109</v>
+      </c>
+      <c r="B275" t="s">
+        <v>0</v>
+      </c>
+      <c r="C275" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D275" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E275" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F275" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G275" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H275" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>109</v>
+      </c>
+      <c r="B276" t="s">
+        <v>0</v>
+      </c>
+      <c r="C276" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D276" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E276" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F276" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G276" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H276" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>109</v>
+      </c>
+      <c r="B277" t="s">
+        <v>0</v>
+      </c>
+      <c r="C277" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D277" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E277" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F277" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G277" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H277" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>110</v>
+      </c>
+      <c r="B278" t="s">
+        <v>0</v>
+      </c>
+      <c r="C278" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D278" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E278" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F278" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G278" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H278" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>110</v>
+      </c>
+      <c r="B279" t="s">
+        <v>0</v>
+      </c>
+      <c r="C279" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D279" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E279" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F279" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G279" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H279" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>110</v>
+      </c>
+      <c r="B280" t="s">
+        <v>0</v>
+      </c>
+      <c r="C280" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D280" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E280" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F280" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G280" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H280" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>111</v>
+      </c>
+      <c r="B281" t="s">
+        <v>0</v>
+      </c>
+      <c r="C281" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D281" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E281" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F281" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G281" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H281" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>111</v>
+      </c>
+      <c r="B282" t="s">
+        <v>0</v>
+      </c>
+      <c r="C282" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D282" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E282" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F282" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G282" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H282" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>111</v>
+      </c>
+      <c r="B283" t="s">
+        <v>0</v>
+      </c>
+      <c r="C283" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D283" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E283" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F283" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G283" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H283" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>112</v>
+      </c>
+      <c r="B284" t="s">
+        <v>0</v>
+      </c>
+      <c r="C284" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D284" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E284" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F284" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G284" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H284" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>112</v>
+      </c>
+      <c r="B285" t="s">
+        <v>0</v>
+      </c>
+      <c r="C285" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D285" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E285" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F285" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G285" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H285" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>112</v>
+      </c>
+      <c r="B286" t="s">
+        <v>0</v>
+      </c>
+      <c r="C286" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D286" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E286" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F286" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G286" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H286" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>113</v>
+      </c>
+      <c r="B287" t="s">
+        <v>0</v>
+      </c>
+      <c r="C287" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D287" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E287" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F287" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G287" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H287" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>113</v>
+      </c>
+      <c r="B288" t="s">
+        <v>0</v>
+      </c>
+      <c r="C288" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D288" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E288" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F288" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G288" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H288" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s">
+        <v>113</v>
+      </c>
+      <c r="B289" t="s">
+        <v>0</v>
+      </c>
+      <c r="C289" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D289" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E289" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F289" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G289" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H289" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>114</v>
+      </c>
+      <c r="B290" t="s">
+        <v>0</v>
+      </c>
+      <c r="C290" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D290" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E290" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F290" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G290" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H290" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>114</v>
+      </c>
+      <c r="B291" t="s">
+        <v>0</v>
+      </c>
+      <c r="C291" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D291" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E291" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F291" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G291" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H291" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>114</v>
+      </c>
+      <c r="B292" t="s">
+        <v>0</v>
+      </c>
+      <c r="C292" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D292" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E292" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F292" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G292" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H292" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s">
+        <v>115</v>
+      </c>
+      <c r="B293" t="s">
+        <v>0</v>
+      </c>
+      <c r="C293" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D293" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E293" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F293" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G293" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H293" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s">
+        <v>115</v>
+      </c>
+      <c r="B294" t="s">
+        <v>0</v>
+      </c>
+      <c r="C294" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D294" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E294" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F294" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G294" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H294" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s">
+        <v>115</v>
+      </c>
+      <c r="B295" t="s">
+        <v>0</v>
+      </c>
+      <c r="C295" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D295" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E295" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F295" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G295" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H295" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s">
+        <v>116</v>
+      </c>
+      <c r="B296" t="s">
+        <v>0</v>
+      </c>
+      <c r="C296" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D296" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E296" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F296" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G296" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H296" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s">
+        <v>116</v>
+      </c>
+      <c r="B297" t="s">
+        <v>0</v>
+      </c>
+      <c r="C297" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D297" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E297" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F297" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G297" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H297" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s">
+        <v>116</v>
+      </c>
+      <c r="B298" t="s">
+        <v>0</v>
+      </c>
+      <c r="C298" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D298" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E298" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F298" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G298" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H298" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>117</v>
+      </c>
+      <c r="B299" t="s">
+        <v>0</v>
+      </c>
+      <c r="C299" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D299" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E299" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F299" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G299" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H299" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>117</v>
+      </c>
+      <c r="B300" t="s">
+        <v>0</v>
+      </c>
+      <c r="C300" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D300" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E300" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F300" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G300" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H300" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>117</v>
+      </c>
+      <c r="B301" t="s">
+        <v>0</v>
+      </c>
+      <c r="C301" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D301" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E301" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F301" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G301" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H301" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>118</v>
+      </c>
+      <c r="B302" t="s">
+        <v>0</v>
+      </c>
+      <c r="C302" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D302" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E302" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F302" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G302" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H302" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>118</v>
+      </c>
+      <c r="B303" t="s">
+        <v>0</v>
+      </c>
+      <c r="C303" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D303" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E303" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F303" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G303" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H303" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>118</v>
+      </c>
+      <c r="B304" t="s">
+        <v>0</v>
+      </c>
+      <c r="C304" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D304" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E304" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F304" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G304" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H304" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>119</v>
+      </c>
+      <c r="B305" t="s">
+        <v>0</v>
+      </c>
+      <c r="C305" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D305" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E305" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F305" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G305" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H305" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>119</v>
+      </c>
+      <c r="B306" t="s">
+        <v>0</v>
+      </c>
+      <c r="C306" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D306" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E306" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F306" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G306" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H306" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>119</v>
+      </c>
+      <c r="B307" t="s">
+        <v>0</v>
+      </c>
+      <c r="C307" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D307" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E307" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F307" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G307" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H307" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s">
+        <v>120</v>
+      </c>
+      <c r="B308" t="s">
+        <v>0</v>
+      </c>
+      <c r="C308" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D308" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E308" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F308" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G308" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H308" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s">
+        <v>120</v>
+      </c>
+      <c r="B309" t="s">
+        <v>0</v>
+      </c>
+      <c r="C309" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D309" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E309" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F309" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G309" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H309" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s">
+        <v>120</v>
+      </c>
+      <c r="B310" t="s">
+        <v>0</v>
+      </c>
+      <c r="C310" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D310" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E310" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F310" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G310" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H310" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s">
+        <v>121</v>
+      </c>
+      <c r="B311" t="s">
+        <v>0</v>
+      </c>
+      <c r="C311" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D311" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E311" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F311" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G311" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H311" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s">
+        <v>121</v>
+      </c>
+      <c r="B312" t="s">
+        <v>0</v>
+      </c>
+      <c r="C312" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D312" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E312" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F312" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G312" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H312" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s">
+        <v>121</v>
+      </c>
+      <c r="B313" t="s">
+        <v>0</v>
+      </c>
+      <c r="C313" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D313" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E313" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F313" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G313" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H313" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s">
+        <v>122</v>
+      </c>
+      <c r="B314" t="s">
+        <v>0</v>
+      </c>
+      <c r="C314" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D314" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E314" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F314" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G314" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H314" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s">
+        <v>122</v>
+      </c>
+      <c r="B315" t="s">
+        <v>0</v>
+      </c>
+      <c r="C315" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D315" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E315" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F315" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G315" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H315" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s">
+        <v>122</v>
+      </c>
+      <c r="B316" t="s">
+        <v>0</v>
+      </c>
+      <c r="C316" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D316" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E316" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F316" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G316" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H316" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s">
+        <v>123</v>
+      </c>
+      <c r="B317" t="s">
+        <v>0</v>
+      </c>
+      <c r="C317" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D317" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E317" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F317" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G317" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H317" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s">
+        <v>123</v>
+      </c>
+      <c r="B318" t="s">
+        <v>0</v>
+      </c>
+      <c r="C318" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D318" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E318" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F318" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G318" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H318" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s">
+        <v>123</v>
+      </c>
+      <c r="B319" t="s">
+        <v>0</v>
+      </c>
+      <c r="C319" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D319" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E319" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F319" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G319" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H319" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s">
+        <v>124</v>
+      </c>
+      <c r="B320" t="s">
+        <v>0</v>
+      </c>
+      <c r="C320" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D320" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E320" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F320" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G320" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H320" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s">
+        <v>124</v>
+      </c>
+      <c r="B321" t="s">
+        <v>0</v>
+      </c>
+      <c r="C321" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D321" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E321" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F321" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G321" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H321" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s">
+        <v>124</v>
+      </c>
+      <c r="B322" t="s">
+        <v>0</v>
+      </c>
+      <c r="C322" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D322" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E322" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F322" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G322" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H322" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s">
+        <v>125</v>
+      </c>
+      <c r="B323" t="s">
+        <v>0</v>
+      </c>
+      <c r="C323" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D323" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E323" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F323" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G323" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H323" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s">
+        <v>125</v>
+      </c>
+      <c r="B324" t="s">
+        <v>0</v>
+      </c>
+      <c r="C324" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D324" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E324" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F324" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G324" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H324" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s">
+        <v>125</v>
+      </c>
+      <c r="B325" t="s">
+        <v>0</v>
+      </c>
+      <c r="C325" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D325" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E325" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F325" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G325" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H325" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s">
+        <v>126</v>
+      </c>
+      <c r="B326" t="s">
+        <v>0</v>
+      </c>
+      <c r="C326" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D326" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E326" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F326" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G326" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H326" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s">
+        <v>126</v>
+      </c>
+      <c r="B327" t="s">
+        <v>0</v>
+      </c>
+      <c r="C327" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D327" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E327" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F327" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G327" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H327" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s">
+        <v>126</v>
+      </c>
+      <c r="B328" t="s">
+        <v>0</v>
+      </c>
+      <c r="C328" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D328" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E328" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F328" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G328" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H328" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s">
+        <v>127</v>
+      </c>
+      <c r="B329" t="s">
+        <v>0</v>
+      </c>
+      <c r="C329" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D329" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E329" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F329" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G329" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H329" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s">
+        <v>127</v>
+      </c>
+      <c r="B330" t="s">
+        <v>0</v>
+      </c>
+      <c r="C330" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D330" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E330" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F330" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G330" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H330" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s">
+        <v>127</v>
+      </c>
+      <c r="B331" t="s">
+        <v>0</v>
+      </c>
+      <c r="C331" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D331" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E331" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F331" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G331" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H331" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s">
+        <v>128</v>
+      </c>
+      <c r="B332" t="s">
+        <v>0</v>
+      </c>
+      <c r="C332" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D332" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E332" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F332" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G332" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H332" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s">
+        <v>128</v>
+      </c>
+      <c r="B333" t="s">
+        <v>0</v>
+      </c>
+      <c r="C333" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D333" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E333" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F333" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G333" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H333" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s">
+        <v>128</v>
+      </c>
+      <c r="B334" t="s">
+        <v>0</v>
+      </c>
+      <c r="C334" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D334" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E334" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F334" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G334" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H334" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s">
+        <v>129</v>
+      </c>
+      <c r="B335" t="s">
+        <v>0</v>
+      </c>
+      <c r="C335" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D335" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E335" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F335" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G335" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H335" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s">
+        <v>129</v>
+      </c>
+      <c r="B336" t="s">
+        <v>0</v>
+      </c>
+      <c r="C336" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D336" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E336" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F336" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G336" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H336" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s">
+        <v>129</v>
+      </c>
+      <c r="B337" t="s">
+        <v>0</v>
+      </c>
+      <c r="C337" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D337" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E337" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F337" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G337" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H337" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s">
+        <v>130</v>
+      </c>
+      <c r="B338" t="s">
+        <v>0</v>
+      </c>
+      <c r="C338" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D338" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E338" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F338" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G338" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H338" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s">
+        <v>130</v>
+      </c>
+      <c r="B339" t="s">
+        <v>0</v>
+      </c>
+      <c r="C339" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D339" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E339" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F339" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G339" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H339" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s">
+        <v>130</v>
+      </c>
+      <c r="B340" t="s">
+        <v>0</v>
+      </c>
+      <c r="C340" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D340" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E340" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F340" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G340" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H340" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s">
+        <v>131</v>
+      </c>
+      <c r="B341" t="s">
+        <v>0</v>
+      </c>
+      <c r="C341" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D341" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E341" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F341" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G341" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H341" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="s">
+        <v>131</v>
+      </c>
+      <c r="B342" t="s">
+        <v>0</v>
+      </c>
+      <c r="C342" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D342" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E342" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F342" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G342" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H342" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="s">
+        <v>131</v>
+      </c>
+      <c r="B343" t="s">
+        <v>0</v>
+      </c>
+      <c r="C343" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D343" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E343" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F343" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G343" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H343" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="s">
+        <v>132</v>
+      </c>
+      <c r="B344" t="s">
+        <v>0</v>
+      </c>
+      <c r="C344" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D344" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E344" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F344" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G344" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H344" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="s">
+        <v>132</v>
+      </c>
+      <c r="B345" t="s">
+        <v>0</v>
+      </c>
+      <c r="C345" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D345" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E345" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F345" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G345" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H345" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="s">
+        <v>132</v>
+      </c>
+      <c r="B346" t="s">
+        <v>0</v>
+      </c>
+      <c r="C346" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D346" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E346" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F346" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G346" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H346" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="s">
+        <v>133</v>
+      </c>
+      <c r="B347" t="s">
+        <v>0</v>
+      </c>
+      <c r="C347" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D347" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E347" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F347" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G347" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H347" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="s">
+        <v>133</v>
+      </c>
+      <c r="B348" t="s">
+        <v>0</v>
+      </c>
+      <c r="C348" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D348" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E348" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F348" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G348" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H348" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="s">
+        <v>133</v>
+      </c>
+      <c r="B349" t="s">
+        <v>0</v>
+      </c>
+      <c r="C349" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D349" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E349" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F349" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G349" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H349" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="s">
+        <v>134</v>
+      </c>
+      <c r="B350" t="s">
+        <v>0</v>
+      </c>
+      <c r="C350" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D350" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E350" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F350" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G350" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H350" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="s">
+        <v>134</v>
+      </c>
+      <c r="B351" t="s">
+        <v>0</v>
+      </c>
+      <c r="C351" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D351" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E351" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F351" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G351" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H351" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="s">
+        <v>134</v>
+      </c>
+      <c r="B352" t="s">
+        <v>0</v>
+      </c>
+      <c r="C352" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D352" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E352" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F352" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G352" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H352" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="s">
+        <v>135</v>
+      </c>
+      <c r="B353" t="s">
+        <v>0</v>
+      </c>
+      <c r="C353" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D353" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E353" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F353" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G353" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H353" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="s">
+        <v>135</v>
+      </c>
+      <c r="B354" t="s">
+        <v>0</v>
+      </c>
+      <c r="C354" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D354" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E354" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F354" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G354" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H354" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="s">
+        <v>135</v>
+      </c>
+      <c r="B355" t="s">
+        <v>0</v>
+      </c>
+      <c r="C355" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D355" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E355" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F355" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G355" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H355" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="s">
+        <v>136</v>
+      </c>
+      <c r="B356" t="s">
+        <v>0</v>
+      </c>
+      <c r="C356" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D356" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E356" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F356" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G356" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H356" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="s">
+        <v>136</v>
+      </c>
+      <c r="B357" t="s">
+        <v>0</v>
+      </c>
+      <c r="C357" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D357" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E357" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F357" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G357" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H357" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="s">
+        <v>136</v>
+      </c>
+      <c r="B358" t="s">
+        <v>0</v>
+      </c>
+      <c r="C358" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D358" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E358" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F358" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G358" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H358" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="s">
+        <v>137</v>
+      </c>
+      <c r="B359" t="s">
+        <v>0</v>
+      </c>
+      <c r="C359" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D359" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E359" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F359" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G359" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H359" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="s">
+        <v>137</v>
+      </c>
+      <c r="B360" t="s">
+        <v>0</v>
+      </c>
+      <c r="C360" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D360" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E360" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F360" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G360" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H360" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="s">
+        <v>137</v>
+      </c>
+      <c r="B361" t="s">
+        <v>0</v>
+      </c>
+      <c r="C361" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D361" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E361" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F361" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G361" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H361" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="s">
+        <v>138</v>
+      </c>
+      <c r="B362" t="s">
+        <v>0</v>
+      </c>
+      <c r="C362" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D362" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E362" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F362" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G362" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H362" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="s">
+        <v>138</v>
+      </c>
+      <c r="B363" t="s">
+        <v>0</v>
+      </c>
+      <c r="C363" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D363" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E363" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F363" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G363" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H363" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="s">
+        <v>138</v>
+      </c>
+      <c r="B364" t="s">
+        <v>0</v>
+      </c>
+      <c r="C364" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D364" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E364" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F364" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G364" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H364" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="s">
+        <v>139</v>
+      </c>
+      <c r="B365" t="s">
+        <v>0</v>
+      </c>
+      <c r="C365" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D365" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E365" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F365" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G365" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H365" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="s">
+        <v>139</v>
+      </c>
+      <c r="B366" t="s">
+        <v>0</v>
+      </c>
+      <c r="C366" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D366" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E366" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F366" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G366" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H366" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="s">
+        <v>139</v>
+      </c>
+      <c r="B367" t="s">
+        <v>0</v>
+      </c>
+      <c r="C367" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D367" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E367" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F367" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G367" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H367" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="s">
+        <v>140</v>
+      </c>
+      <c r="B368" t="s">
+        <v>0</v>
+      </c>
+      <c r="C368" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D368" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E368" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F368" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G368" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H368" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="s">
+        <v>140</v>
+      </c>
+      <c r="B369" t="s">
+        <v>0</v>
+      </c>
+      <c r="C369" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D369" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E369" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F369" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G369" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H369" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="s">
+        <v>140</v>
+      </c>
+      <c r="B370" t="s">
+        <v>0</v>
+      </c>
+      <c r="C370" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D370" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E370" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F370" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G370" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H370" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="s">
+        <v>141</v>
+      </c>
+      <c r="B371" t="s">
+        <v>0</v>
+      </c>
+      <c r="C371" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D371" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E371" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F371" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G371" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H371" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="s">
+        <v>141</v>
+      </c>
+      <c r="B372" t="s">
+        <v>0</v>
+      </c>
+      <c r="C372" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D372" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E372" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F372" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G372" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H372" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="s">
+        <v>141</v>
+      </c>
+      <c r="B373" t="s">
+        <v>0</v>
+      </c>
+      <c r="C373" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D373" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E373" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F373" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G373" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H373" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="s">
+        <v>142</v>
+      </c>
+      <c r="B374" t="s">
+        <v>0</v>
+      </c>
+      <c r="C374" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D374" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E374" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F374" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G374" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H374" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="s">
+        <v>142</v>
+      </c>
+      <c r="B375" t="s">
+        <v>0</v>
+      </c>
+      <c r="C375" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D375" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E375" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F375" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G375" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H375" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="s">
+        <v>142</v>
+      </c>
+      <c r="B376" t="s">
+        <v>0</v>
+      </c>
+      <c r="C376" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D376" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E376" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F376" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G376" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H376" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="s">
+        <v>143</v>
+      </c>
+      <c r="B377" t="s">
+        <v>0</v>
+      </c>
+      <c r="C377" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D377" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E377" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F377" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G377" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H377" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="s">
+        <v>143</v>
+      </c>
+      <c r="B378" t="s">
+        <v>0</v>
+      </c>
+      <c r="C378" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D378" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E378" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F378" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G378" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H378" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="s">
+        <v>143</v>
+      </c>
+      <c r="B379" t="s">
+        <v>0</v>
+      </c>
+      <c r="C379" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D379" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E379" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F379" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G379" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H379" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="s">
+        <v>144</v>
+      </c>
+      <c r="B380" t="s">
+        <v>0</v>
+      </c>
+      <c r="C380" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D380" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E380" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F380" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G380" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H380" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="s">
+        <v>144</v>
+      </c>
+      <c r="B381" t="s">
+        <v>0</v>
+      </c>
+      <c r="C381" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D381" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E381" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F381" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G381" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H381" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="s">
+        <v>144</v>
+      </c>
+      <c r="B382" t="s">
+        <v>0</v>
+      </c>
+      <c r="C382" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D382" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E382" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F382" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G382" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H382" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="s">
+        <v>145</v>
+      </c>
+      <c r="B383" t="s">
+        <v>0</v>
+      </c>
+      <c r="C383" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D383" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E383" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F383" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G383" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H383" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="s">
+        <v>145</v>
+      </c>
+      <c r="B384" t="s">
+        <v>0</v>
+      </c>
+      <c r="C384" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D384" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E384" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F384" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G384" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H384" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="s">
+        <v>145</v>
+      </c>
+      <c r="B385" t="s">
+        <v>0</v>
+      </c>
+      <c r="C385" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D385" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E385" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F385" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G385" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H385" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="s">
+        <v>146</v>
+      </c>
+      <c r="B386" t="s">
+        <v>0</v>
+      </c>
+      <c r="C386" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D386" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E386" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F386" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G386" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H386" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="s">
+        <v>146</v>
+      </c>
+      <c r="B387" t="s">
+        <v>0</v>
+      </c>
+      <c r="C387" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D387" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E387" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F387" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G387" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H387" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="s">
+        <v>146</v>
+      </c>
+      <c r="B388" t="s">
+        <v>0</v>
+      </c>
+      <c r="C388" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D388" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E388" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F388" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G388" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H388" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="s">
+        <v>147</v>
+      </c>
+      <c r="B389" t="s">
+        <v>0</v>
+      </c>
+      <c r="C389" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D389" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E389" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F389" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G389" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H389" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="s">
+        <v>147</v>
+      </c>
+      <c r="B390" t="s">
+        <v>0</v>
+      </c>
+      <c r="C390" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D390" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E390" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F390" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G390" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H390" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="s">
+        <v>147</v>
+      </c>
+      <c r="B391" t="s">
+        <v>0</v>
+      </c>
+      <c r="C391" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D391" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E391" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F391" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G391" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H391" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="s">
+        <v>148</v>
+      </c>
+      <c r="B392" t="s">
+        <v>0</v>
+      </c>
+      <c r="C392" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D392" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E392" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F392" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G392" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H392" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="s">
+        <v>148</v>
+      </c>
+      <c r="B393" t="s">
+        <v>0</v>
+      </c>
+      <c r="C393" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D393" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E393" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F393" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G393" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H393" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="s">
+        <v>148</v>
+      </c>
+      <c r="B394" t="s">
+        <v>0</v>
+      </c>
+      <c r="C394" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D394" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E394" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F394" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G394" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H394" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="s">
+        <v>149</v>
+      </c>
+      <c r="B395" t="s">
+        <v>0</v>
+      </c>
+      <c r="C395" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D395" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E395" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F395" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G395" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H395" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="s">
+        <v>149</v>
+      </c>
+      <c r="B396" t="s">
+        <v>0</v>
+      </c>
+      <c r="C396" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D396" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E396" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F396" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G396" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H396" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="s">
+        <v>149</v>
+      </c>
+      <c r="B397" t="s">
+        <v>0</v>
+      </c>
+      <c r="C397" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D397" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E397" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F397" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G397" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H397" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="s">
+        <v>150</v>
+      </c>
+      <c r="B398" t="s">
+        <v>0</v>
+      </c>
+      <c r="C398" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D398" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E398" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F398" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G398" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H398" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="s">
+        <v>150</v>
+      </c>
+      <c r="B399" t="s">
+        <v>0</v>
+      </c>
+      <c r="C399" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D399" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E399" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F399" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G399" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H399" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="s">
+        <v>150</v>
+      </c>
+      <c r="B400" t="s">
+        <v>0</v>
+      </c>
+      <c r="C400" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D400" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E400" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F400" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G400" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H400" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="s">
+        <v>151</v>
+      </c>
+      <c r="B401" t="s">
+        <v>0</v>
+      </c>
+      <c r="C401" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D401" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E401" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F401" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G401" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H401" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="s">
+        <v>151</v>
+      </c>
+      <c r="B402" t="s">
+        <v>0</v>
+      </c>
+      <c r="C402" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D402" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E402" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F402" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G402" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H402" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="s">
+        <v>151</v>
+      </c>
+      <c r="B403" t="s">
+        <v>0</v>
+      </c>
+      <c r="C403" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D403" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E403" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F403" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G403" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H403" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="s">
+        <v>152</v>
+      </c>
+      <c r="B404" t="s">
+        <v>0</v>
+      </c>
+      <c r="C404" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D404" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E404" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F404" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G404" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H404" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="s">
+        <v>152</v>
+      </c>
+      <c r="B405" t="s">
+        <v>0</v>
+      </c>
+      <c r="C405" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D405" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E405" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F405" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G405" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H405" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="s">
+        <v>152</v>
+      </c>
+      <c r="B406" t="s">
+        <v>0</v>
+      </c>
+      <c r="C406" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D406" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E406" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F406" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G406" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H406" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="s">
+        <v>153</v>
+      </c>
+      <c r="B407" t="s">
+        <v>0</v>
+      </c>
+      <c r="C407" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D407" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E407" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F407" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G407" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H407" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="s">
+        <v>153</v>
+      </c>
+      <c r="B408" t="s">
+        <v>0</v>
+      </c>
+      <c r="C408" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D408" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E408" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F408" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G408" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H408" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="s">
+        <v>153</v>
+      </c>
+      <c r="B409" t="s">
+        <v>0</v>
+      </c>
+      <c r="C409" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D409" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E409" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F409" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G409" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H409" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="s">
+        <v>154</v>
+      </c>
+      <c r="B410" t="s">
+        <v>0</v>
+      </c>
+      <c r="C410" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D410" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E410" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F410" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G410" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H410" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="s">
+        <v>154</v>
+      </c>
+      <c r="B411" t="s">
+        <v>0</v>
+      </c>
+      <c r="C411" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D411" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E411" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F411" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G411" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H411" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="s">
+        <v>154</v>
+      </c>
+      <c r="B412" t="s">
+        <v>0</v>
+      </c>
+      <c r="C412" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D412" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E412" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F412" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G412" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H412" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="s">
+        <v>155</v>
+      </c>
+      <c r="B413" t="s">
+        <v>0</v>
+      </c>
+      <c r="C413" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D413" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E413" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F413" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G413" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H413" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="s">
+        <v>155</v>
+      </c>
+      <c r="B414" t="s">
+        <v>0</v>
+      </c>
+      <c r="C414" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D414" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E414" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F414" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G414" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H414" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="s">
+        <v>155</v>
+      </c>
+      <c r="B415" t="s">
+        <v>0</v>
+      </c>
+      <c r="C415" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D415" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E415" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F415" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G415" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H415" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="s">
+        <v>156</v>
+      </c>
+      <c r="B416" t="s">
+        <v>0</v>
+      </c>
+      <c r="C416" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D416" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E416" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F416" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G416" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H416" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="s">
+        <v>156</v>
+      </c>
+      <c r="B417" t="s">
+        <v>0</v>
+      </c>
+      <c r="C417" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D417" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E417" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F417" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G417" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H417" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="s">
+        <v>156</v>
+      </c>
+      <c r="B418" t="s">
+        <v>0</v>
+      </c>
+      <c r="C418" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D418" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E418" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F418" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G418" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H418" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="s">
+        <v>157</v>
+      </c>
+      <c r="B419" t="s">
+        <v>0</v>
+      </c>
+      <c r="C419" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D419" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E419" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F419" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G419" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H419" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="s">
+        <v>157</v>
+      </c>
+      <c r="B420" t="s">
+        <v>0</v>
+      </c>
+      <c r="C420" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D420" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E420" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F420" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G420" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H420" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="s">
+        <v>157</v>
+      </c>
+      <c r="B421" t="s">
+        <v>0</v>
+      </c>
+      <c r="C421" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D421" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E421" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F421" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G421" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H421" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/sheet/msg_8705.xlsx
+++ b/data/sheet/msg_8705.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4213" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4243" uniqueCount="159">
   <si>
     <t/>
   </si>
@@ -497,6 +497,9 @@
   <si>
     <t>2022-03-21 10:56:59</t>
   </si>
+  <si>
+    <t>2022-03-21 13:48:25</t>
+  </si>
 </sst>
 </file>
 
@@ -848,7 +851,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H141"/>
+  <dimension ref="A1:H142"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4525,6 +4528,32 @@
         <v>255.0</v>
       </c>
     </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>158</v>
+      </c>
+      <c r="B142" t="s">
+        <v>0</v>
+      </c>
+      <c r="C142" t="s">
+        <v>10</v>
+      </c>
+      <c r="D142" t="n">
+        <v>1.647866907E9</v>
+      </c>
+      <c r="E142" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F142" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G142" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H142" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4532,7 +4561,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L141"/>
+  <dimension ref="A1:L142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -9902,6 +9931,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>158</v>
+      </c>
+      <c r="B142" t="s">
+        <v>0</v>
+      </c>
+      <c r="C142" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D142" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E142" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G142" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H142" t="s">
+        <v>0</v>
+      </c>
+      <c r="I142" t="s">
+        <v>0</v>
+      </c>
+      <c r="J142" t="s">
+        <v>0</v>
+      </c>
+      <c r="K142" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L142" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9909,7 +9976,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H421"/>
+  <dimension ref="A1:H424"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -20866,6 +20933,84 @@
         <v>8193.0</v>
       </c>
     </row>
+    <row r="422">
+      <c r="A422" t="s">
+        <v>158</v>
+      </c>
+      <c r="B422" t="s">
+        <v>0</v>
+      </c>
+      <c r="C422" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D422" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E422" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F422" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G422" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H422" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="s">
+        <v>158</v>
+      </c>
+      <c r="B423" t="s">
+        <v>0</v>
+      </c>
+      <c r="C423" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D423" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E423" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F423" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G423" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H423" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="s">
+        <v>158</v>
+      </c>
+      <c r="B424" t="s">
+        <v>0</v>
+      </c>
+      <c r="C424" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D424" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E424" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F424" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G424" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H424" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/sheet/msg_8705.xlsx
+++ b/data/sheet/msg_8705.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4243" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4273" uniqueCount="160">
   <si>
     <t/>
   </si>
@@ -500,6 +500,9 @@
   <si>
     <t>2022-03-21 13:48:25</t>
   </si>
+  <si>
+    <t>2022-03-21 17:10:29</t>
+  </si>
 </sst>
 </file>
 
@@ -851,7 +854,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H142"/>
+  <dimension ref="A1:H143"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4554,6 +4557,32 @@
         <v>255.0</v>
       </c>
     </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>159</v>
+      </c>
+      <c r="B143" t="s">
+        <v>0</v>
+      </c>
+      <c r="C143" t="s">
+        <v>10</v>
+      </c>
+      <c r="D143" t="n">
+        <v>1.647879032E9</v>
+      </c>
+      <c r="E143" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F143" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G143" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H143" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4561,7 +4590,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L142"/>
+  <dimension ref="A1:L143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -9969,6 +9998,44 @@
         <v>0</v>
       </c>
     </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>159</v>
+      </c>
+      <c r="B143" t="s">
+        <v>0</v>
+      </c>
+      <c r="C143" t="n">
+        <v>520.0</v>
+      </c>
+      <c r="D143" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E143" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G143" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H143" t="s">
+        <v>0</v>
+      </c>
+      <c r="I143" t="s">
+        <v>0</v>
+      </c>
+      <c r="J143" t="s">
+        <v>0</v>
+      </c>
+      <c r="K143" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L143" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9976,7 +10043,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H424"/>
+  <dimension ref="A1:H427"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -21011,6 +21078,84 @@
         <v>8193.0</v>
       </c>
     </row>
+    <row r="425">
+      <c r="A425" t="s">
+        <v>159</v>
+      </c>
+      <c r="B425" t="s">
+        <v>0</v>
+      </c>
+      <c r="C425" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D425" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E425" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F425" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G425" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H425" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="s">
+        <v>159</v>
+      </c>
+      <c r="B426" t="s">
+        <v>0</v>
+      </c>
+      <c r="C426" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D426" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E426" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F426" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G426" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H426" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="s">
+        <v>159</v>
+      </c>
+      <c r="B427" t="s">
+        <v>0</v>
+      </c>
+      <c r="C427" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D427" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E427" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F427" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G427" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H427" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/sheet/msg_8705.xlsx
+++ b/data/sheet/msg_8705.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4273" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4843" uniqueCount="180">
   <si>
     <t/>
   </si>
@@ -503,6 +503,66 @@
   <si>
     <t>2022-03-21 17:10:29</t>
   </si>
+  <si>
+    <t>2022-03-22 07:53:58</t>
+  </si>
+  <si>
+    <t>1.0.1</t>
+  </si>
+  <si>
+    <t>2022-03-22 08:10:21</t>
+  </si>
+  <si>
+    <t>2022-03-22 08:21:23</t>
+  </si>
+  <si>
+    <t>2022-03-22 08:28:25</t>
+  </si>
+  <si>
+    <t>2022-03-22 09:23:32</t>
+  </si>
+  <si>
+    <t>2022-03-22 09:52:35</t>
+  </si>
+  <si>
+    <t>2022-03-22 09:57:36</t>
+  </si>
+  <si>
+    <t>2022-03-22 10:03:37</t>
+  </si>
+  <si>
+    <t>2022-03-22 10:26:39</t>
+  </si>
+  <si>
+    <t>2022-03-22 10:29:40</t>
+  </si>
+  <si>
+    <t>2022-03-22 10:43:43</t>
+  </si>
+  <si>
+    <t>2022-03-22 11:01:45</t>
+  </si>
+  <si>
+    <t>2022-03-22 11:06:47</t>
+  </si>
+  <si>
+    <t>2022-03-22 11:17:48</t>
+  </si>
+  <si>
+    <t>2022-03-22 11:23:49</t>
+  </si>
+  <si>
+    <t>2022-03-22 11:54:53</t>
+  </si>
+  <si>
+    <t>2022-03-22 11:59:53</t>
+  </si>
+  <si>
+    <t>2022-03-22 12:40:58</t>
+  </si>
+  <si>
+    <t>2022-03-22 12:43:58</t>
+  </si>
 </sst>
 </file>
 
@@ -854,7 +914,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H143"/>
+  <dimension ref="A1:H162"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4583,6 +4643,500 @@
         <v>255.0</v>
       </c>
     </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>160</v>
+      </c>
+      <c r="B144" t="s">
+        <v>0</v>
+      </c>
+      <c r="C144" t="s">
+        <v>10</v>
+      </c>
+      <c r="D144" t="n">
+        <v>1.647932039E9</v>
+      </c>
+      <c r="E144" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F144" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G144" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H144" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>162</v>
+      </c>
+      <c r="B145" t="s">
+        <v>0</v>
+      </c>
+      <c r="C145" t="s">
+        <v>10</v>
+      </c>
+      <c r="D145" t="n">
+        <v>1.647933022E9</v>
+      </c>
+      <c r="E145" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F145" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G145" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H145" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>163</v>
+      </c>
+      <c r="B146" t="s">
+        <v>0</v>
+      </c>
+      <c r="C146" t="s">
+        <v>10</v>
+      </c>
+      <c r="D146" t="n">
+        <v>1.647933684E9</v>
+      </c>
+      <c r="E146" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F146" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G146" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H146" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>164</v>
+      </c>
+      <c r="B147" t="s">
+        <v>0</v>
+      </c>
+      <c r="C147" t="s">
+        <v>10</v>
+      </c>
+      <c r="D147" t="n">
+        <v>1.647934105E9</v>
+      </c>
+      <c r="E147" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F147" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G147" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H147" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>165</v>
+      </c>
+      <c r="B148" t="s">
+        <v>0</v>
+      </c>
+      <c r="C148" t="s">
+        <v>10</v>
+      </c>
+      <c r="D148" t="n">
+        <v>1.647937412E9</v>
+      </c>
+      <c r="E148" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F148" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G148" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H148" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>166</v>
+      </c>
+      <c r="B149" t="s">
+        <v>0</v>
+      </c>
+      <c r="C149" t="s">
+        <v>10</v>
+      </c>
+      <c r="D149" t="n">
+        <v>1.647939156E9</v>
+      </c>
+      <c r="E149" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F149" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G149" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H149" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>167</v>
+      </c>
+      <c r="B150" t="s">
+        <v>0</v>
+      </c>
+      <c r="C150" t="s">
+        <v>10</v>
+      </c>
+      <c r="D150" t="n">
+        <v>1.647939457E9</v>
+      </c>
+      <c r="E150" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F150" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G150" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H150" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>168</v>
+      </c>
+      <c r="B151" t="s">
+        <v>0</v>
+      </c>
+      <c r="C151" t="s">
+        <v>10</v>
+      </c>
+      <c r="D151" t="n">
+        <v>1.647939818E9</v>
+      </c>
+      <c r="E151" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F151" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G151" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H151" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>169</v>
+      </c>
+      <c r="B152" t="s">
+        <v>0</v>
+      </c>
+      <c r="C152" t="s">
+        <v>10</v>
+      </c>
+      <c r="D152" t="n">
+        <v>1.6479412E9</v>
+      </c>
+      <c r="E152" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F152" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G152" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H152" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>170</v>
+      </c>
+      <c r="B153" t="s">
+        <v>0</v>
+      </c>
+      <c r="C153" t="s">
+        <v>10</v>
+      </c>
+      <c r="D153" t="n">
+        <v>1.647941381E9</v>
+      </c>
+      <c r="E153" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F153" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G153" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H153" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>171</v>
+      </c>
+      <c r="B154" t="s">
+        <v>0</v>
+      </c>
+      <c r="C154" t="s">
+        <v>10</v>
+      </c>
+      <c r="D154" t="n">
+        <v>1.647942224E9</v>
+      </c>
+      <c r="E154" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F154" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G154" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H154" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>172</v>
+      </c>
+      <c r="B155" t="s">
+        <v>0</v>
+      </c>
+      <c r="C155" t="s">
+        <v>10</v>
+      </c>
+      <c r="D155" t="n">
+        <v>1.647943307E9</v>
+      </c>
+      <c r="E155" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F155" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G155" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H155" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>173</v>
+      </c>
+      <c r="B156" t="s">
+        <v>0</v>
+      </c>
+      <c r="C156" t="s">
+        <v>10</v>
+      </c>
+      <c r="D156" t="n">
+        <v>1.647943609E9</v>
+      </c>
+      <c r="E156" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F156" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G156" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H156" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>174</v>
+      </c>
+      <c r="B157" t="s">
+        <v>0</v>
+      </c>
+      <c r="C157" t="s">
+        <v>10</v>
+      </c>
+      <c r="D157" t="n">
+        <v>1.64794427E9</v>
+      </c>
+      <c r="E157" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F157" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G157" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H157" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>175</v>
+      </c>
+      <c r="B158" t="s">
+        <v>0</v>
+      </c>
+      <c r="C158" t="s">
+        <v>10</v>
+      </c>
+      <c r="D158" t="n">
+        <v>1.647944631E9</v>
+      </c>
+      <c r="E158" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F158" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G158" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H158" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>176</v>
+      </c>
+      <c r="B159" t="s">
+        <v>0</v>
+      </c>
+      <c r="C159" t="s">
+        <v>10</v>
+      </c>
+      <c r="D159" t="n">
+        <v>1.647946495E9</v>
+      </c>
+      <c r="E159" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F159" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G159" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H159" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>177</v>
+      </c>
+      <c r="B160" t="s">
+        <v>0</v>
+      </c>
+      <c r="C160" t="s">
+        <v>10</v>
+      </c>
+      <c r="D160" t="n">
+        <v>1.647946795E9</v>
+      </c>
+      <c r="E160" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F160" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G160" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H160" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>178</v>
+      </c>
+      <c r="B161" t="s">
+        <v>0</v>
+      </c>
+      <c r="C161" t="s">
+        <v>10</v>
+      </c>
+      <c r="D161" t="n">
+        <v>1.64794926E9</v>
+      </c>
+      <c r="E161" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F161" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G161" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H161" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>179</v>
+      </c>
+      <c r="B162" t="s">
+        <v>0</v>
+      </c>
+      <c r="C162" t="s">
+        <v>10</v>
+      </c>
+      <c r="D162" t="n">
+        <v>1.64794944E9</v>
+      </c>
+      <c r="E162" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F162" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G162" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H162" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4590,7 +5144,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L143"/>
+  <dimension ref="A1:L162"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -10036,6 +10590,728 @@
         <v>0</v>
       </c>
     </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>160</v>
+      </c>
+      <c r="B144" t="s">
+        <v>0</v>
+      </c>
+      <c r="C144" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="D144" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E144" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G144" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H144" t="s">
+        <v>0</v>
+      </c>
+      <c r="I144" t="s">
+        <v>161</v>
+      </c>
+      <c r="J144" t="s">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L144" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>162</v>
+      </c>
+      <c r="B145" t="s">
+        <v>0</v>
+      </c>
+      <c r="C145" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="D145" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E145" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G145" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H145" t="s">
+        <v>0</v>
+      </c>
+      <c r="I145" t="s">
+        <v>161</v>
+      </c>
+      <c r="J145" t="s">
+        <v>0</v>
+      </c>
+      <c r="K145" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L145" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>163</v>
+      </c>
+      <c r="B146" t="s">
+        <v>0</v>
+      </c>
+      <c r="C146" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="D146" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E146" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G146" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H146" t="s">
+        <v>0</v>
+      </c>
+      <c r="I146" t="s">
+        <v>161</v>
+      </c>
+      <c r="J146" t="s">
+        <v>0</v>
+      </c>
+      <c r="K146" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L146" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>164</v>
+      </c>
+      <c r="B147" t="s">
+        <v>0</v>
+      </c>
+      <c r="C147" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="D147" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E147" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F147" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G147" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H147" t="s">
+        <v>0</v>
+      </c>
+      <c r="I147" t="s">
+        <v>161</v>
+      </c>
+      <c r="J147" t="s">
+        <v>0</v>
+      </c>
+      <c r="K147" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L147" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>165</v>
+      </c>
+      <c r="B148" t="s">
+        <v>0</v>
+      </c>
+      <c r="C148" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="D148" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E148" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G148" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H148" t="s">
+        <v>0</v>
+      </c>
+      <c r="I148" t="s">
+        <v>161</v>
+      </c>
+      <c r="J148" t="s">
+        <v>0</v>
+      </c>
+      <c r="K148" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L148" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>166</v>
+      </c>
+      <c r="B149" t="s">
+        <v>0</v>
+      </c>
+      <c r="C149" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="D149" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G149" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H149" t="s">
+        <v>0</v>
+      </c>
+      <c r="I149" t="s">
+        <v>161</v>
+      </c>
+      <c r="J149" t="s">
+        <v>0</v>
+      </c>
+      <c r="K149" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L149" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>167</v>
+      </c>
+      <c r="B150" t="s">
+        <v>0</v>
+      </c>
+      <c r="C150" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="D150" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G150" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H150" t="s">
+        <v>0</v>
+      </c>
+      <c r="I150" t="s">
+        <v>161</v>
+      </c>
+      <c r="J150" t="s">
+        <v>0</v>
+      </c>
+      <c r="K150" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L150" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>168</v>
+      </c>
+      <c r="B151" t="s">
+        <v>0</v>
+      </c>
+      <c r="C151" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="D151" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E151" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G151" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H151" t="s">
+        <v>0</v>
+      </c>
+      <c r="I151" t="s">
+        <v>161</v>
+      </c>
+      <c r="J151" t="s">
+        <v>0</v>
+      </c>
+      <c r="K151" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L151" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>169</v>
+      </c>
+      <c r="B152" t="s">
+        <v>0</v>
+      </c>
+      <c r="C152" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="D152" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G152" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H152" t="s">
+        <v>0</v>
+      </c>
+      <c r="I152" t="s">
+        <v>161</v>
+      </c>
+      <c r="J152" t="s">
+        <v>0</v>
+      </c>
+      <c r="K152" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L152" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>170</v>
+      </c>
+      <c r="B153" t="s">
+        <v>0</v>
+      </c>
+      <c r="C153" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="D153" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G153" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H153" t="s">
+        <v>0</v>
+      </c>
+      <c r="I153" t="s">
+        <v>161</v>
+      </c>
+      <c r="J153" t="s">
+        <v>0</v>
+      </c>
+      <c r="K153" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L153" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>171</v>
+      </c>
+      <c r="B154" t="s">
+        <v>0</v>
+      </c>
+      <c r="C154" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="D154" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E154" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F154" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G154" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H154" t="s">
+        <v>0</v>
+      </c>
+      <c r="I154" t="s">
+        <v>161</v>
+      </c>
+      <c r="J154" t="s">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L154" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>172</v>
+      </c>
+      <c r="B155" t="s">
+        <v>0</v>
+      </c>
+      <c r="C155" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="D155" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E155" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G155" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H155" t="s">
+        <v>0</v>
+      </c>
+      <c r="I155" t="s">
+        <v>161</v>
+      </c>
+      <c r="J155" t="s">
+        <v>0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L155" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>173</v>
+      </c>
+      <c r="B156" t="s">
+        <v>0</v>
+      </c>
+      <c r="C156" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="D156" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E156" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G156" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H156" t="s">
+        <v>0</v>
+      </c>
+      <c r="I156" t="s">
+        <v>161</v>
+      </c>
+      <c r="J156" t="s">
+        <v>0</v>
+      </c>
+      <c r="K156" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L156" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>174</v>
+      </c>
+      <c r="B157" t="s">
+        <v>0</v>
+      </c>
+      <c r="C157" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="D157" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E157" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G157" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H157" t="s">
+        <v>0</v>
+      </c>
+      <c r="I157" t="s">
+        <v>161</v>
+      </c>
+      <c r="J157" t="s">
+        <v>0</v>
+      </c>
+      <c r="K157" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L157" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>175</v>
+      </c>
+      <c r="B158" t="s">
+        <v>0</v>
+      </c>
+      <c r="C158" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="D158" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E158" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F158" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G158" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H158" t="s">
+        <v>0</v>
+      </c>
+      <c r="I158" t="s">
+        <v>161</v>
+      </c>
+      <c r="J158" t="s">
+        <v>0</v>
+      </c>
+      <c r="K158" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L158" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>176</v>
+      </c>
+      <c r="B159" t="s">
+        <v>0</v>
+      </c>
+      <c r="C159" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="D159" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E159" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G159" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H159" t="s">
+        <v>0</v>
+      </c>
+      <c r="I159" t="s">
+        <v>161</v>
+      </c>
+      <c r="J159" t="s">
+        <v>0</v>
+      </c>
+      <c r="K159" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L159" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>177</v>
+      </c>
+      <c r="B160" t="s">
+        <v>0</v>
+      </c>
+      <c r="C160" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="D160" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G160" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H160" t="s">
+        <v>0</v>
+      </c>
+      <c r="I160" t="s">
+        <v>161</v>
+      </c>
+      <c r="J160" t="s">
+        <v>0</v>
+      </c>
+      <c r="K160" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L160" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>178</v>
+      </c>
+      <c r="B161" t="s">
+        <v>0</v>
+      </c>
+      <c r="C161" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="D161" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E161" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G161" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H161" t="s">
+        <v>0</v>
+      </c>
+      <c r="I161" t="s">
+        <v>161</v>
+      </c>
+      <c r="J161" t="s">
+        <v>0</v>
+      </c>
+      <c r="K161" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L161" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>179</v>
+      </c>
+      <c r="B162" t="s">
+        <v>0</v>
+      </c>
+      <c r="C162" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="D162" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E162" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G162" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H162" t="s">
+        <v>0</v>
+      </c>
+      <c r="I162" t="s">
+        <v>161</v>
+      </c>
+      <c r="J162" t="s">
+        <v>0</v>
+      </c>
+      <c r="K162" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L162" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10043,7 +11319,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H427"/>
+  <dimension ref="A1:H484"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -21156,6 +22432,1488 @@
         <v>8193.0</v>
       </c>
     </row>
+    <row r="428">
+      <c r="A428" t="s">
+        <v>160</v>
+      </c>
+      <c r="B428" t="s">
+        <v>0</v>
+      </c>
+      <c r="C428" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D428" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E428" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F428" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G428" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H428" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="s">
+        <v>160</v>
+      </c>
+      <c r="B429" t="s">
+        <v>0</v>
+      </c>
+      <c r="C429" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D429" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E429" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F429" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G429" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H429" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="s">
+        <v>160</v>
+      </c>
+      <c r="B430" t="s">
+        <v>0</v>
+      </c>
+      <c r="C430" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D430" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E430" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F430" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G430" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H430" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="s">
+        <v>162</v>
+      </c>
+      <c r="B431" t="s">
+        <v>0</v>
+      </c>
+      <c r="C431" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D431" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E431" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F431" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G431" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H431" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="s">
+        <v>162</v>
+      </c>
+      <c r="B432" t="s">
+        <v>0</v>
+      </c>
+      <c r="C432" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D432" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E432" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F432" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G432" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H432" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="s">
+        <v>162</v>
+      </c>
+      <c r="B433" t="s">
+        <v>0</v>
+      </c>
+      <c r="C433" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D433" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E433" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F433" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G433" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H433" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="s">
+        <v>163</v>
+      </c>
+      <c r="B434" t="s">
+        <v>0</v>
+      </c>
+      <c r="C434" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D434" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E434" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F434" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G434" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H434" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="s">
+        <v>163</v>
+      </c>
+      <c r="B435" t="s">
+        <v>0</v>
+      </c>
+      <c r="C435" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D435" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E435" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F435" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G435" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H435" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="s">
+        <v>163</v>
+      </c>
+      <c r="B436" t="s">
+        <v>0</v>
+      </c>
+      <c r="C436" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D436" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E436" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F436" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G436" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H436" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="s">
+        <v>164</v>
+      </c>
+      <c r="B437" t="s">
+        <v>0</v>
+      </c>
+      <c r="C437" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D437" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E437" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F437" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G437" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H437" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="s">
+        <v>164</v>
+      </c>
+      <c r="B438" t="s">
+        <v>0</v>
+      </c>
+      <c r="C438" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D438" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E438" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F438" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G438" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H438" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="s">
+        <v>164</v>
+      </c>
+      <c r="B439" t="s">
+        <v>0</v>
+      </c>
+      <c r="C439" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D439" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E439" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F439" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G439" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H439" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="s">
+        <v>165</v>
+      </c>
+      <c r="B440" t="s">
+        <v>0</v>
+      </c>
+      <c r="C440" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D440" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E440" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F440" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G440" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H440" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="s">
+        <v>165</v>
+      </c>
+      <c r="B441" t="s">
+        <v>0</v>
+      </c>
+      <c r="C441" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D441" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E441" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F441" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G441" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H441" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="s">
+        <v>165</v>
+      </c>
+      <c r="B442" t="s">
+        <v>0</v>
+      </c>
+      <c r="C442" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D442" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E442" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F442" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G442" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H442" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="s">
+        <v>166</v>
+      </c>
+      <c r="B443" t="s">
+        <v>0</v>
+      </c>
+      <c r="C443" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D443" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E443" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F443" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G443" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H443" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="s">
+        <v>166</v>
+      </c>
+      <c r="B444" t="s">
+        <v>0</v>
+      </c>
+      <c r="C444" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D444" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E444" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F444" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G444" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H444" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="s">
+        <v>166</v>
+      </c>
+      <c r="B445" t="s">
+        <v>0</v>
+      </c>
+      <c r="C445" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D445" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E445" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F445" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G445" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H445" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="s">
+        <v>167</v>
+      </c>
+      <c r="B446" t="s">
+        <v>0</v>
+      </c>
+      <c r="C446" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D446" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E446" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F446" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G446" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H446" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="s">
+        <v>167</v>
+      </c>
+      <c r="B447" t="s">
+        <v>0</v>
+      </c>
+      <c r="C447" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D447" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E447" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F447" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G447" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H447" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="s">
+        <v>167</v>
+      </c>
+      <c r="B448" t="s">
+        <v>0</v>
+      </c>
+      <c r="C448" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D448" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E448" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F448" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G448" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H448" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="s">
+        <v>168</v>
+      </c>
+      <c r="B449" t="s">
+        <v>0</v>
+      </c>
+      <c r="C449" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D449" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E449" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F449" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G449" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H449" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="s">
+        <v>168</v>
+      </c>
+      <c r="B450" t="s">
+        <v>0</v>
+      </c>
+      <c r="C450" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D450" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E450" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F450" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G450" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H450" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="s">
+        <v>168</v>
+      </c>
+      <c r="B451" t="s">
+        <v>0</v>
+      </c>
+      <c r="C451" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D451" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E451" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F451" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G451" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H451" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="s">
+        <v>169</v>
+      </c>
+      <c r="B452" t="s">
+        <v>0</v>
+      </c>
+      <c r="C452" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D452" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E452" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F452" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G452" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H452" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="s">
+        <v>169</v>
+      </c>
+      <c r="B453" t="s">
+        <v>0</v>
+      </c>
+      <c r="C453" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D453" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E453" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F453" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G453" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H453" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="s">
+        <v>169</v>
+      </c>
+      <c r="B454" t="s">
+        <v>0</v>
+      </c>
+      <c r="C454" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D454" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E454" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F454" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G454" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H454" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="s">
+        <v>170</v>
+      </c>
+      <c r="B455" t="s">
+        <v>0</v>
+      </c>
+      <c r="C455" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D455" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E455" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F455" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G455" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H455" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="s">
+        <v>170</v>
+      </c>
+      <c r="B456" t="s">
+        <v>0</v>
+      </c>
+      <c r="C456" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D456" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E456" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F456" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G456" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H456" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="s">
+        <v>170</v>
+      </c>
+      <c r="B457" t="s">
+        <v>0</v>
+      </c>
+      <c r="C457" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D457" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E457" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F457" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G457" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H457" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="s">
+        <v>171</v>
+      </c>
+      <c r="B458" t="s">
+        <v>0</v>
+      </c>
+      <c r="C458" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D458" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E458" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F458" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G458" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H458" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="s">
+        <v>171</v>
+      </c>
+      <c r="B459" t="s">
+        <v>0</v>
+      </c>
+      <c r="C459" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D459" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E459" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F459" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G459" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H459" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="s">
+        <v>171</v>
+      </c>
+      <c r="B460" t="s">
+        <v>0</v>
+      </c>
+      <c r="C460" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D460" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E460" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F460" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G460" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H460" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="s">
+        <v>172</v>
+      </c>
+      <c r="B461" t="s">
+        <v>0</v>
+      </c>
+      <c r="C461" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D461" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E461" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F461" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G461" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H461" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="s">
+        <v>172</v>
+      </c>
+      <c r="B462" t="s">
+        <v>0</v>
+      </c>
+      <c r="C462" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D462" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E462" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F462" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G462" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H462" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="s">
+        <v>172</v>
+      </c>
+      <c r="B463" t="s">
+        <v>0</v>
+      </c>
+      <c r="C463" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D463" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E463" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F463" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G463" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H463" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="s">
+        <v>173</v>
+      </c>
+      <c r="B464" t="s">
+        <v>0</v>
+      </c>
+      <c r="C464" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D464" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E464" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F464" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G464" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H464" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="s">
+        <v>173</v>
+      </c>
+      <c r="B465" t="s">
+        <v>0</v>
+      </c>
+      <c r="C465" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D465" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E465" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F465" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G465" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H465" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="s">
+        <v>173</v>
+      </c>
+      <c r="B466" t="s">
+        <v>0</v>
+      </c>
+      <c r="C466" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D466" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E466" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F466" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G466" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H466" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="s">
+        <v>174</v>
+      </c>
+      <c r="B467" t="s">
+        <v>0</v>
+      </c>
+      <c r="C467" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D467" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E467" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F467" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G467" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H467" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="s">
+        <v>174</v>
+      </c>
+      <c r="B468" t="s">
+        <v>0</v>
+      </c>
+      <c r="C468" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D468" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E468" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F468" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G468" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H468" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="s">
+        <v>174</v>
+      </c>
+      <c r="B469" t="s">
+        <v>0</v>
+      </c>
+      <c r="C469" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D469" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E469" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F469" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G469" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H469" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="s">
+        <v>175</v>
+      </c>
+      <c r="B470" t="s">
+        <v>0</v>
+      </c>
+      <c r="C470" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D470" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E470" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F470" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G470" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H470" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="s">
+        <v>175</v>
+      </c>
+      <c r="B471" t="s">
+        <v>0</v>
+      </c>
+      <c r="C471" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D471" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E471" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F471" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G471" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H471" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="s">
+        <v>175</v>
+      </c>
+      <c r="B472" t="s">
+        <v>0</v>
+      </c>
+      <c r="C472" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D472" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E472" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F472" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G472" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H472" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="s">
+        <v>176</v>
+      </c>
+      <c r="B473" t="s">
+        <v>0</v>
+      </c>
+      <c r="C473" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D473" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E473" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F473" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G473" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H473" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="s">
+        <v>176</v>
+      </c>
+      <c r="B474" t="s">
+        <v>0</v>
+      </c>
+      <c r="C474" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D474" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E474" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F474" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G474" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H474" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="s">
+        <v>176</v>
+      </c>
+      <c r="B475" t="s">
+        <v>0</v>
+      </c>
+      <c r="C475" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D475" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E475" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F475" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G475" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H475" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="s">
+        <v>177</v>
+      </c>
+      <c r="B476" t="s">
+        <v>0</v>
+      </c>
+      <c r="C476" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D476" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E476" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F476" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G476" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H476" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="s">
+        <v>177</v>
+      </c>
+      <c r="B477" t="s">
+        <v>0</v>
+      </c>
+      <c r="C477" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D477" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E477" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F477" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G477" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H477" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="s">
+        <v>177</v>
+      </c>
+      <c r="B478" t="s">
+        <v>0</v>
+      </c>
+      <c r="C478" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D478" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E478" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F478" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G478" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H478" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="s">
+        <v>178</v>
+      </c>
+      <c r="B479" t="s">
+        <v>0</v>
+      </c>
+      <c r="C479" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D479" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E479" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F479" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G479" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H479" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="s">
+        <v>178</v>
+      </c>
+      <c r="B480" t="s">
+        <v>0</v>
+      </c>
+      <c r="C480" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D480" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E480" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F480" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G480" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H480" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="s">
+        <v>178</v>
+      </c>
+      <c r="B481" t="s">
+        <v>0</v>
+      </c>
+      <c r="C481" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D481" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E481" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F481" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G481" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H481" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="s">
+        <v>179</v>
+      </c>
+      <c r="B482" t="s">
+        <v>0</v>
+      </c>
+      <c r="C482" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D482" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E482" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F482" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G482" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H482" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="s">
+        <v>179</v>
+      </c>
+      <c r="B483" t="s">
+        <v>0</v>
+      </c>
+      <c r="C483" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D483" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E483" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F483" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G483" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H483" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="s">
+        <v>179</v>
+      </c>
+      <c r="B484" t="s">
+        <v>0</v>
+      </c>
+      <c r="C484" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D484" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E484" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F484" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G484" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H484" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/sheet/msg_8705.xlsx
+++ b/data/sheet/msg_8705.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4843" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4903" uniqueCount="182">
   <si>
     <t/>
   </si>
@@ -563,6 +563,12 @@
   <si>
     <t>2022-03-22 12:43:58</t>
   </si>
+  <si>
+    <t>2022-03-22 13:10:01</t>
+  </si>
+  <si>
+    <t>2022-03-22 20:21:31</t>
+  </si>
 </sst>
 </file>
 
@@ -914,7 +920,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H162"/>
+  <dimension ref="A1:H164"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5137,6 +5143,58 @@
         <v>255.0</v>
       </c>
     </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>180</v>
+      </c>
+      <c r="B163" t="s">
+        <v>0</v>
+      </c>
+      <c r="C163" t="s">
+        <v>10</v>
+      </c>
+      <c r="D163" t="n">
+        <v>1.647951003E9</v>
+      </c>
+      <c r="E163" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F163" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G163" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H163" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>181</v>
+      </c>
+      <c r="B164" t="s">
+        <v>0</v>
+      </c>
+      <c r="C164" t="s">
+        <v>10</v>
+      </c>
+      <c r="D164" t="n">
+        <v>1.647976895E9</v>
+      </c>
+      <c r="E164" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F164" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G164" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H164" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5144,7 +5202,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L162"/>
+  <dimension ref="A1:L164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -11312,6 +11370,82 @@
         <v>0</v>
       </c>
     </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>180</v>
+      </c>
+      <c r="B163" t="s">
+        <v>0</v>
+      </c>
+      <c r="C163" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="D163" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G163" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H163" t="s">
+        <v>0</v>
+      </c>
+      <c r="I163" t="s">
+        <v>161</v>
+      </c>
+      <c r="J163" t="s">
+        <v>0</v>
+      </c>
+      <c r="K163" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L163" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>181</v>
+      </c>
+      <c r="B164" t="s">
+        <v>0</v>
+      </c>
+      <c r="C164" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="D164" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E164" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G164" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H164" t="s">
+        <v>0</v>
+      </c>
+      <c r="I164" t="s">
+        <v>161</v>
+      </c>
+      <c r="J164" t="s">
+        <v>0</v>
+      </c>
+      <c r="K164" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L164" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11319,7 +11453,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H484"/>
+  <dimension ref="A1:H490"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -23914,6 +24048,162 @@
         <v>8193.0</v>
       </c>
     </row>
+    <row r="485">
+      <c r="A485" t="s">
+        <v>180</v>
+      </c>
+      <c r="B485" t="s">
+        <v>0</v>
+      </c>
+      <c r="C485" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D485" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E485" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F485" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G485" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H485" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="s">
+        <v>180</v>
+      </c>
+      <c r="B486" t="s">
+        <v>0</v>
+      </c>
+      <c r="C486" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D486" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E486" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F486" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G486" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H486" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="s">
+        <v>180</v>
+      </c>
+      <c r="B487" t="s">
+        <v>0</v>
+      </c>
+      <c r="C487" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D487" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E487" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F487" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G487" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H487" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="s">
+        <v>181</v>
+      </c>
+      <c r="B488" t="s">
+        <v>0</v>
+      </c>
+      <c r="C488" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D488" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E488" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F488" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G488" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H488" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="s">
+        <v>181</v>
+      </c>
+      <c r="B489" t="s">
+        <v>0</v>
+      </c>
+      <c r="C489" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D489" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E489" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F489" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G489" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H489" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="s">
+        <v>181</v>
+      </c>
+      <c r="B490" t="s">
+        <v>0</v>
+      </c>
+      <c r="C490" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D490" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E490" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F490" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G490" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H490" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/sheet/msg_8705.xlsx
+++ b/data/sheet/msg_8705.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4903" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5563" uniqueCount="204">
   <si>
     <t/>
   </si>
@@ -569,6 +569,72 @@
   <si>
     <t>2022-03-22 20:21:31</t>
   </si>
+  <si>
+    <t>2022-03-25 13:47:48</t>
+  </si>
+  <si>
+    <t>2022-03-25 14:00:50</t>
+  </si>
+  <si>
+    <t>2022-03-25 14:04:52</t>
+  </si>
+  <si>
+    <t>2022-03-25 14:13:55</t>
+  </si>
+  <si>
+    <t>2022-06-09 13:48:08</t>
+  </si>
+  <si>
+    <t>2022-06-09 16:48:29</t>
+  </si>
+  <si>
+    <t>2022-06-09 19:06:45</t>
+  </si>
+  <si>
+    <t>2022-06-09 22:55:57</t>
+  </si>
+  <si>
+    <t>2022-06-10 09:18:11</t>
+  </si>
+  <si>
+    <t>2022-06-10 13:52:02</t>
+  </si>
+  <si>
+    <t>2022-06-10 16:30:16</t>
+  </si>
+  <si>
+    <t>2022-06-10 18:50:26</t>
+  </si>
+  <si>
+    <t>2022-06-11 08:02:11</t>
+  </si>
+  <si>
+    <t>2022-06-24 12:59:38</t>
+  </si>
+  <si>
+    <t>2022-06-25 00:36:26</t>
+  </si>
+  <si>
+    <t>2022-06-25 06:32:08</t>
+  </si>
+  <si>
+    <t>2022-06-25 11:08:34</t>
+  </si>
+  <si>
+    <t>2022-06-25 12:40:03</t>
+  </si>
+  <si>
+    <t>2022-06-25 13:03:06</t>
+  </si>
+  <si>
+    <t>2022-07-01 16:36:25</t>
+  </si>
+  <si>
+    <t>2022-07-01 17:16:32</t>
+  </si>
+  <si>
+    <t>2022-07-01 17:40:35</t>
+  </si>
 </sst>
 </file>
 
@@ -920,7 +986,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H164"/>
+  <dimension ref="A1:H186"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5195,6 +5261,578 @@
         <v>255.0</v>
       </c>
     </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>182</v>
+      </c>
+      <c r="B165" t="s">
+        <v>0</v>
+      </c>
+      <c r="C165" t="s">
+        <v>10</v>
+      </c>
+      <c r="D165" t="n">
+        <v>1.64821247E9</v>
+      </c>
+      <c r="E165" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F165" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G165" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H165" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>183</v>
+      </c>
+      <c r="B166" t="s">
+        <v>0</v>
+      </c>
+      <c r="C166" t="s">
+        <v>10</v>
+      </c>
+      <c r="D166" t="n">
+        <v>1.648213252E9</v>
+      </c>
+      <c r="E166" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F166" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G166" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H166" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>184</v>
+      </c>
+      <c r="B167" t="s">
+        <v>0</v>
+      </c>
+      <c r="C167" t="s">
+        <v>10</v>
+      </c>
+      <c r="D167" t="n">
+        <v>1.648213495E9</v>
+      </c>
+      <c r="E167" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F167" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G167" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H167" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>185</v>
+      </c>
+      <c r="B168" t="s">
+        <v>0</v>
+      </c>
+      <c r="C168" t="s">
+        <v>10</v>
+      </c>
+      <c r="D168" t="n">
+        <v>1.648214037E9</v>
+      </c>
+      <c r="E168" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F168" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G168" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H168" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>186</v>
+      </c>
+      <c r="B169" t="s">
+        <v>0</v>
+      </c>
+      <c r="C169" t="s">
+        <v>10</v>
+      </c>
+      <c r="D169" t="n">
+        <v>1.654775301E9</v>
+      </c>
+      <c r="E169" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F169" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G169" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H169" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>187</v>
+      </c>
+      <c r="B170" t="s">
+        <v>0</v>
+      </c>
+      <c r="C170" t="s">
+        <v>10</v>
+      </c>
+      <c r="D170" t="n">
+        <v>1.654786123E9</v>
+      </c>
+      <c r="E170" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F170" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G170" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H170" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>188</v>
+      </c>
+      <c r="B171" t="s">
+        <v>0</v>
+      </c>
+      <c r="C171" t="s">
+        <v>10</v>
+      </c>
+      <c r="D171" t="n">
+        <v>1.654794419E9</v>
+      </c>
+      <c r="E171" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F171" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G171" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H171" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>189</v>
+      </c>
+      <c r="B172" t="s">
+        <v>0</v>
+      </c>
+      <c r="C172" t="s">
+        <v>10</v>
+      </c>
+      <c r="D172" t="n">
+        <v>1.654808173E9</v>
+      </c>
+      <c r="E172" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F172" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G172" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H172" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>190</v>
+      </c>
+      <c r="B173" t="s">
+        <v>0</v>
+      </c>
+      <c r="C173" t="s">
+        <v>10</v>
+      </c>
+      <c r="D173" t="n">
+        <v>1.654845492E9</v>
+      </c>
+      <c r="E173" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F173" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G173" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H173" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>191</v>
+      </c>
+      <c r="B174" t="s">
+        <v>0</v>
+      </c>
+      <c r="C174" t="s">
+        <v>10</v>
+      </c>
+      <c r="D174" t="n">
+        <v>1.654861924E9</v>
+      </c>
+      <c r="E174" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F174" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G174" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H174" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>192</v>
+      </c>
+      <c r="B175" t="s">
+        <v>0</v>
+      </c>
+      <c r="C175" t="s">
+        <v>10</v>
+      </c>
+      <c r="D175" t="n">
+        <v>1.654871419E9</v>
+      </c>
+      <c r="E175" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F175" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G175" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H175" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>193</v>
+      </c>
+      <c r="B176" t="s">
+        <v>0</v>
+      </c>
+      <c r="C176" t="s">
+        <v>10</v>
+      </c>
+      <c r="D176" t="n">
+        <v>1.654879829E9</v>
+      </c>
+      <c r="E176" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F176" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G176" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H176" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>194</v>
+      </c>
+      <c r="B177" t="s">
+        <v>0</v>
+      </c>
+      <c r="C177" t="s">
+        <v>10</v>
+      </c>
+      <c r="D177" t="n">
+        <v>1.654927337E9</v>
+      </c>
+      <c r="E177" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F177" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G177" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H177" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>195</v>
+      </c>
+      <c r="B178" t="s">
+        <v>0</v>
+      </c>
+      <c r="C178" t="s">
+        <v>10</v>
+      </c>
+      <c r="D178" t="n">
+        <v>1.656068379E9</v>
+      </c>
+      <c r="E178" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F178" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G178" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H178" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>196</v>
+      </c>
+      <c r="B179" t="s">
+        <v>0</v>
+      </c>
+      <c r="C179" t="s">
+        <v>10</v>
+      </c>
+      <c r="D179" t="n">
+        <v>1.65611019E9</v>
+      </c>
+      <c r="E179" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F179" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G179" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H179" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>197</v>
+      </c>
+      <c r="B180" t="s">
+        <v>0</v>
+      </c>
+      <c r="C180" t="s">
+        <v>10</v>
+      </c>
+      <c r="D180" t="n">
+        <v>1.656131526E9</v>
+      </c>
+      <c r="E180" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F180" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G180" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H180" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>198</v>
+      </c>
+      <c r="B181" t="s">
+        <v>0</v>
+      </c>
+      <c r="C181" t="s">
+        <v>10</v>
+      </c>
+      <c r="D181" t="n">
+        <v>1.656148113E9</v>
+      </c>
+      <c r="E181" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F181" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G181" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H181" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>199</v>
+      </c>
+      <c r="B182" t="s">
+        <v>0</v>
+      </c>
+      <c r="C182" t="s">
+        <v>10</v>
+      </c>
+      <c r="D182" t="n">
+        <v>1.656153603E9</v>
+      </c>
+      <c r="E182" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F182" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G182" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H182" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>200</v>
+      </c>
+      <c r="B183" t="s">
+        <v>0</v>
+      </c>
+      <c r="C183" t="s">
+        <v>10</v>
+      </c>
+      <c r="D183" t="n">
+        <v>1.656154987E9</v>
+      </c>
+      <c r="E183" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F183" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G183" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H183" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>201</v>
+      </c>
+      <c r="B184" t="s">
+        <v>0</v>
+      </c>
+      <c r="C184" t="s">
+        <v>10</v>
+      </c>
+      <c r="D184" t="n">
+        <v>1.656686193E9</v>
+      </c>
+      <c r="E184" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F184" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G184" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H184" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>202</v>
+      </c>
+      <c r="B185" t="s">
+        <v>0</v>
+      </c>
+      <c r="C185" t="s">
+        <v>10</v>
+      </c>
+      <c r="D185" t="n">
+        <v>1.656688601E9</v>
+      </c>
+      <c r="E185" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F185" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G185" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H185" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>203</v>
+      </c>
+      <c r="B186" t="s">
+        <v>0</v>
+      </c>
+      <c r="C186" t="s">
+        <v>10</v>
+      </c>
+      <c r="D186" t="n">
+        <v>1.656690043E9</v>
+      </c>
+      <c r="E186" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F186" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G186" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H186" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5202,7 +5840,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L164"/>
+  <dimension ref="A1:L186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -11446,6 +12084,842 @@
         <v>0</v>
       </c>
     </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>182</v>
+      </c>
+      <c r="B165" t="s">
+        <v>0</v>
+      </c>
+      <c r="C165" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="D165" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E165" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F165" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G165" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H165" t="s">
+        <v>0</v>
+      </c>
+      <c r="I165" t="s">
+        <v>161</v>
+      </c>
+      <c r="J165" t="s">
+        <v>0</v>
+      </c>
+      <c r="K165" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L165" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>183</v>
+      </c>
+      <c r="B166" t="s">
+        <v>0</v>
+      </c>
+      <c r="C166" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="D166" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E166" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G166" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H166" t="s">
+        <v>0</v>
+      </c>
+      <c r="I166" t="s">
+        <v>161</v>
+      </c>
+      <c r="J166" t="s">
+        <v>0</v>
+      </c>
+      <c r="K166" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L166" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>184</v>
+      </c>
+      <c r="B167" t="s">
+        <v>0</v>
+      </c>
+      <c r="C167" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="D167" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E167" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F167" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G167" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H167" t="s">
+        <v>0</v>
+      </c>
+      <c r="I167" t="s">
+        <v>161</v>
+      </c>
+      <c r="J167" t="s">
+        <v>0</v>
+      </c>
+      <c r="K167" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L167" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>185</v>
+      </c>
+      <c r="B168" t="s">
+        <v>0</v>
+      </c>
+      <c r="C168" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="D168" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G168" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H168" t="s">
+        <v>0</v>
+      </c>
+      <c r="I168" t="s">
+        <v>161</v>
+      </c>
+      <c r="J168" t="s">
+        <v>0</v>
+      </c>
+      <c r="K168" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L168" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>186</v>
+      </c>
+      <c r="B169" t="s">
+        <v>0</v>
+      </c>
+      <c r="C169" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="D169" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G169" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H169" t="s">
+        <v>0</v>
+      </c>
+      <c r="I169" t="s">
+        <v>161</v>
+      </c>
+      <c r="J169" t="s">
+        <v>0</v>
+      </c>
+      <c r="K169" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L169" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>187</v>
+      </c>
+      <c r="B170" t="s">
+        <v>0</v>
+      </c>
+      <c r="C170" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="D170" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E170" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F170" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G170" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H170" t="s">
+        <v>0</v>
+      </c>
+      <c r="I170" t="s">
+        <v>161</v>
+      </c>
+      <c r="J170" t="s">
+        <v>0</v>
+      </c>
+      <c r="K170" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L170" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>188</v>
+      </c>
+      <c r="B171" t="s">
+        <v>0</v>
+      </c>
+      <c r="C171" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="D171" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G171" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H171" t="s">
+        <v>0</v>
+      </c>
+      <c r="I171" t="s">
+        <v>161</v>
+      </c>
+      <c r="J171" t="s">
+        <v>0</v>
+      </c>
+      <c r="K171" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L171" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>189</v>
+      </c>
+      <c r="B172" t="s">
+        <v>0</v>
+      </c>
+      <c r="C172" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="D172" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E172" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F172" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G172" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H172" t="s">
+        <v>0</v>
+      </c>
+      <c r="I172" t="s">
+        <v>161</v>
+      </c>
+      <c r="J172" t="s">
+        <v>0</v>
+      </c>
+      <c r="K172" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L172" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>190</v>
+      </c>
+      <c r="B173" t="s">
+        <v>0</v>
+      </c>
+      <c r="C173" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="D173" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E173" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F173" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G173" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H173" t="s">
+        <v>0</v>
+      </c>
+      <c r="I173" t="s">
+        <v>161</v>
+      </c>
+      <c r="J173" t="s">
+        <v>0</v>
+      </c>
+      <c r="K173" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L173" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>191</v>
+      </c>
+      <c r="B174" t="s">
+        <v>0</v>
+      </c>
+      <c r="C174" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="D174" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E174" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F174" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G174" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H174" t="s">
+        <v>0</v>
+      </c>
+      <c r="I174" t="s">
+        <v>161</v>
+      </c>
+      <c r="J174" t="s">
+        <v>0</v>
+      </c>
+      <c r="K174" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L174" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>192</v>
+      </c>
+      <c r="B175" t="s">
+        <v>0</v>
+      </c>
+      <c r="C175" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="D175" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E175" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F175" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G175" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H175" t="s">
+        <v>0</v>
+      </c>
+      <c r="I175" t="s">
+        <v>161</v>
+      </c>
+      <c r="J175" t="s">
+        <v>0</v>
+      </c>
+      <c r="K175" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L175" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>193</v>
+      </c>
+      <c r="B176" t="s">
+        <v>0</v>
+      </c>
+      <c r="C176" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="D176" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E176" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F176" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G176" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H176" t="s">
+        <v>0</v>
+      </c>
+      <c r="I176" t="s">
+        <v>161</v>
+      </c>
+      <c r="J176" t="s">
+        <v>0</v>
+      </c>
+      <c r="K176" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L176" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>194</v>
+      </c>
+      <c r="B177" t="s">
+        <v>0</v>
+      </c>
+      <c r="C177" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="D177" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G177" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H177" t="s">
+        <v>0</v>
+      </c>
+      <c r="I177" t="s">
+        <v>161</v>
+      </c>
+      <c r="J177" t="s">
+        <v>0</v>
+      </c>
+      <c r="K177" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L177" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>195</v>
+      </c>
+      <c r="B178" t="s">
+        <v>0</v>
+      </c>
+      <c r="C178" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="D178" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E178" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F178" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G178" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H178" t="s">
+        <v>0</v>
+      </c>
+      <c r="I178" t="s">
+        <v>161</v>
+      </c>
+      <c r="J178" t="s">
+        <v>0</v>
+      </c>
+      <c r="K178" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L178" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>196</v>
+      </c>
+      <c r="B179" t="s">
+        <v>0</v>
+      </c>
+      <c r="C179" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="D179" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E179" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F179" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G179" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H179" t="s">
+        <v>0</v>
+      </c>
+      <c r="I179" t="s">
+        <v>161</v>
+      </c>
+      <c r="J179" t="s">
+        <v>0</v>
+      </c>
+      <c r="K179" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L179" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>197</v>
+      </c>
+      <c r="B180" t="s">
+        <v>0</v>
+      </c>
+      <c r="C180" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="D180" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G180" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H180" t="s">
+        <v>0</v>
+      </c>
+      <c r="I180" t="s">
+        <v>161</v>
+      </c>
+      <c r="J180" t="s">
+        <v>0</v>
+      </c>
+      <c r="K180" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L180" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>198</v>
+      </c>
+      <c r="B181" t="s">
+        <v>0</v>
+      </c>
+      <c r="C181" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="D181" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E181" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G181" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H181" t="s">
+        <v>0</v>
+      </c>
+      <c r="I181" t="s">
+        <v>161</v>
+      </c>
+      <c r="J181" t="s">
+        <v>0</v>
+      </c>
+      <c r="K181" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L181" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>199</v>
+      </c>
+      <c r="B182" t="s">
+        <v>0</v>
+      </c>
+      <c r="C182" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="D182" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G182" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H182" t="s">
+        <v>0</v>
+      </c>
+      <c r="I182" t="s">
+        <v>161</v>
+      </c>
+      <c r="J182" t="s">
+        <v>0</v>
+      </c>
+      <c r="K182" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L182" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>200</v>
+      </c>
+      <c r="B183" t="s">
+        <v>0</v>
+      </c>
+      <c r="C183" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="D183" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G183" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H183" t="s">
+        <v>0</v>
+      </c>
+      <c r="I183" t="s">
+        <v>161</v>
+      </c>
+      <c r="J183" t="s">
+        <v>0</v>
+      </c>
+      <c r="K183" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L183" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>201</v>
+      </c>
+      <c r="B184" t="s">
+        <v>0</v>
+      </c>
+      <c r="C184" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="D184" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E184" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F184" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G184" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H184" t="s">
+        <v>0</v>
+      </c>
+      <c r="I184" t="s">
+        <v>161</v>
+      </c>
+      <c r="J184" t="s">
+        <v>0</v>
+      </c>
+      <c r="K184" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L184" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>202</v>
+      </c>
+      <c r="B185" t="s">
+        <v>0</v>
+      </c>
+      <c r="C185" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="D185" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E185" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G185" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H185" t="s">
+        <v>0</v>
+      </c>
+      <c r="I185" t="s">
+        <v>161</v>
+      </c>
+      <c r="J185" t="s">
+        <v>0</v>
+      </c>
+      <c r="K185" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L185" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>203</v>
+      </c>
+      <c r="B186" t="s">
+        <v>0</v>
+      </c>
+      <c r="C186" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="D186" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E186" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F186" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G186" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H186" t="s">
+        <v>0</v>
+      </c>
+      <c r="I186" t="s">
+        <v>161</v>
+      </c>
+      <c r="J186" t="s">
+        <v>0</v>
+      </c>
+      <c r="K186" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L186" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11453,7 +12927,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H490"/>
+  <dimension ref="A1:H556"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -24204,6 +25678,1722 @@
         <v>8193.0</v>
       </c>
     </row>
+    <row r="491">
+      <c r="A491" t="s">
+        <v>182</v>
+      </c>
+      <c r="B491" t="s">
+        <v>0</v>
+      </c>
+      <c r="C491" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D491" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E491" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F491" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G491" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H491" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="s">
+        <v>182</v>
+      </c>
+      <c r="B492" t="s">
+        <v>0</v>
+      </c>
+      <c r="C492" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D492" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E492" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F492" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G492" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H492" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="s">
+        <v>182</v>
+      </c>
+      <c r="B493" t="s">
+        <v>0</v>
+      </c>
+      <c r="C493" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D493" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E493" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F493" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G493" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H493" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="s">
+        <v>183</v>
+      </c>
+      <c r="B494" t="s">
+        <v>0</v>
+      </c>
+      <c r="C494" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D494" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E494" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F494" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G494" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H494" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="s">
+        <v>183</v>
+      </c>
+      <c r="B495" t="s">
+        <v>0</v>
+      </c>
+      <c r="C495" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D495" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E495" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F495" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G495" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H495" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="s">
+        <v>183</v>
+      </c>
+      <c r="B496" t="s">
+        <v>0</v>
+      </c>
+      <c r="C496" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D496" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E496" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F496" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G496" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H496" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="s">
+        <v>184</v>
+      </c>
+      <c r="B497" t="s">
+        <v>0</v>
+      </c>
+      <c r="C497" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D497" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E497" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F497" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G497" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H497" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="s">
+        <v>184</v>
+      </c>
+      <c r="B498" t="s">
+        <v>0</v>
+      </c>
+      <c r="C498" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D498" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E498" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F498" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G498" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H498" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="s">
+        <v>184</v>
+      </c>
+      <c r="B499" t="s">
+        <v>0</v>
+      </c>
+      <c r="C499" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D499" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E499" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F499" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G499" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H499" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="s">
+        <v>185</v>
+      </c>
+      <c r="B500" t="s">
+        <v>0</v>
+      </c>
+      <c r="C500" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D500" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E500" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F500" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G500" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H500" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="s">
+        <v>185</v>
+      </c>
+      <c r="B501" t="s">
+        <v>0</v>
+      </c>
+      <c r="C501" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D501" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E501" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F501" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G501" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H501" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="s">
+        <v>185</v>
+      </c>
+      <c r="B502" t="s">
+        <v>0</v>
+      </c>
+      <c r="C502" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D502" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E502" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F502" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G502" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H502" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="s">
+        <v>186</v>
+      </c>
+      <c r="B503" t="s">
+        <v>0</v>
+      </c>
+      <c r="C503" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D503" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E503" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F503" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G503" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H503" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="s">
+        <v>186</v>
+      </c>
+      <c r="B504" t="s">
+        <v>0</v>
+      </c>
+      <c r="C504" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D504" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E504" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F504" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G504" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H504" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="s">
+        <v>186</v>
+      </c>
+      <c r="B505" t="s">
+        <v>0</v>
+      </c>
+      <c r="C505" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D505" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E505" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F505" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G505" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H505" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="s">
+        <v>187</v>
+      </c>
+      <c r="B506" t="s">
+        <v>0</v>
+      </c>
+      <c r="C506" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D506" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E506" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F506" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G506" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H506" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="s">
+        <v>187</v>
+      </c>
+      <c r="B507" t="s">
+        <v>0</v>
+      </c>
+      <c r="C507" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D507" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E507" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F507" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G507" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H507" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="s">
+        <v>187</v>
+      </c>
+      <c r="B508" t="s">
+        <v>0</v>
+      </c>
+      <c r="C508" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D508" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E508" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F508" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G508" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H508" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="s">
+        <v>188</v>
+      </c>
+      <c r="B509" t="s">
+        <v>0</v>
+      </c>
+      <c r="C509" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D509" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E509" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F509" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G509" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H509" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="s">
+        <v>188</v>
+      </c>
+      <c r="B510" t="s">
+        <v>0</v>
+      </c>
+      <c r="C510" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D510" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E510" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F510" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G510" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H510" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="s">
+        <v>188</v>
+      </c>
+      <c r="B511" t="s">
+        <v>0</v>
+      </c>
+      <c r="C511" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D511" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E511" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F511" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G511" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H511" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="s">
+        <v>189</v>
+      </c>
+      <c r="B512" t="s">
+        <v>0</v>
+      </c>
+      <c r="C512" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D512" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E512" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F512" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G512" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H512" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="s">
+        <v>189</v>
+      </c>
+      <c r="B513" t="s">
+        <v>0</v>
+      </c>
+      <c r="C513" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D513" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E513" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F513" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G513" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H513" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="s">
+        <v>189</v>
+      </c>
+      <c r="B514" t="s">
+        <v>0</v>
+      </c>
+      <c r="C514" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D514" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E514" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F514" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G514" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H514" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="s">
+        <v>190</v>
+      </c>
+      <c r="B515" t="s">
+        <v>0</v>
+      </c>
+      <c r="C515" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D515" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E515" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F515" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G515" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H515" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="s">
+        <v>190</v>
+      </c>
+      <c r="B516" t="s">
+        <v>0</v>
+      </c>
+      <c r="C516" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D516" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E516" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F516" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G516" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H516" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="s">
+        <v>190</v>
+      </c>
+      <c r="B517" t="s">
+        <v>0</v>
+      </c>
+      <c r="C517" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D517" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E517" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F517" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G517" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H517" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="s">
+        <v>191</v>
+      </c>
+      <c r="B518" t="s">
+        <v>0</v>
+      </c>
+      <c r="C518" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D518" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E518" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F518" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G518" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H518" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="s">
+        <v>191</v>
+      </c>
+      <c r="B519" t="s">
+        <v>0</v>
+      </c>
+      <c r="C519" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D519" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E519" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F519" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G519" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H519" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="s">
+        <v>191</v>
+      </c>
+      <c r="B520" t="s">
+        <v>0</v>
+      </c>
+      <c r="C520" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D520" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E520" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F520" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G520" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H520" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="s">
+        <v>192</v>
+      </c>
+      <c r="B521" t="s">
+        <v>0</v>
+      </c>
+      <c r="C521" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D521" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E521" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F521" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G521" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H521" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="s">
+        <v>192</v>
+      </c>
+      <c r="B522" t="s">
+        <v>0</v>
+      </c>
+      <c r="C522" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D522" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E522" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F522" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G522" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H522" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="s">
+        <v>192</v>
+      </c>
+      <c r="B523" t="s">
+        <v>0</v>
+      </c>
+      <c r="C523" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D523" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E523" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F523" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G523" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H523" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="s">
+        <v>193</v>
+      </c>
+      <c r="B524" t="s">
+        <v>0</v>
+      </c>
+      <c r="C524" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D524" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E524" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F524" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G524" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H524" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="s">
+        <v>193</v>
+      </c>
+      <c r="B525" t="s">
+        <v>0</v>
+      </c>
+      <c r="C525" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D525" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E525" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F525" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G525" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H525" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="s">
+        <v>193</v>
+      </c>
+      <c r="B526" t="s">
+        <v>0</v>
+      </c>
+      <c r="C526" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D526" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E526" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F526" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G526" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H526" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="s">
+        <v>194</v>
+      </c>
+      <c r="B527" t="s">
+        <v>0</v>
+      </c>
+      <c r="C527" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D527" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E527" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F527" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G527" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H527" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="s">
+        <v>194</v>
+      </c>
+      <c r="B528" t="s">
+        <v>0</v>
+      </c>
+      <c r="C528" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D528" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E528" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F528" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G528" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H528" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="s">
+        <v>194</v>
+      </c>
+      <c r="B529" t="s">
+        <v>0</v>
+      </c>
+      <c r="C529" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D529" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E529" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F529" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G529" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H529" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="s">
+        <v>195</v>
+      </c>
+      <c r="B530" t="s">
+        <v>0</v>
+      </c>
+      <c r="C530" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D530" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E530" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F530" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G530" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H530" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="s">
+        <v>195</v>
+      </c>
+      <c r="B531" t="s">
+        <v>0</v>
+      </c>
+      <c r="C531" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D531" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E531" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F531" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G531" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H531" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="s">
+        <v>195</v>
+      </c>
+      <c r="B532" t="s">
+        <v>0</v>
+      </c>
+      <c r="C532" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D532" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E532" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F532" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G532" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H532" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="s">
+        <v>196</v>
+      </c>
+      <c r="B533" t="s">
+        <v>0</v>
+      </c>
+      <c r="C533" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D533" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E533" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F533" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G533" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H533" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="s">
+        <v>196</v>
+      </c>
+      <c r="B534" t="s">
+        <v>0</v>
+      </c>
+      <c r="C534" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D534" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E534" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F534" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G534" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H534" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="s">
+        <v>196</v>
+      </c>
+      <c r="B535" t="s">
+        <v>0</v>
+      </c>
+      <c r="C535" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D535" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E535" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F535" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G535" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H535" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="s">
+        <v>197</v>
+      </c>
+      <c r="B536" t="s">
+        <v>0</v>
+      </c>
+      <c r="C536" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D536" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E536" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F536" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G536" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H536" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="s">
+        <v>197</v>
+      </c>
+      <c r="B537" t="s">
+        <v>0</v>
+      </c>
+      <c r="C537" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D537" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E537" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F537" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G537" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H537" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="s">
+        <v>197</v>
+      </c>
+      <c r="B538" t="s">
+        <v>0</v>
+      </c>
+      <c r="C538" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D538" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E538" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F538" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G538" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H538" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="s">
+        <v>198</v>
+      </c>
+      <c r="B539" t="s">
+        <v>0</v>
+      </c>
+      <c r="C539" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D539" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E539" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F539" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G539" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H539" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="s">
+        <v>198</v>
+      </c>
+      <c r="B540" t="s">
+        <v>0</v>
+      </c>
+      <c r="C540" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D540" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E540" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F540" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G540" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H540" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="s">
+        <v>198</v>
+      </c>
+      <c r="B541" t="s">
+        <v>0</v>
+      </c>
+      <c r="C541" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D541" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E541" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F541" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G541" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H541" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="s">
+        <v>199</v>
+      </c>
+      <c r="B542" t="s">
+        <v>0</v>
+      </c>
+      <c r="C542" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D542" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E542" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F542" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G542" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H542" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="s">
+        <v>199</v>
+      </c>
+      <c r="B543" t="s">
+        <v>0</v>
+      </c>
+      <c r="C543" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D543" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E543" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F543" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G543" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H543" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="s">
+        <v>199</v>
+      </c>
+      <c r="B544" t="s">
+        <v>0</v>
+      </c>
+      <c r="C544" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D544" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E544" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F544" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G544" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H544" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="s">
+        <v>200</v>
+      </c>
+      <c r="B545" t="s">
+        <v>0</v>
+      </c>
+      <c r="C545" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D545" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E545" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F545" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G545" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H545" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="s">
+        <v>200</v>
+      </c>
+      <c r="B546" t="s">
+        <v>0</v>
+      </c>
+      <c r="C546" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D546" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E546" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F546" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G546" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H546" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="s">
+        <v>200</v>
+      </c>
+      <c r="B547" t="s">
+        <v>0</v>
+      </c>
+      <c r="C547" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D547" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E547" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F547" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G547" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H547" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="s">
+        <v>201</v>
+      </c>
+      <c r="B548" t="s">
+        <v>0</v>
+      </c>
+      <c r="C548" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D548" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E548" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F548" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G548" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H548" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="s">
+        <v>201</v>
+      </c>
+      <c r="B549" t="s">
+        <v>0</v>
+      </c>
+      <c r="C549" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D549" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E549" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F549" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G549" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H549" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="s">
+        <v>201</v>
+      </c>
+      <c r="B550" t="s">
+        <v>0</v>
+      </c>
+      <c r="C550" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D550" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E550" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F550" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G550" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H550" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="s">
+        <v>202</v>
+      </c>
+      <c r="B551" t="s">
+        <v>0</v>
+      </c>
+      <c r="C551" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D551" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E551" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F551" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G551" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H551" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="s">
+        <v>202</v>
+      </c>
+      <c r="B552" t="s">
+        <v>0</v>
+      </c>
+      <c r="C552" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D552" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E552" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F552" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G552" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H552" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="s">
+        <v>202</v>
+      </c>
+      <c r="B553" t="s">
+        <v>0</v>
+      </c>
+      <c r="C553" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D553" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E553" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F553" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G553" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H553" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="s">
+        <v>203</v>
+      </c>
+      <c r="B554" t="s">
+        <v>0</v>
+      </c>
+      <c r="C554" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D554" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E554" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F554" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G554" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H554" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="s">
+        <v>203</v>
+      </c>
+      <c r="B555" t="s">
+        <v>0</v>
+      </c>
+      <c r="C555" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D555" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E555" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F555" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G555" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H555" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="s">
+        <v>203</v>
+      </c>
+      <c r="B556" t="s">
+        <v>0</v>
+      </c>
+      <c r="C556" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D556" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E556" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F556" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G556" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H556" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/sheet/msg_8705.xlsx
+++ b/data/sheet/msg_8705.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5563" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5653" uniqueCount="207">
   <si>
     <t/>
   </si>
@@ -635,6 +635,15 @@
   <si>
     <t>2022-07-01 17:40:35</t>
   </si>
+  <si>
+    <t>2022-07-02 13:57:07</t>
+  </si>
+  <si>
+    <t>2022-07-03 05:03:00</t>
+  </si>
+  <si>
+    <t>2022-07-03 08:21:19</t>
+  </si>
 </sst>
 </file>
 
@@ -986,7 +995,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H186"/>
+  <dimension ref="A1:H189"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5833,6 +5842,84 @@
         <v>255.0</v>
       </c>
     </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>204</v>
+      </c>
+      <c r="B187" t="s">
+        <v>0</v>
+      </c>
+      <c r="C187" t="s">
+        <v>10</v>
+      </c>
+      <c r="D187" t="n">
+        <v>1.656763028E9</v>
+      </c>
+      <c r="E187" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F187" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G187" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H187" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>205</v>
+      </c>
+      <c r="B188" t="s">
+        <v>0</v>
+      </c>
+      <c r="C188" t="s">
+        <v>10</v>
+      </c>
+      <c r="D188" t="n">
+        <v>1.656817385E9</v>
+      </c>
+      <c r="E188" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F188" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G188" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H188" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>206</v>
+      </c>
+      <c r="B189" t="s">
+        <v>0</v>
+      </c>
+      <c r="C189" t="s">
+        <v>10</v>
+      </c>
+      <c r="D189" t="n">
+        <v>1.656829284E9</v>
+      </c>
+      <c r="E189" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F189" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G189" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H189" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5840,7 +5927,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L186"/>
+  <dimension ref="A1:L189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -12920,6 +13007,120 @@
         <v>0</v>
       </c>
     </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>204</v>
+      </c>
+      <c r="B187" t="s">
+        <v>0</v>
+      </c>
+      <c r="C187" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="D187" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E187" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F187" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G187" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H187" t="s">
+        <v>0</v>
+      </c>
+      <c r="I187" t="s">
+        <v>161</v>
+      </c>
+      <c r="J187" t="s">
+        <v>0</v>
+      </c>
+      <c r="K187" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L187" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>205</v>
+      </c>
+      <c r="B188" t="s">
+        <v>0</v>
+      </c>
+      <c r="C188" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="D188" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E188" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F188" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G188" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H188" t="s">
+        <v>0</v>
+      </c>
+      <c r="I188" t="s">
+        <v>161</v>
+      </c>
+      <c r="J188" t="s">
+        <v>0</v>
+      </c>
+      <c r="K188" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L188" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>206</v>
+      </c>
+      <c r="B189" t="s">
+        <v>0</v>
+      </c>
+      <c r="C189" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="D189" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F189" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G189" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H189" t="s">
+        <v>0</v>
+      </c>
+      <c r="I189" t="s">
+        <v>161</v>
+      </c>
+      <c r="J189" t="s">
+        <v>0</v>
+      </c>
+      <c r="K189" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L189" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12927,7 +13128,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H556"/>
+  <dimension ref="A1:H565"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -27394,6 +27595,240 @@
         <v>8193.0</v>
       </c>
     </row>
+    <row r="557">
+      <c r="A557" t="s">
+        <v>204</v>
+      </c>
+      <c r="B557" t="s">
+        <v>0</v>
+      </c>
+      <c r="C557" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D557" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E557" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F557" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G557" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H557" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="s">
+        <v>204</v>
+      </c>
+      <c r="B558" t="s">
+        <v>0</v>
+      </c>
+      <c r="C558" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D558" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E558" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F558" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G558" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H558" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="s">
+        <v>204</v>
+      </c>
+      <c r="B559" t="s">
+        <v>0</v>
+      </c>
+      <c r="C559" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D559" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E559" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F559" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G559" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H559" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="s">
+        <v>205</v>
+      </c>
+      <c r="B560" t="s">
+        <v>0</v>
+      </c>
+      <c r="C560" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D560" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E560" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F560" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G560" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H560" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="s">
+        <v>205</v>
+      </c>
+      <c r="B561" t="s">
+        <v>0</v>
+      </c>
+      <c r="C561" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D561" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E561" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F561" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G561" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H561" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="s">
+        <v>205</v>
+      </c>
+      <c r="B562" t="s">
+        <v>0</v>
+      </c>
+      <c r="C562" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D562" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E562" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F562" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G562" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H562" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="s">
+        <v>206</v>
+      </c>
+      <c r="B563" t="s">
+        <v>0</v>
+      </c>
+      <c r="C563" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D563" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E563" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F563" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G563" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H563" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="s">
+        <v>206</v>
+      </c>
+      <c r="B564" t="s">
+        <v>0</v>
+      </c>
+      <c r="C564" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D564" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E564" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F564" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G564" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H564" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="s">
+        <v>206</v>
+      </c>
+      <c r="B565" t="s">
+        <v>0</v>
+      </c>
+      <c r="C565" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D565" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E565" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F565" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G565" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H565" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/sheet/msg_8705.xlsx
+++ b/data/sheet/msg_8705.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5653" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6373" uniqueCount="231">
   <si>
     <t/>
   </si>
@@ -644,6 +644,78 @@
   <si>
     <t>2022-07-03 08:21:19</t>
   </si>
+  <si>
+    <t>2022-07-04 21:12:26</t>
+  </si>
+  <si>
+    <t>2022-07-05 10:59:54</t>
+  </si>
+  <si>
+    <t>2022-07-05 11:06:19</t>
+  </si>
+  <si>
+    <t>2022-07-05 11:16:27</t>
+  </si>
+  <si>
+    <t>2022-07-05 11:19:29</t>
+  </si>
+  <si>
+    <t>2022-07-05 11:23:32</t>
+  </si>
+  <si>
+    <t>2022-07-05 11:24:33</t>
+  </si>
+  <si>
+    <t>2022-07-05 11:27:33</t>
+  </si>
+  <si>
+    <t>2022-07-05 12:25:13</t>
+  </si>
+  <si>
+    <t>2022-07-05 13:06:33</t>
+  </si>
+  <si>
+    <t>2022-07-05 13:08:35</t>
+  </si>
+  <si>
+    <t>2022-07-05 13:34:56</t>
+  </si>
+  <si>
+    <t>2022-07-05 13:42:01</t>
+  </si>
+  <si>
+    <t>2022-07-05 13:43:02</t>
+  </si>
+  <si>
+    <t>2022-07-05 13:48:04</t>
+  </si>
+  <si>
+    <t>2022-07-05 13:48:05</t>
+  </si>
+  <si>
+    <t>2022-07-05 14:12:24</t>
+  </si>
+  <si>
+    <t>2022-07-05 14:18:29</t>
+  </si>
+  <si>
+    <t>2022-07-05 14:21:32</t>
+  </si>
+  <si>
+    <t>2022-07-05 14:25:34</t>
+  </si>
+  <si>
+    <t>2022-07-05 14:30:36</t>
+  </si>
+  <si>
+    <t>2022-07-05 14:57:52</t>
+  </si>
+  <si>
+    <t>2022-07-05 18:12:01</t>
+  </si>
+  <si>
+    <t>2022-07-07 12:01:33</t>
+  </si>
 </sst>
 </file>
 
@@ -995,7 +1067,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H189"/>
+  <dimension ref="A1:H213"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5920,6 +5992,630 @@
         <v>255.0</v>
       </c>
     </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>207</v>
+      </c>
+      <c r="B190" t="s">
+        <v>0</v>
+      </c>
+      <c r="C190" t="s">
+        <v>10</v>
+      </c>
+      <c r="D190" t="n">
+        <v>1.656961949E9</v>
+      </c>
+      <c r="E190" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F190" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G190" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H190" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>208</v>
+      </c>
+      <c r="B191" t="s">
+        <v>0</v>
+      </c>
+      <c r="C191" t="s">
+        <v>10</v>
+      </c>
+      <c r="D191" t="n">
+        <v>1.6570116E9</v>
+      </c>
+      <c r="E191" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F191" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G191" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H191" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>209</v>
+      </c>
+      <c r="B192" t="s">
+        <v>0</v>
+      </c>
+      <c r="C192" t="s">
+        <v>10</v>
+      </c>
+      <c r="D192" t="n">
+        <v>1.657011985E9</v>
+      </c>
+      <c r="E192" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F192" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G192" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H192" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>210</v>
+      </c>
+      <c r="B193" t="s">
+        <v>0</v>
+      </c>
+      <c r="C193" t="s">
+        <v>10</v>
+      </c>
+      <c r="D193" t="n">
+        <v>1.657012593E9</v>
+      </c>
+      <c r="E193" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F193" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G193" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H193" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>211</v>
+      </c>
+      <c r="B194" t="s">
+        <v>0</v>
+      </c>
+      <c r="C194" t="s">
+        <v>10</v>
+      </c>
+      <c r="D194" t="n">
+        <v>1.657012776E9</v>
+      </c>
+      <c r="E194" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F194" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G194" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H194" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>212</v>
+      </c>
+      <c r="B195" t="s">
+        <v>0</v>
+      </c>
+      <c r="C195" t="s">
+        <v>10</v>
+      </c>
+      <c r="D195" t="n">
+        <v>1.657013018E9</v>
+      </c>
+      <c r="E195" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F195" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G195" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H195" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>213</v>
+      </c>
+      <c r="B196" t="s">
+        <v>0</v>
+      </c>
+      <c r="C196" t="s">
+        <v>10</v>
+      </c>
+      <c r="D196" t="n">
+        <v>1.65701308E9</v>
+      </c>
+      <c r="E196" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F196" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G196" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H196" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>214</v>
+      </c>
+      <c r="B197" t="s">
+        <v>0</v>
+      </c>
+      <c r="C197" t="s">
+        <v>10</v>
+      </c>
+      <c r="D197" t="n">
+        <v>1.657013259E9</v>
+      </c>
+      <c r="E197" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F197" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G197" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H197" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>215</v>
+      </c>
+      <c r="B198" t="s">
+        <v>0</v>
+      </c>
+      <c r="C198" t="s">
+        <v>10</v>
+      </c>
+      <c r="D198" t="n">
+        <v>1.657016719E9</v>
+      </c>
+      <c r="E198" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F198" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G198" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H198" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>216</v>
+      </c>
+      <c r="B199" t="s">
+        <v>0</v>
+      </c>
+      <c r="C199" t="s">
+        <v>10</v>
+      </c>
+      <c r="D199" t="n">
+        <v>1.6570192E9</v>
+      </c>
+      <c r="E199" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F199" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G199" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H199" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>217</v>
+      </c>
+      <c r="B200" t="s">
+        <v>0</v>
+      </c>
+      <c r="C200" t="s">
+        <v>10</v>
+      </c>
+      <c r="D200" t="n">
+        <v>1.657019322E9</v>
+      </c>
+      <c r="E200" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F200" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G200" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H200" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>218</v>
+      </c>
+      <c r="B201" t="s">
+        <v>0</v>
+      </c>
+      <c r="C201" t="s">
+        <v>10</v>
+      </c>
+      <c r="D201" t="n">
+        <v>1.657020903E9</v>
+      </c>
+      <c r="E201" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F201" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G201" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H201" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>219</v>
+      </c>
+      <c r="B202" t="s">
+        <v>0</v>
+      </c>
+      <c r="C202" t="s">
+        <v>10</v>
+      </c>
+      <c r="D202" t="n">
+        <v>1.657021328E9</v>
+      </c>
+      <c r="E202" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F202" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G202" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H202" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>220</v>
+      </c>
+      <c r="B203" t="s">
+        <v>0</v>
+      </c>
+      <c r="C203" t="s">
+        <v>10</v>
+      </c>
+      <c r="D203" t="n">
+        <v>1.657021389E9</v>
+      </c>
+      <c r="E203" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F203" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G203" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H203" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>221</v>
+      </c>
+      <c r="B204" t="s">
+        <v>0</v>
+      </c>
+      <c r="C204" t="s">
+        <v>10</v>
+      </c>
+      <c r="D204" t="n">
+        <v>1.657021692E9</v>
+      </c>
+      <c r="E204" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F204" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G204" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H204" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>223</v>
+      </c>
+      <c r="B205" t="s">
+        <v>0</v>
+      </c>
+      <c r="C205" t="s">
+        <v>10</v>
+      </c>
+      <c r="D205" t="n">
+        <v>1.657023151E9</v>
+      </c>
+      <c r="E205" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F205" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G205" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H205" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>224</v>
+      </c>
+      <c r="B206" t="s">
+        <v>0</v>
+      </c>
+      <c r="C206" t="s">
+        <v>10</v>
+      </c>
+      <c r="D206" t="n">
+        <v>1.657023516E9</v>
+      </c>
+      <c r="E206" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F206" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G206" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H206" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>225</v>
+      </c>
+      <c r="B207" t="s">
+        <v>0</v>
+      </c>
+      <c r="C207" t="s">
+        <v>10</v>
+      </c>
+      <c r="D207" t="n">
+        <v>1.657023699E9</v>
+      </c>
+      <c r="E207" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F207" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G207" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H207" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>226</v>
+      </c>
+      <c r="B208" t="s">
+        <v>0</v>
+      </c>
+      <c r="C208" t="s">
+        <v>10</v>
+      </c>
+      <c r="D208" t="n">
+        <v>1.657023941E9</v>
+      </c>
+      <c r="E208" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F208" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G208" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H208" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>227</v>
+      </c>
+      <c r="B209" t="s">
+        <v>0</v>
+      </c>
+      <c r="C209" t="s">
+        <v>10</v>
+      </c>
+      <c r="D209" t="n">
+        <v>1.657024243E9</v>
+      </c>
+      <c r="E209" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F209" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G209" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H209" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>228</v>
+      </c>
+      <c r="B210" t="s">
+        <v>0</v>
+      </c>
+      <c r="C210" t="s">
+        <v>10</v>
+      </c>
+      <c r="D210" t="n">
+        <v>1.657025878E9</v>
+      </c>
+      <c r="E210" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F210" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G210" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H210" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>229</v>
+      </c>
+      <c r="B211" t="s">
+        <v>0</v>
+      </c>
+      <c r="C211" t="s">
+        <v>10</v>
+      </c>
+      <c r="D211" t="n">
+        <v>1.657037529E9</v>
+      </c>
+      <c r="E211" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F211" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G211" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H211" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>230</v>
+      </c>
+      <c r="B212" t="s">
+        <v>0</v>
+      </c>
+      <c r="C212" t="s">
+        <v>10</v>
+      </c>
+      <c r="D212" t="n">
+        <v>1.657188092E9</v>
+      </c>
+      <c r="E212" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F212" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G212" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H212" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>230</v>
+      </c>
+      <c r="B213" t="s">
+        <v>0</v>
+      </c>
+      <c r="C213" t="s">
+        <v>10</v>
+      </c>
+      <c r="D213" t="n">
+        <v>1.657188092E9</v>
+      </c>
+      <c r="E213" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="F213" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="G213" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H213" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5927,7 +6623,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L189"/>
+  <dimension ref="A1:L213"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -13121,6 +13817,918 @@
         <v>0</v>
       </c>
     </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>207</v>
+      </c>
+      <c r="B190" t="s">
+        <v>0</v>
+      </c>
+      <c r="C190" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="D190" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E190" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F190" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G190" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H190" t="s">
+        <v>0</v>
+      </c>
+      <c r="I190" t="s">
+        <v>161</v>
+      </c>
+      <c r="J190" t="s">
+        <v>0</v>
+      </c>
+      <c r="K190" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L190" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>208</v>
+      </c>
+      <c r="B191" t="s">
+        <v>0</v>
+      </c>
+      <c r="C191" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="D191" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E191" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F191" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G191" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H191" t="s">
+        <v>0</v>
+      </c>
+      <c r="I191" t="s">
+        <v>161</v>
+      </c>
+      <c r="J191" t="s">
+        <v>0</v>
+      </c>
+      <c r="K191" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L191" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>209</v>
+      </c>
+      <c r="B192" t="s">
+        <v>0</v>
+      </c>
+      <c r="C192" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="D192" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E192" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F192" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G192" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H192" t="s">
+        <v>0</v>
+      </c>
+      <c r="I192" t="s">
+        <v>161</v>
+      </c>
+      <c r="J192" t="s">
+        <v>0</v>
+      </c>
+      <c r="K192" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L192" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>210</v>
+      </c>
+      <c r="B193" t="s">
+        <v>0</v>
+      </c>
+      <c r="C193" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="D193" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E193" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F193" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G193" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H193" t="s">
+        <v>0</v>
+      </c>
+      <c r="I193" t="s">
+        <v>161</v>
+      </c>
+      <c r="J193" t="s">
+        <v>0</v>
+      </c>
+      <c r="K193" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L193" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>211</v>
+      </c>
+      <c r="B194" t="s">
+        <v>0</v>
+      </c>
+      <c r="C194" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="D194" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F194" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G194" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H194" t="s">
+        <v>0</v>
+      </c>
+      <c r="I194" t="s">
+        <v>161</v>
+      </c>
+      <c r="J194" t="s">
+        <v>0</v>
+      </c>
+      <c r="K194" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L194" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>212</v>
+      </c>
+      <c r="B195" t="s">
+        <v>0</v>
+      </c>
+      <c r="C195" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="D195" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E195" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F195" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G195" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H195" t="s">
+        <v>0</v>
+      </c>
+      <c r="I195" t="s">
+        <v>161</v>
+      </c>
+      <c r="J195" t="s">
+        <v>0</v>
+      </c>
+      <c r="K195" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L195" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>213</v>
+      </c>
+      <c r="B196" t="s">
+        <v>0</v>
+      </c>
+      <c r="C196" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="D196" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E196" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F196" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G196" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H196" t="s">
+        <v>0</v>
+      </c>
+      <c r="I196" t="s">
+        <v>161</v>
+      </c>
+      <c r="J196" t="s">
+        <v>0</v>
+      </c>
+      <c r="K196" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L196" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>214</v>
+      </c>
+      <c r="B197" t="s">
+        <v>0</v>
+      </c>
+      <c r="C197" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="D197" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E197" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F197" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G197" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H197" t="s">
+        <v>0</v>
+      </c>
+      <c r="I197" t="s">
+        <v>161</v>
+      </c>
+      <c r="J197" t="s">
+        <v>0</v>
+      </c>
+      <c r="K197" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L197" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>215</v>
+      </c>
+      <c r="B198" t="s">
+        <v>0</v>
+      </c>
+      <c r="C198" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="D198" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E198" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F198" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G198" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H198" t="s">
+        <v>0</v>
+      </c>
+      <c r="I198" t="s">
+        <v>161</v>
+      </c>
+      <c r="J198" t="s">
+        <v>0</v>
+      </c>
+      <c r="K198" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L198" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>216</v>
+      </c>
+      <c r="B199" t="s">
+        <v>0</v>
+      </c>
+      <c r="C199" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="D199" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F199" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G199" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H199" t="s">
+        <v>0</v>
+      </c>
+      <c r="I199" t="s">
+        <v>161</v>
+      </c>
+      <c r="J199" t="s">
+        <v>0</v>
+      </c>
+      <c r="K199" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L199" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>217</v>
+      </c>
+      <c r="B200" t="s">
+        <v>0</v>
+      </c>
+      <c r="C200" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="D200" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E200" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F200" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G200" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H200" t="s">
+        <v>0</v>
+      </c>
+      <c r="I200" t="s">
+        <v>161</v>
+      </c>
+      <c r="J200" t="s">
+        <v>0</v>
+      </c>
+      <c r="K200" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L200" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>218</v>
+      </c>
+      <c r="B201" t="s">
+        <v>0</v>
+      </c>
+      <c r="C201" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="D201" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E201" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F201" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G201" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H201" t="s">
+        <v>0</v>
+      </c>
+      <c r="I201" t="s">
+        <v>161</v>
+      </c>
+      <c r="J201" t="s">
+        <v>0</v>
+      </c>
+      <c r="K201" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L201" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>219</v>
+      </c>
+      <c r="B202" t="s">
+        <v>0</v>
+      </c>
+      <c r="C202" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="D202" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E202" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F202" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G202" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H202" t="s">
+        <v>0</v>
+      </c>
+      <c r="I202" t="s">
+        <v>161</v>
+      </c>
+      <c r="J202" t="s">
+        <v>0</v>
+      </c>
+      <c r="K202" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L202" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>220</v>
+      </c>
+      <c r="B203" t="s">
+        <v>0</v>
+      </c>
+      <c r="C203" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="D203" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E203" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F203" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G203" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H203" t="s">
+        <v>0</v>
+      </c>
+      <c r="I203" t="s">
+        <v>161</v>
+      </c>
+      <c r="J203" t="s">
+        <v>0</v>
+      </c>
+      <c r="K203" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L203" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>221</v>
+      </c>
+      <c r="B204" t="s">
+        <v>0</v>
+      </c>
+      <c r="C204" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="D204" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E204" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G204" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H204" t="s">
+        <v>0</v>
+      </c>
+      <c r="I204" t="s">
+        <v>161</v>
+      </c>
+      <c r="J204" t="s">
+        <v>0</v>
+      </c>
+      <c r="K204" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L204" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>223</v>
+      </c>
+      <c r="B205" t="s">
+        <v>0</v>
+      </c>
+      <c r="C205" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="D205" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E205" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F205" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G205" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H205" t="s">
+        <v>0</v>
+      </c>
+      <c r="I205" t="s">
+        <v>161</v>
+      </c>
+      <c r="J205" t="s">
+        <v>0</v>
+      </c>
+      <c r="K205" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L205" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>224</v>
+      </c>
+      <c r="B206" t="s">
+        <v>0</v>
+      </c>
+      <c r="C206" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="D206" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E206" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F206" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G206" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H206" t="s">
+        <v>0</v>
+      </c>
+      <c r="I206" t="s">
+        <v>161</v>
+      </c>
+      <c r="J206" t="s">
+        <v>0</v>
+      </c>
+      <c r="K206" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L206" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>225</v>
+      </c>
+      <c r="B207" t="s">
+        <v>0</v>
+      </c>
+      <c r="C207" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="D207" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E207" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F207" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G207" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H207" t="s">
+        <v>0</v>
+      </c>
+      <c r="I207" t="s">
+        <v>161</v>
+      </c>
+      <c r="J207" t="s">
+        <v>0</v>
+      </c>
+      <c r="K207" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L207" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>226</v>
+      </c>
+      <c r="B208" t="s">
+        <v>0</v>
+      </c>
+      <c r="C208" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="D208" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E208" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F208" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G208" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H208" t="s">
+        <v>0</v>
+      </c>
+      <c r="I208" t="s">
+        <v>161</v>
+      </c>
+      <c r="J208" t="s">
+        <v>0</v>
+      </c>
+      <c r="K208" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L208" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>227</v>
+      </c>
+      <c r="B209" t="s">
+        <v>0</v>
+      </c>
+      <c r="C209" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="D209" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E209" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F209" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G209" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H209" t="s">
+        <v>0</v>
+      </c>
+      <c r="I209" t="s">
+        <v>161</v>
+      </c>
+      <c r="J209" t="s">
+        <v>0</v>
+      </c>
+      <c r="K209" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L209" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>228</v>
+      </c>
+      <c r="B210" t="s">
+        <v>0</v>
+      </c>
+      <c r="C210" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="D210" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E210" t="n">
+        <v>655618.0</v>
+      </c>
+      <c r="F210" t="n">
+        <v>1.0485764E7</v>
+      </c>
+      <c r="G210" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H210" t="s">
+        <v>0</v>
+      </c>
+      <c r="I210" t="s">
+        <v>161</v>
+      </c>
+      <c r="J210" t="s">
+        <v>0</v>
+      </c>
+      <c r="K210" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L210" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>229</v>
+      </c>
+      <c r="B211" t="s">
+        <v>0</v>
+      </c>
+      <c r="C211" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="D211" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E211" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F211" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G211" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H211" t="s">
+        <v>0</v>
+      </c>
+      <c r="I211" t="s">
+        <v>161</v>
+      </c>
+      <c r="J211" t="s">
+        <v>0</v>
+      </c>
+      <c r="K211" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L211" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>230</v>
+      </c>
+      <c r="B212" t="s">
+        <v>0</v>
+      </c>
+      <c r="C212" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="D212" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E212" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F212" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G212" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H212" t="s">
+        <v>0</v>
+      </c>
+      <c r="I212" t="s">
+        <v>161</v>
+      </c>
+      <c r="J212" t="s">
+        <v>0</v>
+      </c>
+      <c r="K212" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L212" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>230</v>
+      </c>
+      <c r="B213" t="s">
+        <v>0</v>
+      </c>
+      <c r="C213" t="n">
+        <v>522.0</v>
+      </c>
+      <c r="D213" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E213" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F213" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G213" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H213" t="s">
+        <v>0</v>
+      </c>
+      <c r="I213" t="s">
+        <v>161</v>
+      </c>
+      <c r="J213" t="s">
+        <v>0</v>
+      </c>
+      <c r="K213" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L213" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13128,7 +14736,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H565"/>
+  <dimension ref="A1:H637"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -27829,6 +29437,1878 @@
         <v>8193.0</v>
       </c>
     </row>
+    <row r="566">
+      <c r="A566" t="s">
+        <v>207</v>
+      </c>
+      <c r="B566" t="s">
+        <v>0</v>
+      </c>
+      <c r="C566" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D566" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E566" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F566" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G566" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H566" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="s">
+        <v>207</v>
+      </c>
+      <c r="B567" t="s">
+        <v>0</v>
+      </c>
+      <c r="C567" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D567" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E567" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F567" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G567" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H567" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="s">
+        <v>207</v>
+      </c>
+      <c r="B568" t="s">
+        <v>0</v>
+      </c>
+      <c r="C568" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D568" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E568" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F568" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G568" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H568" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="s">
+        <v>208</v>
+      </c>
+      <c r="B569" t="s">
+        <v>0</v>
+      </c>
+      <c r="C569" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D569" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E569" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F569" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G569" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H569" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="s">
+        <v>208</v>
+      </c>
+      <c r="B570" t="s">
+        <v>0</v>
+      </c>
+      <c r="C570" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D570" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E570" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F570" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G570" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H570" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="s">
+        <v>208</v>
+      </c>
+      <c r="B571" t="s">
+        <v>0</v>
+      </c>
+      <c r="C571" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D571" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E571" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F571" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G571" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H571" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="s">
+        <v>209</v>
+      </c>
+      <c r="B572" t="s">
+        <v>0</v>
+      </c>
+      <c r="C572" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D572" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E572" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F572" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G572" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H572" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="s">
+        <v>209</v>
+      </c>
+      <c r="B573" t="s">
+        <v>0</v>
+      </c>
+      <c r="C573" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D573" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E573" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F573" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G573" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H573" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="s">
+        <v>209</v>
+      </c>
+      <c r="B574" t="s">
+        <v>0</v>
+      </c>
+      <c r="C574" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D574" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E574" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F574" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G574" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H574" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="s">
+        <v>210</v>
+      </c>
+      <c r="B575" t="s">
+        <v>0</v>
+      </c>
+      <c r="C575" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D575" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E575" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F575" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G575" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H575" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="s">
+        <v>210</v>
+      </c>
+      <c r="B576" t="s">
+        <v>0</v>
+      </c>
+      <c r="C576" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D576" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E576" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F576" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G576" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H576" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="s">
+        <v>210</v>
+      </c>
+      <c r="B577" t="s">
+        <v>0</v>
+      </c>
+      <c r="C577" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D577" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E577" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F577" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G577" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H577" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="s">
+        <v>211</v>
+      </c>
+      <c r="B578" t="s">
+        <v>0</v>
+      </c>
+      <c r="C578" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D578" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E578" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F578" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G578" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H578" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="s">
+        <v>211</v>
+      </c>
+      <c r="B579" t="s">
+        <v>0</v>
+      </c>
+      <c r="C579" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D579" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E579" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F579" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G579" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H579" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="s">
+        <v>211</v>
+      </c>
+      <c r="B580" t="s">
+        <v>0</v>
+      </c>
+      <c r="C580" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D580" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E580" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F580" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G580" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H580" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="s">
+        <v>212</v>
+      </c>
+      <c r="B581" t="s">
+        <v>0</v>
+      </c>
+      <c r="C581" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D581" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E581" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F581" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G581" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H581" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="s">
+        <v>212</v>
+      </c>
+      <c r="B582" t="s">
+        <v>0</v>
+      </c>
+      <c r="C582" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D582" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E582" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F582" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G582" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H582" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="s">
+        <v>212</v>
+      </c>
+      <c r="B583" t="s">
+        <v>0</v>
+      </c>
+      <c r="C583" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D583" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E583" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F583" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G583" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H583" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="s">
+        <v>213</v>
+      </c>
+      <c r="B584" t="s">
+        <v>0</v>
+      </c>
+      <c r="C584" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D584" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E584" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F584" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G584" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H584" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="s">
+        <v>213</v>
+      </c>
+      <c r="B585" t="s">
+        <v>0</v>
+      </c>
+      <c r="C585" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D585" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E585" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F585" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G585" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H585" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="s">
+        <v>213</v>
+      </c>
+      <c r="B586" t="s">
+        <v>0</v>
+      </c>
+      <c r="C586" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D586" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E586" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F586" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G586" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H586" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="s">
+        <v>214</v>
+      </c>
+      <c r="B587" t="s">
+        <v>0</v>
+      </c>
+      <c r="C587" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D587" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E587" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F587" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G587" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H587" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="s">
+        <v>214</v>
+      </c>
+      <c r="B588" t="s">
+        <v>0</v>
+      </c>
+      <c r="C588" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D588" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E588" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F588" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G588" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H588" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="s">
+        <v>214</v>
+      </c>
+      <c r="B589" t="s">
+        <v>0</v>
+      </c>
+      <c r="C589" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D589" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E589" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F589" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G589" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H589" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="s">
+        <v>215</v>
+      </c>
+      <c r="B590" t="s">
+        <v>0</v>
+      </c>
+      <c r="C590" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D590" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E590" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F590" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G590" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H590" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="s">
+        <v>215</v>
+      </c>
+      <c r="B591" t="s">
+        <v>0</v>
+      </c>
+      <c r="C591" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D591" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E591" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F591" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G591" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H591" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="s">
+        <v>215</v>
+      </c>
+      <c r="B592" t="s">
+        <v>0</v>
+      </c>
+      <c r="C592" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D592" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E592" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F592" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G592" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H592" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="s">
+        <v>216</v>
+      </c>
+      <c r="B593" t="s">
+        <v>0</v>
+      </c>
+      <c r="C593" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D593" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E593" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F593" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G593" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H593" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="s">
+        <v>216</v>
+      </c>
+      <c r="B594" t="s">
+        <v>0</v>
+      </c>
+      <c r="C594" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D594" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E594" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F594" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G594" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H594" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="s">
+        <v>216</v>
+      </c>
+      <c r="B595" t="s">
+        <v>0</v>
+      </c>
+      <c r="C595" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D595" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E595" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F595" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G595" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H595" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="s">
+        <v>217</v>
+      </c>
+      <c r="B596" t="s">
+        <v>0</v>
+      </c>
+      <c r="C596" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D596" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E596" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F596" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G596" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H596" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="s">
+        <v>217</v>
+      </c>
+      <c r="B597" t="s">
+        <v>0</v>
+      </c>
+      <c r="C597" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D597" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E597" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F597" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G597" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H597" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="s">
+        <v>217</v>
+      </c>
+      <c r="B598" t="s">
+        <v>0</v>
+      </c>
+      <c r="C598" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D598" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E598" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F598" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G598" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H598" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="s">
+        <v>218</v>
+      </c>
+      <c r="B599" t="s">
+        <v>0</v>
+      </c>
+      <c r="C599" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D599" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E599" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F599" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G599" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H599" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="s">
+        <v>218</v>
+      </c>
+      <c r="B600" t="s">
+        <v>0</v>
+      </c>
+      <c r="C600" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D600" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E600" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F600" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G600" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H600" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="s">
+        <v>218</v>
+      </c>
+      <c r="B601" t="s">
+        <v>0</v>
+      </c>
+      <c r="C601" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D601" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E601" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F601" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G601" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H601" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="s">
+        <v>219</v>
+      </c>
+      <c r="B602" t="s">
+        <v>0</v>
+      </c>
+      <c r="C602" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D602" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E602" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F602" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G602" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H602" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="s">
+        <v>219</v>
+      </c>
+      <c r="B603" t="s">
+        <v>0</v>
+      </c>
+      <c r="C603" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D603" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E603" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F603" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G603" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H603" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="s">
+        <v>219</v>
+      </c>
+      <c r="B604" t="s">
+        <v>0</v>
+      </c>
+      <c r="C604" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D604" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E604" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F604" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G604" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H604" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="s">
+        <v>220</v>
+      </c>
+      <c r="B605" t="s">
+        <v>0</v>
+      </c>
+      <c r="C605" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D605" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E605" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F605" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G605" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H605" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="s">
+        <v>220</v>
+      </c>
+      <c r="B606" t="s">
+        <v>0</v>
+      </c>
+      <c r="C606" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D606" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E606" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F606" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G606" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H606" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="s">
+        <v>220</v>
+      </c>
+      <c r="B607" t="s">
+        <v>0</v>
+      </c>
+      <c r="C607" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D607" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E607" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F607" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G607" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H607" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="s">
+        <v>222</v>
+      </c>
+      <c r="B608" t="s">
+        <v>0</v>
+      </c>
+      <c r="C608" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D608" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E608" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F608" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G608" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H608" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="s">
+        <v>222</v>
+      </c>
+      <c r="B609" t="s">
+        <v>0</v>
+      </c>
+      <c r="C609" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D609" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E609" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F609" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G609" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H609" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="s">
+        <v>222</v>
+      </c>
+      <c r="B610" t="s">
+        <v>0</v>
+      </c>
+      <c r="C610" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D610" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E610" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F610" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G610" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H610" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="s">
+        <v>223</v>
+      </c>
+      <c r="B611" t="s">
+        <v>0</v>
+      </c>
+      <c r="C611" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D611" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E611" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F611" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G611" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H611" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="s">
+        <v>223</v>
+      </c>
+      <c r="B612" t="s">
+        <v>0</v>
+      </c>
+      <c r="C612" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D612" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E612" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F612" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G612" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H612" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="s">
+        <v>223</v>
+      </c>
+      <c r="B613" t="s">
+        <v>0</v>
+      </c>
+      <c r="C613" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D613" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E613" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F613" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G613" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H613" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="s">
+        <v>224</v>
+      </c>
+      <c r="B614" t="s">
+        <v>0</v>
+      </c>
+      <c r="C614" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D614" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E614" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F614" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G614" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H614" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="s">
+        <v>224</v>
+      </c>
+      <c r="B615" t="s">
+        <v>0</v>
+      </c>
+      <c r="C615" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D615" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E615" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F615" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G615" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H615" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="s">
+        <v>224</v>
+      </c>
+      <c r="B616" t="s">
+        <v>0</v>
+      </c>
+      <c r="C616" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D616" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E616" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F616" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G616" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H616" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="s">
+        <v>225</v>
+      </c>
+      <c r="B617" t="s">
+        <v>0</v>
+      </c>
+      <c r="C617" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D617" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E617" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F617" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G617" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H617" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="s">
+        <v>225</v>
+      </c>
+      <c r="B618" t="s">
+        <v>0</v>
+      </c>
+      <c r="C618" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D618" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E618" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F618" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G618" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H618" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="s">
+        <v>225</v>
+      </c>
+      <c r="B619" t="s">
+        <v>0</v>
+      </c>
+      <c r="C619" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D619" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E619" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F619" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G619" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H619" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="s">
+        <v>226</v>
+      </c>
+      <c r="B620" t="s">
+        <v>0</v>
+      </c>
+      <c r="C620" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D620" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E620" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F620" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G620" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H620" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="s">
+        <v>226</v>
+      </c>
+      <c r="B621" t="s">
+        <v>0</v>
+      </c>
+      <c r="C621" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D621" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E621" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F621" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G621" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H621" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="s">
+        <v>226</v>
+      </c>
+      <c r="B622" t="s">
+        <v>0</v>
+      </c>
+      <c r="C622" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D622" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E622" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F622" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G622" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H622" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="s">
+        <v>227</v>
+      </c>
+      <c r="B623" t="s">
+        <v>0</v>
+      </c>
+      <c r="C623" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D623" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E623" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F623" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G623" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H623" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="s">
+        <v>227</v>
+      </c>
+      <c r="B624" t="s">
+        <v>0</v>
+      </c>
+      <c r="C624" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D624" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E624" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F624" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G624" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H624" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="s">
+        <v>227</v>
+      </c>
+      <c r="B625" t="s">
+        <v>0</v>
+      </c>
+      <c r="C625" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D625" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E625" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F625" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G625" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H625" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="s">
+        <v>228</v>
+      </c>
+      <c r="B626" t="s">
+        <v>0</v>
+      </c>
+      <c r="C626" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D626" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E626" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F626" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G626" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H626" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="s">
+        <v>228</v>
+      </c>
+      <c r="B627" t="s">
+        <v>0</v>
+      </c>
+      <c r="C627" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D627" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E627" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F627" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G627" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H627" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="s">
+        <v>228</v>
+      </c>
+      <c r="B628" t="s">
+        <v>0</v>
+      </c>
+      <c r="C628" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D628" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E628" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F628" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G628" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H628" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="s">
+        <v>229</v>
+      </c>
+      <c r="B629" t="s">
+        <v>0</v>
+      </c>
+      <c r="C629" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D629" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E629" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F629" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G629" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H629" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="s">
+        <v>229</v>
+      </c>
+      <c r="B630" t="s">
+        <v>0</v>
+      </c>
+      <c r="C630" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D630" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E630" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F630" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G630" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H630" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="s">
+        <v>229</v>
+      </c>
+      <c r="B631" t="s">
+        <v>0</v>
+      </c>
+      <c r="C631" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D631" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E631" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F631" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G631" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H631" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="s">
+        <v>230</v>
+      </c>
+      <c r="B632" t="s">
+        <v>0</v>
+      </c>
+      <c r="C632" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D632" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E632" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F632" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G632" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H632" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="s">
+        <v>230</v>
+      </c>
+      <c r="B633" t="s">
+        <v>0</v>
+      </c>
+      <c r="C633" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D633" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E633" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F633" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G633" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H633" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="s">
+        <v>230</v>
+      </c>
+      <c r="B634" t="s">
+        <v>0</v>
+      </c>
+      <c r="C634" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D634" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E634" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F634" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G634" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H634" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="s">
+        <v>230</v>
+      </c>
+      <c r="B635" t="s">
+        <v>0</v>
+      </c>
+      <c r="C635" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D635" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E635" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F635" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G635" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H635" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="s">
+        <v>230</v>
+      </c>
+      <c r="B636" t="s">
+        <v>0</v>
+      </c>
+      <c r="C636" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D636" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E636" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F636" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G636" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H636" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="s">
+        <v>230</v>
+      </c>
+      <c r="B637" t="s">
+        <v>0</v>
+      </c>
+      <c r="C637" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D637" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E637" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F637" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G637" t="n">
+        <v>2560.0</v>
+      </c>
+      <c r="H637" t="n">
+        <v>8193.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/sheet/msg_8705.xlsx
+++ b/data/sheet/msg_8705.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6373" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6457" uniqueCount="233">
   <si>
     <t/>
   </si>
@@ -716,6 +716,12 @@
   <si>
     <t>2022-07-07 12:01:33</t>
   </si>
+  <si>
+    <t>2022-10-24 13:43:45</t>
+  </si>
+  <si>
+    <t>2022-10-27 22:39:04</t>
+  </si>
 </sst>
 </file>
 
@@ -1067,7 +1073,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H213"/>
+  <dimension ref="A1:H215"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6616,6 +6622,58 @@
         <v>255.0</v>
       </c>
     </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>231</v>
+      </c>
+      <c r="B214" t="s">
+        <v>0</v>
+      </c>
+      <c r="C214" t="s">
+        <v>10</v>
+      </c>
+      <c r="D214" t="n">
+        <v>1.666611832E9</v>
+      </c>
+      <c r="E214" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F214" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="G214" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H214" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>232</v>
+      </c>
+      <c r="B215" t="s">
+        <v>0</v>
+      </c>
+      <c r="C215" t="s">
+        <v>10</v>
+      </c>
+      <c r="D215" t="n">
+        <v>1.666903154E9</v>
+      </c>
+      <c r="E215" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="F215" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="G215" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H215" t="n">
+        <v>255.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6623,7 +6681,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L213"/>
+  <dimension ref="A1:L215"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -14729,6 +14787,82 @@
         <v>0</v>
       </c>
     </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>231</v>
+      </c>
+      <c r="B214" t="s">
+        <v>0</v>
+      </c>
+      <c r="C214" t="n">
+        <v>527.0</v>
+      </c>
+      <c r="D214" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E214" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F214" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="G214" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H214" t="s">
+        <v>0</v>
+      </c>
+      <c r="I214" t="s">
+        <v>161</v>
+      </c>
+      <c r="J214" t="s">
+        <v>0</v>
+      </c>
+      <c r="K214" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L214" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>232</v>
+      </c>
+      <c r="B215" t="s">
+        <v>0</v>
+      </c>
+      <c r="C215" t="n">
+        <v>527.0</v>
+      </c>
+      <c r="D215" t="n">
+        <v>37122.0</v>
+      </c>
+      <c r="E215" t="n">
+        <v>10.0</v>
+      </c>
+      <c r="F215" t="n">
+        <v>160.0</v>
+      </c>
+      <c r="G215" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H215" t="s">
+        <v>0</v>
+      </c>
+      <c r="I215" t="s">
+        <v>161</v>
+      </c>
+      <c r="J215" t="s">
+        <v>0</v>
+      </c>
+      <c r="K215" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="L215" t="s">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -14736,7 +14870,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H637"/>
+  <dimension ref="A1:H649"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -31309,6 +31443,318 @@
         <v>8193.0</v>
       </c>
     </row>
+    <row r="638">
+      <c r="A638" t="s">
+        <v>231</v>
+      </c>
+      <c r="B638" t="s">
+        <v>0</v>
+      </c>
+      <c r="C638" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D638" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E638" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F638" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G638" t="n">
+        <v>10752.0</v>
+      </c>
+      <c r="H638" t="n">
+        <v>8192.0</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="s">
+        <v>231</v>
+      </c>
+      <c r="B639" t="s">
+        <v>0</v>
+      </c>
+      <c r="C639" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D639" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E639" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F639" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G639" t="n">
+        <v>10752.0</v>
+      </c>
+      <c r="H639" t="n">
+        <v>8192.0</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="s">
+        <v>231</v>
+      </c>
+      <c r="B640" t="s">
+        <v>0</v>
+      </c>
+      <c r="C640" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D640" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E640" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F640" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G640" t="n">
+        <v>10752.0</v>
+      </c>
+      <c r="H640" t="n">
+        <v>8192.0</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="s">
+        <v>231</v>
+      </c>
+      <c r="B641" t="s">
+        <v>0</v>
+      </c>
+      <c r="C641" t="n">
+        <v>-2.145376735E9</v>
+      </c>
+      <c r="D641" t="n">
+        <v>10016.0</v>
+      </c>
+      <c r="E641" t="n">
+        <v>2.69627393E8</v>
+      </c>
+      <c r="F641" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G641" t="n">
+        <v>10752.0</v>
+      </c>
+      <c r="H641" t="n">
+        <v>8192.0</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="s">
+        <v>231</v>
+      </c>
+      <c r="B642" t="s">
+        <v>0</v>
+      </c>
+      <c r="C642" t="n">
+        <v>-2.145376224E9</v>
+      </c>
+      <c r="D642" t="n">
+        <v>10016.0</v>
+      </c>
+      <c r="E642" t="n">
+        <v>2.69627393E8</v>
+      </c>
+      <c r="F642" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G642" t="n">
+        <v>10752.0</v>
+      </c>
+      <c r="H642" t="n">
+        <v>8192.0</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="s">
+        <v>231</v>
+      </c>
+      <c r="B643" t="s">
+        <v>0</v>
+      </c>
+      <c r="C643" t="n">
+        <v>-2.145374071E9</v>
+      </c>
+      <c r="D643" t="n">
+        <v>10016.0</v>
+      </c>
+      <c r="E643" t="n">
+        <v>2.69627393E8</v>
+      </c>
+      <c r="F643" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G643" t="n">
+        <v>10752.0</v>
+      </c>
+      <c r="H643" t="n">
+        <v>8192.0</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="s">
+        <v>232</v>
+      </c>
+      <c r="B644" t="s">
+        <v>0</v>
+      </c>
+      <c r="C644" t="n">
+        <v>1.914729089E9</v>
+      </c>
+      <c r="D644" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E644" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F644" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G644" t="n">
+        <v>10752.0</v>
+      </c>
+      <c r="H644" t="n">
+        <v>8192.0</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="s">
+        <v>232</v>
+      </c>
+      <c r="B645" t="s">
+        <v>0</v>
+      </c>
+      <c r="C645" t="n">
+        <v>1.914726672E9</v>
+      </c>
+      <c r="D645" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E645" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F645" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G645" t="n">
+        <v>10752.0</v>
+      </c>
+      <c r="H645" t="n">
+        <v>8192.0</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="s">
+        <v>232</v>
+      </c>
+      <c r="B646" t="s">
+        <v>0</v>
+      </c>
+      <c r="C646" t="n">
+        <v>1.914728742E9</v>
+      </c>
+      <c r="D646" t="n">
+        <v>10012.0</v>
+      </c>
+      <c r="E646" t="n">
+        <v>2.696274E8</v>
+      </c>
+      <c r="F646" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G646" t="n">
+        <v>10752.0</v>
+      </c>
+      <c r="H646" t="n">
+        <v>8192.0</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="s">
+        <v>232</v>
+      </c>
+      <c r="B647" t="s">
+        <v>0</v>
+      </c>
+      <c r="C647" t="n">
+        <v>-2.145376735E9</v>
+      </c>
+      <c r="D647" t="n">
+        <v>10016.0</v>
+      </c>
+      <c r="E647" t="n">
+        <v>2.69627393E8</v>
+      </c>
+      <c r="F647" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G647" t="n">
+        <v>10752.0</v>
+      </c>
+      <c r="H647" t="n">
+        <v>8192.0</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="s">
+        <v>232</v>
+      </c>
+      <c r="B648" t="s">
+        <v>0</v>
+      </c>
+      <c r="C648" t="n">
+        <v>-2.145376224E9</v>
+      </c>
+      <c r="D648" t="n">
+        <v>10016.0</v>
+      </c>
+      <c r="E648" t="n">
+        <v>2.69627393E8</v>
+      </c>
+      <c r="F648" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G648" t="n">
+        <v>10752.0</v>
+      </c>
+      <c r="H648" t="n">
+        <v>8192.0</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="s">
+        <v>232</v>
+      </c>
+      <c r="B649" t="s">
+        <v>0</v>
+      </c>
+      <c r="C649" t="n">
+        <v>-2.145374071E9</v>
+      </c>
+      <c r="D649" t="n">
+        <v>10016.0</v>
+      </c>
+      <c r="E649" t="n">
+        <v>2.69627393E8</v>
+      </c>
+      <c r="F649" t="n">
+        <v>256.0</v>
+      </c>
+      <c r="G649" t="n">
+        <v>10752.0</v>
+      </c>
+      <c r="H649" t="n">
+        <v>8192.0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
